--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Common_Name</t>
   </si>
@@ -168,6 +168,165 @@
   </si>
   <si>
     <t>Alabama</t>
+  </si>
+  <si>
+    <t>Pied-billed Grebe</t>
+  </si>
+  <si>
+    <t>Podilymbus podiceps</t>
+  </si>
+  <si>
+    <t>Common Loon</t>
+  </si>
+  <si>
+    <t>Gavia immer</t>
+  </si>
+  <si>
+    <t>Gaviidae</t>
+  </si>
+  <si>
+    <t>European Herring Gull</t>
+  </si>
+  <si>
+    <t>Larus argentatus</t>
+  </si>
+  <si>
+    <t>Laridae</t>
+  </si>
+  <si>
+    <t>Ring-billed Gull</t>
+  </si>
+  <si>
+    <t>Larus delawarensis</t>
+  </si>
+  <si>
+    <t>Laughing Gull</t>
+  </si>
+  <si>
+    <t>Leucophaeus atricilla</t>
+  </si>
+  <si>
+    <t>Bonaparte's Gull</t>
+  </si>
+  <si>
+    <t>Chroicocephalus philadelphia</t>
+  </si>
+  <si>
+    <t>Gull-billed Tern</t>
+  </si>
+  <si>
+    <t>Gelochelidon nilotica</t>
+  </si>
+  <si>
+    <t>Caspian Tern</t>
+  </si>
+  <si>
+    <t>Hydroprogne caspia</t>
+  </si>
+  <si>
+    <t>Royal Tern</t>
+  </si>
+  <si>
+    <t>Thalasseus maximus</t>
+  </si>
+  <si>
+    <t>Cabot's Tern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalasseus acuflavidus </t>
+  </si>
+  <si>
+    <t>Forster's Tern</t>
+  </si>
+  <si>
+    <t>Sterna forsteri</t>
+  </si>
+  <si>
+    <t>Common Tern</t>
+  </si>
+  <si>
+    <t>Sterna hirundo</t>
+  </si>
+  <si>
+    <t>Little Tern</t>
+  </si>
+  <si>
+    <t>Sterna albifrons</t>
+  </si>
+  <si>
+    <t>Black Tern</t>
+  </si>
+  <si>
+    <t>Chlidonias niger</t>
+  </si>
+  <si>
+    <t>Black Skimmer</t>
+  </si>
+  <si>
+    <t>Rynchops niger</t>
+  </si>
+  <si>
+    <t>Sooty Shearwater</t>
+  </si>
+  <si>
+    <t>Puffinus griseus</t>
+  </si>
+  <si>
+    <t>Mallard</t>
+  </si>
+  <si>
+    <t>Anas platyrhnchos</t>
+  </si>
+  <si>
+    <t>American Black Duck</t>
+  </si>
+  <si>
+    <t>Anas rubripes rubripes</t>
+  </si>
+  <si>
+    <t>Anatidae</t>
+  </si>
+  <si>
+    <t>Gadwall</t>
+  </si>
+  <si>
+    <t>Anas strepera</t>
+  </si>
+  <si>
+    <t>Baldpate</t>
+  </si>
+  <si>
+    <t>Mareca americana</t>
+  </si>
+  <si>
+    <t>Green-winged Teal</t>
+  </si>
+  <si>
+    <t>Anas carolinensis</t>
+  </si>
+  <si>
+    <t>Blue-winged Teal</t>
+  </si>
+  <si>
+    <t>Spatula discors</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Malacostraca</t>
+  </si>
+  <si>
+    <t>Decapoda</t>
+  </si>
+  <si>
+    <t>Chordata</t>
   </si>
 </sst>
 </file>
@@ -485,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +811,369 @@
       <c r="K2" t="s">
         <v>47</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
   <si>
     <t>Common_Name</t>
   </si>
@@ -155,178 +155,175 @@
     <t>eBird Clements Checklist v2018</t>
   </si>
   <si>
-    <t>Horned Grebe</t>
-  </si>
-  <si>
-    <t>Podiceps auritus</t>
-  </si>
-  <si>
-    <t>Podicipedidae</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Pied-billed Grebe</t>
-  </si>
-  <si>
-    <t>Podilymbus podiceps</t>
-  </si>
-  <si>
-    <t>Common Loon</t>
-  </si>
-  <si>
-    <t>Gavia immer</t>
-  </si>
-  <si>
-    <t>Gaviidae</t>
-  </si>
-  <si>
-    <t>European Herring Gull</t>
-  </si>
-  <si>
-    <t>Larus argentatus</t>
-  </si>
-  <si>
     <t>Laridae</t>
   </si>
   <si>
-    <t>Ring-billed Gull</t>
-  </si>
-  <si>
-    <t>Larus delawarensis</t>
-  </si>
-  <si>
-    <t>Laughing Gull</t>
-  </si>
-  <si>
-    <t>Leucophaeus atricilla</t>
-  </si>
-  <si>
-    <t>Bonaparte's Gull</t>
-  </si>
-  <si>
-    <t>Chroicocephalus philadelphia</t>
-  </si>
-  <si>
-    <t>Gull-billed Tern</t>
-  </si>
-  <si>
-    <t>Gelochelidon nilotica</t>
-  </si>
-  <si>
-    <t>Caspian Tern</t>
-  </si>
-  <si>
-    <t>Hydroprogne caspia</t>
-  </si>
-  <si>
     <t>Royal Tern</t>
   </si>
   <si>
     <t>Thalasseus maximus</t>
   </si>
   <si>
-    <t>Cabot's Tern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalasseus acuflavidus </t>
-  </si>
-  <si>
-    <t>Forster's Tern</t>
-  </si>
-  <si>
-    <t>Sterna forsteri</t>
-  </si>
-  <si>
-    <t>Common Tern</t>
-  </si>
-  <si>
-    <t>Sterna hirundo</t>
-  </si>
-  <si>
-    <t>Little Tern</t>
-  </si>
-  <si>
-    <t>Sterna albifrons</t>
-  </si>
-  <si>
-    <t>Black Tern</t>
-  </si>
-  <si>
-    <t>Chlidonias niger</t>
-  </si>
-  <si>
-    <t>Black Skimmer</t>
-  </si>
-  <si>
-    <t>Rynchops niger</t>
-  </si>
-  <si>
-    <t>Sooty Shearwater</t>
-  </si>
-  <si>
-    <t>Puffinus griseus</t>
-  </si>
-  <si>
     <t>Mallard</t>
   </si>
   <si>
     <t>Anas platyrhnchos</t>
   </si>
   <si>
-    <t>American Black Duck</t>
-  </si>
-  <si>
-    <t>Anas rubripes rubripes</t>
-  </si>
-  <si>
     <t>Anatidae</t>
   </si>
   <si>
     <t>Gadwall</t>
   </si>
   <si>
-    <t>Anas strepera</t>
-  </si>
-  <si>
-    <t>Baldpate</t>
-  </si>
-  <si>
     <t>Mareca americana</t>
   </si>
   <si>
-    <t>Green-winged Teal</t>
-  </si>
-  <si>
-    <t>Anas carolinensis</t>
-  </si>
-  <si>
-    <t>Blue-winged Teal</t>
-  </si>
-  <si>
-    <t>Spatula discors</t>
-  </si>
-  <si>
     <t>Animalia</t>
   </si>
   <si>
     <t>Arthropoda</t>
   </si>
   <si>
-    <t>Insecta</t>
-  </si>
-  <si>
     <t>Malacostraca</t>
   </si>
   <si>
-    <t>Decapoda</t>
-  </si>
-  <si>
     <t>Chordata</t>
+  </si>
+  <si>
+    <t>wt_or_vol</t>
+  </si>
+  <si>
+    <t>Teleostei</t>
+  </si>
+  <si>
+    <t>Clupeiformes</t>
+  </si>
+  <si>
+    <t>Clupeoidei</t>
+  </si>
+  <si>
+    <t>Clupeidae</t>
+  </si>
+  <si>
+    <t>Actinopterygii</t>
+  </si>
+  <si>
+    <t>Perciformes</t>
+  </si>
+  <si>
+    <t>Percidae</t>
+  </si>
+  <si>
+    <t>Double-crested Cormorant</t>
+  </si>
+  <si>
+    <t>Phalacrocorax auritus</t>
+  </si>
+  <si>
+    <t>Phalacrocoracidae</t>
+  </si>
+  <si>
+    <t>Dorosoma</t>
+  </si>
+  <si>
+    <t>Dorosoma cepedianum</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>Anguilliformes</t>
+  </si>
+  <si>
+    <t>Howell, A. 1928. Birds of Alabama. Department of Game and Fisheries of Alabama.</t>
+  </si>
+  <si>
+    <t>Plantae</t>
+  </si>
+  <si>
+    <t>Magnoliopsida</t>
+  </si>
+  <si>
+    <t>Poales</t>
+  </si>
+  <si>
+    <t>Cyperaceae</t>
+  </si>
+  <si>
+    <t>Carex</t>
+  </si>
+  <si>
+    <t>Tracheophyta</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2019</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2020</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2021</t>
+  </si>
+  <si>
+    <t>Poaceae</t>
+  </si>
+  <si>
+    <t>Fagales</t>
+  </si>
+  <si>
+    <t>Fagaceae</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>Mollusca</t>
+  </si>
+  <si>
+    <t>Mareca strepera</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2022</t>
+  </si>
+  <si>
+    <t>American Wigeon</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2023</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2024</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2025</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2026</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2027</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2028</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2029</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2030</t>
+  </si>
+  <si>
+    <t>eBird Clements Checklist v2031</t>
   </si>
 </sst>
 </file>
@@ -644,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP26"/>
+  <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +779,10 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -793,386 +790,1141 @@
       <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2">
+        <v>0.03</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3">
+        <v>0.65</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4">
+        <v>0.32</v>
+      </c>
+      <c r="AI4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="T3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" t="s">
-        <v>98</v>
-      </c>
-      <c r="W3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="T4" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" t="s">
-        <v>100</v>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5">
+        <v>3</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
       </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6">
+        <v>0.5</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7">
+        <v>0.216</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7">
+        <v>1578</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8">
+        <v>0.13</v>
+      </c>
+      <c r="AI8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
+      <c r="AJ8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8">
+        <v>1578</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH9">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9">
+        <v>1578</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10">
+        <v>0.1</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10">
+        <v>1578</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH11">
+        <v>0.42</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13">
+        <v>0.02</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH16">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH18">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH19">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH20">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH21">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH22">
+        <v>1.47E-2</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="124">
   <si>
     <t>Common_Name</t>
   </si>
@@ -263,15 +263,6 @@
     <t>Tracheophyta</t>
   </si>
   <si>
-    <t>eBird Clements Checklist v2019</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2020</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2021</t>
-  </si>
-  <si>
     <t>Poaceae</t>
   </si>
   <si>
@@ -293,37 +284,118 @@
     <t>Mareca strepera</t>
   </si>
   <si>
-    <t>eBird Clements Checklist v2022</t>
-  </si>
-  <si>
     <t>American Wigeon</t>
   </si>
   <si>
-    <t>eBird Clements Checklist v2023</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2024</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2025</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2026</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2027</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2028</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2029</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2030</t>
-  </si>
-  <si>
-    <t>eBird Clements Checklist v2031</t>
+    <t>mollusks and insects</t>
+  </si>
+  <si>
+    <t>pondweeds</t>
+  </si>
+  <si>
+    <t>grasses</t>
+  </si>
+  <si>
+    <t>algae</t>
+  </si>
+  <si>
+    <t>sedges</t>
+  </si>
+  <si>
+    <t>wild celery and waterweed</t>
+  </si>
+  <si>
+    <t>duckweeds</t>
+  </si>
+  <si>
+    <t>smartweeds</t>
+  </si>
+  <si>
+    <t>Alismatales</t>
+  </si>
+  <si>
+    <t>Potamogetonaceae</t>
+  </si>
+  <si>
+    <t>watermilfoils</t>
+  </si>
+  <si>
+    <t>Saxifragales</t>
+  </si>
+  <si>
+    <t>Haloragaceae</t>
+  </si>
+  <si>
+    <t>Myriophyllum</t>
+  </si>
+  <si>
+    <t>Araceae</t>
+  </si>
+  <si>
+    <t>Caryophyllales</t>
+  </si>
+  <si>
+    <t>Polygonaceae</t>
+  </si>
+  <si>
+    <t>Persicaria</t>
+  </si>
+  <si>
+    <t>Green-winged Teal</t>
+  </si>
+  <si>
+    <t>Anas crecca</t>
+  </si>
+  <si>
+    <t>snails, crustaceans, flies</t>
+  </si>
+  <si>
+    <t>smartweeds, duckweeds, watermilfoil, algae</t>
+  </si>
+  <si>
+    <t>Blue-winged Teal</t>
+  </si>
+  <si>
+    <t>Spatula discors</t>
+  </si>
+  <si>
+    <t>seed, stem, leaves</t>
+  </si>
+  <si>
+    <t>wild grasses</t>
+  </si>
+  <si>
+    <t>crustaceans</t>
+  </si>
+  <si>
+    <t>larvae</t>
+  </si>
+  <si>
+    <t>misc. insects</t>
+  </si>
+  <si>
+    <t>snails</t>
+  </si>
+  <si>
+    <t>Gastropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Northern Pintail</t>
+  </si>
+  <si>
+    <t>Anas Acuta</t>
+  </si>
+  <si>
+    <t>tzitzihoa</t>
+  </si>
+  <si>
+    <t>(pg. 54)</t>
   </si>
 </sst>
 </file>
@@ -641,13 +713,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP24"/>
+  <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1190,7 +1267,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -1220,7 +1297,7 @@
         <v>75</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH8">
         <v>0.13</v>
@@ -1252,7 +1329,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -1279,16 +1356,16 @@
         <v>74</v>
       </c>
       <c r="W9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF9" t="s">
         <v>83</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>86</v>
       </c>
       <c r="AH9">
         <v>0.65400000000000003</v>
@@ -1320,7 +1397,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -1341,7 +1418,7 @@
         <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s">
         <v>43</v>
@@ -1370,13 +1447,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -1420,13 +1497,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -1470,13 +1547,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -1517,7 +1594,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -1526,7 +1603,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -1539,6 +1616,12 @@
       </c>
       <c r="K14" t="s">
         <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>87</v>
       </c>
       <c r="AH14">
         <v>6.7699999999999996E-2</v>
@@ -1561,7 +1644,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1570,7 +1653,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
@@ -1583,6 +1666,24 @@
       </c>
       <c r="K15" t="s">
         <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>88</v>
       </c>
       <c r="AH15">
         <v>0.42799999999999999</v>
@@ -1605,7 +1706,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -1614,7 +1715,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -1627,6 +1728,24 @@
       </c>
       <c r="K16" t="s">
         <v>44</v>
+      </c>
+      <c r="T16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>89</v>
       </c>
       <c r="AH16">
         <v>0.13900000000000001</v>
@@ -1649,7 +1768,7 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -1658,7 +1777,7 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1671,6 +1790,12 @@
       </c>
       <c r="K17" t="s">
         <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>90</v>
       </c>
       <c r="AH17">
         <v>7.6999999999999999E-2</v>
@@ -1693,7 +1818,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -1702,7 +1827,7 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -1715,6 +1840,27 @@
       </c>
       <c r="K18" t="s">
         <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>91</v>
       </c>
       <c r="AH18">
         <v>7.3999999999999996E-2</v>
@@ -1737,7 +1883,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -1746,7 +1892,7 @@
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -1759,6 +1905,18 @@
       </c>
       <c r="K19" t="s">
         <v>44</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>92</v>
       </c>
       <c r="AH19">
         <v>5.7500000000000002E-2</v>
@@ -1781,7 +1939,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -1790,19 +1948,40 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG20" t="s">
         <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
       </c>
       <c r="AH20">
         <v>3.4799999999999998E-2</v>
@@ -1825,7 +2004,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1834,7 +2013,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
@@ -1847,6 +2026,24 @@
       </c>
       <c r="K21" t="s">
         <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>93</v>
       </c>
       <c r="AH21">
         <v>2.1999999999999999E-2</v>
@@ -1869,7 +2066,7 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -1878,7 +2075,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
@@ -1891,6 +2088,27 @@
       </c>
       <c r="K22" t="s">
         <v>44</v>
+      </c>
+      <c r="T22" t="s">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>94</v>
       </c>
       <c r="AH22">
         <v>1.47E-2</v>
@@ -1912,19 +2130,790 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
       <c r="K23" t="s">
         <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23">
+        <v>1889</v>
+      </c>
+      <c r="Q23">
+        <v>1913</v>
+      </c>
+      <c r="T23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH23">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23">
+        <v>653</v>
       </c>
       <c r="AP23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
       <c r="K24" t="s">
         <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24">
+        <v>1889</v>
+      </c>
+      <c r="Q24">
+        <v>1913</v>
+      </c>
+      <c r="T24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH24">
+        <v>0.38</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK24">
+        <v>653</v>
       </c>
       <c r="AP24" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25">
+        <v>1889</v>
+      </c>
+      <c r="Q25">
+        <v>1913</v>
+      </c>
+      <c r="T25" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH25">
+        <v>0.115</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26">
+        <v>1889</v>
+      </c>
+      <c r="Q26">
+        <v>1913</v>
+      </c>
+      <c r="T26" t="s">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH26">
+        <v>0.115</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK26">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27">
+        <v>1889</v>
+      </c>
+      <c r="Q27">
+        <v>1913</v>
+      </c>
+      <c r="T27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH27">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK27">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28">
+        <v>1886</v>
+      </c>
+      <c r="Q28">
+        <v>1912</v>
+      </c>
+      <c r="T28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH28">
+        <v>0.18</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>119</v>
+      </c>
+      <c r="O29">
+        <v>1886</v>
+      </c>
+      <c r="Q29">
+        <v>1912</v>
+      </c>
+      <c r="T29" t="s">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH29">
+        <v>0.12</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30">
+        <v>1886</v>
+      </c>
+      <c r="Q30">
+        <v>1912</v>
+      </c>
+      <c r="T30" t="s">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH30">
+        <v>0.08</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>119</v>
+      </c>
+      <c r="O31">
+        <v>1886</v>
+      </c>
+      <c r="Q31">
+        <v>1912</v>
+      </c>
+      <c r="T31" t="s">
+        <v>73</v>
+      </c>
+      <c r="U31" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH31">
+        <v>0.33</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32">
+        <v>1886</v>
+      </c>
+      <c r="Q32">
+        <v>1912</v>
+      </c>
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+      <c r="U32" t="s">
+        <v>84</v>
+      </c>
+      <c r="V32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH32">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>119</v>
+      </c>
+      <c r="O33">
+        <v>1886</v>
+      </c>
+      <c r="Q33">
+        <v>1912</v>
+      </c>
+      <c r="T33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH33">
+        <v>0.1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34">
+        <v>1886</v>
+      </c>
+      <c r="Q34">
+        <v>1912</v>
+      </c>
+      <c r="T34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH34">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="145">
   <si>
     <t>Common_Name</t>
   </si>
@@ -395,7 +395,70 @@
     <t>tzitzihoa</t>
   </si>
   <si>
-    <t>(pg. 54)</t>
+    <t>mollusks, crustaceans, insects</t>
+  </si>
+  <si>
+    <t>grasses and weeds</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>stomach contents</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Wood duck</t>
+  </si>
+  <si>
+    <t>Aix sponsa</t>
+  </si>
+  <si>
+    <t>misc. insects and crustaceans</t>
+  </si>
+  <si>
+    <t>mast</t>
+  </si>
+  <si>
+    <t>grass and sedges</t>
+  </si>
+  <si>
+    <t>Aythya marila</t>
+  </si>
+  <si>
+    <t>nearctica</t>
+  </si>
+  <si>
+    <t>Greater Scaup</t>
+  </si>
+  <si>
+    <t>Mississippi Sound</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>ditch grass</t>
+  </si>
+  <si>
+    <t>stems, leaves, rootstocks</t>
+  </si>
+  <si>
+    <t>Ruppiaceae</t>
+  </si>
+  <si>
+    <t>Ruppia</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>(pg. 66)</t>
   </si>
 </sst>
 </file>
@@ -713,12 +776,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP36"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +978,12 @@
       <c r="AL2">
         <v>1</v>
       </c>
+      <c r="AM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>143</v>
+      </c>
       <c r="AP2" t="s">
         <v>72</v>
       </c>
@@ -980,6 +1049,12 @@
       <c r="AL3">
         <v>1</v>
       </c>
+      <c r="AM3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>143</v>
+      </c>
       <c r="AP3" t="s">
         <v>72</v>
       </c>
@@ -1045,6 +1120,12 @@
       <c r="AL4">
         <v>1</v>
       </c>
+      <c r="AM4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>143</v>
+      </c>
       <c r="AP4" t="s">
         <v>72</v>
       </c>
@@ -1113,6 +1194,12 @@
       <c r="AL5">
         <v>1</v>
       </c>
+      <c r="AM5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>143</v>
+      </c>
       <c r="AP5" t="s">
         <v>72</v>
       </c>
@@ -1184,6 +1271,12 @@
       <c r="AL6">
         <v>1</v>
       </c>
+      <c r="AM6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>143</v>
+      </c>
       <c r="AP6" t="s">
         <v>72</v>
       </c>
@@ -1252,6 +1345,12 @@
       <c r="AL7">
         <v>1</v>
       </c>
+      <c r="AM7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>143</v>
+      </c>
       <c r="AP7" t="s">
         <v>72</v>
       </c>
@@ -1314,6 +1413,12 @@
       <c r="AL8">
         <v>1</v>
       </c>
+      <c r="AM8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>143</v>
+      </c>
       <c r="AP8" t="s">
         <v>72</v>
       </c>
@@ -1382,6 +1487,12 @@
       <c r="AL9">
         <v>1</v>
       </c>
+      <c r="AM9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>143</v>
+      </c>
       <c r="AP9" t="s">
         <v>72</v>
       </c>
@@ -1438,6 +1549,12 @@
       <c r="AL10">
         <v>1</v>
       </c>
+      <c r="AM10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>143</v>
+      </c>
       <c r="AP10" t="s">
         <v>72</v>
       </c>
@@ -1488,6 +1605,12 @@
       <c r="AL11">
         <v>1</v>
       </c>
+      <c r="AM11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>143</v>
+      </c>
       <c r="AP11" t="s">
         <v>72</v>
       </c>
@@ -1538,6 +1661,12 @@
       <c r="AL12">
         <v>1</v>
       </c>
+      <c r="AM12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>143</v>
+      </c>
       <c r="AP12" t="s">
         <v>72</v>
       </c>
@@ -1588,6 +1717,12 @@
       <c r="AL13">
         <v>1</v>
       </c>
+      <c r="AM13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>143</v>
+      </c>
       <c r="AP13" t="s">
         <v>72</v>
       </c>
@@ -1635,8 +1770,14 @@
       <c r="AK14" t="s">
         <v>43</v>
       </c>
-      <c r="AL14">
-        <v>1</v>
+      <c r="AL14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>142</v>
       </c>
       <c r="AP14" t="s">
         <v>72</v>
@@ -1697,8 +1838,14 @@
       <c r="AK15" t="s">
         <v>43</v>
       </c>
-      <c r="AL15">
-        <v>1</v>
+      <c r="AL15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>142</v>
       </c>
       <c r="AP15" t="s">
         <v>72</v>
@@ -1759,8 +1906,14 @@
       <c r="AK16" t="s">
         <v>43</v>
       </c>
-      <c r="AL16">
-        <v>1</v>
+      <c r="AL16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>142</v>
       </c>
       <c r="AP16" t="s">
         <v>72</v>
@@ -1809,8 +1962,14 @@
       <c r="AK17" t="s">
         <v>43</v>
       </c>
-      <c r="AL17">
-        <v>1</v>
+      <c r="AL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>142</v>
       </c>
       <c r="AP17" t="s">
         <v>72</v>
@@ -1874,8 +2033,14 @@
       <c r="AK18" t="s">
         <v>43</v>
       </c>
-      <c r="AL18">
-        <v>1</v>
+      <c r="AL18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>142</v>
       </c>
       <c r="AP18" t="s">
         <v>72</v>
@@ -1930,8 +2095,14 @@
       <c r="AK19" t="s">
         <v>43</v>
       </c>
-      <c r="AL19">
-        <v>1</v>
+      <c r="AL19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>142</v>
       </c>
       <c r="AP19" t="s">
         <v>72</v>
@@ -1980,6 +2151,9 @@
       <c r="Z20" t="s">
         <v>100</v>
       </c>
+      <c r="AB20" t="s">
+        <v>127</v>
+      </c>
       <c r="AG20" t="s">
         <v>97</v>
       </c>
@@ -1995,8 +2169,14 @@
       <c r="AK20" t="s">
         <v>43</v>
       </c>
-      <c r="AL20">
-        <v>1</v>
+      <c r="AL20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>142</v>
       </c>
       <c r="AP20" t="s">
         <v>72</v>
@@ -2042,6 +2222,9 @@
       <c r="Y21" t="s">
         <v>101</v>
       </c>
+      <c r="AB21" t="s">
+        <v>127</v>
+      </c>
       <c r="AG21" t="s">
         <v>93</v>
       </c>
@@ -2057,8 +2240,14 @@
       <c r="AK21" t="s">
         <v>43</v>
       </c>
-      <c r="AL21">
-        <v>1</v>
+      <c r="AL21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>142</v>
       </c>
       <c r="AP21" t="s">
         <v>72</v>
@@ -2107,6 +2296,9 @@
       <c r="Z22" t="s">
         <v>104</v>
       </c>
+      <c r="AB22" t="s">
+        <v>127</v>
+      </c>
       <c r="AG22" t="s">
         <v>94</v>
       </c>
@@ -2122,8 +2314,14 @@
       <c r="AK22" t="s">
         <v>43</v>
       </c>
-      <c r="AL22">
-        <v>1</v>
+      <c r="AL22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>142</v>
       </c>
       <c r="AP22" t="s">
         <v>72</v>
@@ -2166,6 +2364,9 @@
       <c r="T23" t="s">
         <v>53</v>
       </c>
+      <c r="AB23" t="s">
+        <v>125</v>
+      </c>
       <c r="AG23" t="s">
         <v>107</v>
       </c>
@@ -2180,6 +2381,15 @@
       </c>
       <c r="AK23">
         <v>653</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>142</v>
       </c>
       <c r="AP23" t="s">
         <v>72</v>
@@ -2237,6 +2447,9 @@
       <c r="Z24" t="s">
         <v>77</v>
       </c>
+      <c r="AB24" t="s">
+        <v>127</v>
+      </c>
       <c r="AF24" t="s">
         <v>83</v>
       </c>
@@ -2254,6 +2467,15 @@
       </c>
       <c r="AK24">
         <v>653</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>142</v>
       </c>
       <c r="AP24" t="s">
         <v>72</v>
@@ -2308,6 +2530,9 @@
       <c r="Y25" t="s">
         <v>96</v>
       </c>
+      <c r="AB25" t="s">
+        <v>127</v>
+      </c>
       <c r="AG25" t="s">
         <v>88</v>
       </c>
@@ -2322,6 +2547,18 @@
       </c>
       <c r="AK25">
         <v>653</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
@@ -2373,6 +2610,9 @@
       <c r="Y26" t="s">
         <v>79</v>
       </c>
+      <c r="AB26" t="s">
+        <v>125</v>
+      </c>
       <c r="AF26" t="s">
         <v>83</v>
       </c>
@@ -2390,6 +2630,18 @@
       </c>
       <c r="AK26">
         <v>653</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
@@ -2429,6 +2681,9 @@
       <c r="T27" t="s">
         <v>73</v>
       </c>
+      <c r="AB27" t="s">
+        <v>125</v>
+      </c>
       <c r="AF27" t="s">
         <v>83</v>
       </c>
@@ -2446,6 +2701,18 @@
       </c>
       <c r="AK27">
         <v>653</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -2500,6 +2767,9 @@
       <c r="Z28" t="s">
         <v>77</v>
       </c>
+      <c r="AB28" t="s">
+        <v>127</v>
+      </c>
       <c r="AF28" t="s">
         <v>83</v>
       </c>
@@ -2517,6 +2787,18 @@
       </c>
       <c r="AK28" t="s">
         <v>43</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
@@ -2568,6 +2850,9 @@
       <c r="Y29" t="s">
         <v>96</v>
       </c>
+      <c r="AB29" t="s">
+        <v>127</v>
+      </c>
       <c r="AF29" t="s">
         <v>111</v>
       </c>
@@ -2585,6 +2870,18 @@
       </c>
       <c r="AK29" t="s">
         <v>43</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -2639,6 +2936,9 @@
       <c r="Z30" t="s">
         <v>104</v>
       </c>
+      <c r="AB30" t="s">
+        <v>127</v>
+      </c>
       <c r="AG30" t="s">
         <v>94</v>
       </c>
@@ -2653,6 +2953,18 @@
       </c>
       <c r="AK30" t="s">
         <v>43</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
@@ -2704,6 +3016,9 @@
       <c r="Y31" t="s">
         <v>79</v>
       </c>
+      <c r="AB31" t="s">
+        <v>125</v>
+      </c>
       <c r="AG31" t="s">
         <v>112</v>
       </c>
@@ -2718,6 +3033,18 @@
       </c>
       <c r="AK31" t="s">
         <v>43</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
@@ -2763,6 +3090,9 @@
       <c r="V32" t="s">
         <v>117</v>
       </c>
+      <c r="AB32" t="s">
+        <v>127</v>
+      </c>
       <c r="AG32" t="s">
         <v>116</v>
       </c>
@@ -2778,8 +3108,20 @@
       <c r="AK32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2819,6 +3161,9 @@
       <c r="U33" t="s">
         <v>118</v>
       </c>
+      <c r="AB33" t="s">
+        <v>127</v>
+      </c>
       <c r="AF33" t="s">
         <v>114</v>
       </c>
@@ -2837,8 +3182,20 @@
       <c r="AK33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2878,6 +3235,9 @@
       <c r="U34" t="s">
         <v>54</v>
       </c>
+      <c r="AB34" t="s">
+        <v>125</v>
+      </c>
       <c r="AG34" t="s">
         <v>113</v>
       </c>
@@ -2893,8 +3253,20 @@
       <c r="AK34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -2910,10 +3282,550 @@
       <c r="E35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35">
+        <v>1890</v>
+      </c>
+      <c r="Q35">
+        <v>1915</v>
+      </c>
+      <c r="T35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH35">
+        <v>0.1285</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK35">
+        <v>790</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>119</v>
+      </c>
+      <c r="O36">
+        <v>1890</v>
+      </c>
+      <c r="Q36">
+        <v>1915</v>
+      </c>
+      <c r="T36" t="s">
+        <v>73</v>
+      </c>
+      <c r="U36" t="s">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH36">
+        <v>0.87</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK36">
+        <v>790</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>119</v>
+      </c>
+      <c r="O37">
+        <v>1891</v>
+      </c>
+      <c r="Q37">
+        <v>1913</v>
+      </c>
+      <c r="T37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U37" t="s">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH37">
+        <v>0.84</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK37">
+        <v>413</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" t="s">
+        <v>119</v>
+      </c>
+      <c r="O38">
+        <v>1891</v>
+      </c>
+      <c r="Q38">
+        <v>1913</v>
+      </c>
+      <c r="T38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH38">
+        <v>0.1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK38">
+        <v>413</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" t="s">
+        <v>119</v>
+      </c>
+      <c r="O39">
+        <v>1891</v>
+      </c>
+      <c r="Q39">
+        <v>1913</v>
+      </c>
+      <c r="T39" t="s">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH39">
+        <v>0.06</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK39">
+        <v>413</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40">
+        <v>11</v>
+      </c>
+      <c r="O40">
+        <v>1915</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1916</v>
+      </c>
+      <c r="R40" t="s">
+        <v>137</v>
+      </c>
+      <c r="T40" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" t="s">
+        <v>84</v>
+      </c>
+      <c r="V40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH40">
+        <v>0.5</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK40">
+        <v>7</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>136</v>
+      </c>
+      <c r="N41">
+        <v>11</v>
+      </c>
+      <c r="O41">
+        <v>1915</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1916</v>
+      </c>
+      <c r="R41" t="s">
+        <v>137</v>
+      </c>
+      <c r="T41" t="s">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s">
+        <v>74</v>
+      </c>
+      <c r="W41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH41">
+        <v>0.5</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK41">
+        <v>7</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="174">
   <si>
     <t>Common_Name</t>
   </si>
@@ -458,7 +458,94 @@
     <t>GN</t>
   </si>
   <si>
-    <t>(pg. 66)</t>
+    <t>egretta</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>gizzard shad</t>
+  </si>
+  <si>
+    <t>Stiggins Lake</t>
+  </si>
+  <si>
+    <t>Ardea alba</t>
+  </si>
+  <si>
+    <t>Western Great Egret</t>
+  </si>
+  <si>
+    <t>Areidae</t>
+  </si>
+  <si>
+    <t>Black-crowned Night Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax nycticorax</t>
+  </si>
+  <si>
+    <t>minnows</t>
+  </si>
+  <si>
+    <t>Cyprinodontiformes</t>
+  </si>
+  <si>
+    <t>Funulidae</t>
+  </si>
+  <si>
+    <t>Fundulus</t>
+  </si>
+  <si>
+    <t>Petit Bois Island</t>
+  </si>
+  <si>
+    <t>hoactli</t>
+  </si>
+  <si>
+    <t>Yellow-crowned Night Heron</t>
+  </si>
+  <si>
+    <t>Nyctanassa violacea</t>
+  </si>
+  <si>
+    <t>crawfish</t>
+  </si>
+  <si>
+    <t>Pleocyemata</t>
+  </si>
+  <si>
+    <t>Cambaridae</t>
+  </si>
+  <si>
+    <t>Procambarus</t>
+  </si>
+  <si>
+    <t>Green Heron</t>
+  </si>
+  <si>
+    <t>Ardeide</t>
+  </si>
+  <si>
+    <t>Butorides striata</t>
+  </si>
+  <si>
+    <t>striata</t>
+  </si>
+  <si>
+    <t>Louisiana Clapper Rail</t>
+  </si>
+  <si>
+    <t>Rallus longirostris</t>
+  </si>
+  <si>
+    <t>saturatus</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>Decapoda</t>
   </si>
 </sst>
 </file>
@@ -776,12 +863,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:AP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1266,9 @@
       <c r="AA5" t="s">
         <v>69</v>
       </c>
+      <c r="AB5" t="s">
+        <v>127</v>
+      </c>
       <c r="AH5">
         <v>1</v>
       </c>
@@ -3825,7 +3915,621 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
         <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>147</v>
+      </c>
+      <c r="T42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" t="s">
+        <v>56</v>
+      </c>
+      <c r="V42" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" t="s">
+        <v>59</v>
+      </c>
+      <c r="X42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ42">
+        <v>3</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" t="s">
+        <v>157</v>
+      </c>
+      <c r="T43" t="s">
+        <v>53</v>
+      </c>
+      <c r="U43" t="s">
+        <v>56</v>
+      </c>
+      <c r="V43" t="s">
+        <v>58</v>
+      </c>
+      <c r="W43" t="s">
+        <v>59</v>
+      </c>
+      <c r="X43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH43">
+        <v>0.45</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ43">
+        <v>11</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>157</v>
+      </c>
+      <c r="T44" t="s">
+        <v>53</v>
+      </c>
+      <c r="U44" t="s">
+        <v>56</v>
+      </c>
+      <c r="V44" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ44">
+        <v>11</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="T45" t="s">
+        <v>53</v>
+      </c>
+      <c r="U45" t="s">
+        <v>54</v>
+      </c>
+      <c r="V45" t="s">
+        <v>55</v>
+      </c>
+      <c r="W45" t="s">
+        <v>173</v>
+      </c>
+      <c r="X45" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ45">
+        <v>18</v>
+      </c>
+      <c r="AK45">
+        <v>3</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T46" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" t="s">
+        <v>54</v>
+      </c>
+      <c r="V46" t="s">
+        <v>55</v>
+      </c>
+      <c r="W46" t="s">
+        <v>173</v>
+      </c>
+      <c r="X46" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH46">
+        <v>0.31</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ46">
+        <v>110</v>
+      </c>
+      <c r="AK46">
+        <v>5</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>53</v>
+      </c>
+      <c r="U47" t="s">
+        <v>56</v>
+      </c>
+      <c r="V47" t="s">
+        <v>58</v>
+      </c>
+      <c r="W47" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH47">
+        <v>0.39</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ47">
+        <v>110</v>
+      </c>
+      <c r="AK47">
+        <v>5</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T48" t="s">
+        <v>53</v>
+      </c>
+      <c r="U48" t="s">
+        <v>56</v>
+      </c>
+      <c r="V48" t="s">
+        <v>58</v>
+      </c>
+      <c r="W48" t="s">
+        <v>59</v>
+      </c>
+      <c r="X48" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH48">
+        <v>0.3</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ48">
+        <v>110</v>
+      </c>
+      <c r="AK48">
+        <v>5</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s">
+        <v>53</v>
+      </c>
+      <c r="U49" t="s">
+        <v>54</v>
+      </c>
+      <c r="V49" t="s">
+        <v>55</v>
+      </c>
+      <c r="W49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK49">
+        <v>7</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="203">
   <si>
     <t>Common_Name</t>
   </si>
@@ -536,9 +536,6 @@
     <t>Louisiana Clapper Rail</t>
   </si>
   <si>
-    <t>Rallus longirostris</t>
-  </si>
-  <si>
     <t>saturatus</t>
   </si>
   <si>
@@ -546,6 +543,96 @@
   </si>
   <si>
     <t>Decapoda</t>
+  </si>
+  <si>
+    <t>Rallus crepitans</t>
+  </si>
+  <si>
+    <t>Rallidae</t>
+  </si>
+  <si>
+    <t>Purple Gallinule</t>
+  </si>
+  <si>
+    <t>water millet</t>
+  </si>
+  <si>
+    <t>Zizaniopsis miliacea</t>
+  </si>
+  <si>
+    <t>Zizaniopsis</t>
+  </si>
+  <si>
+    <t>Porphyrio martinica</t>
+  </si>
+  <si>
+    <t>Ruby-throated Hummingbird</t>
+  </si>
+  <si>
+    <t>Archilochus colubris</t>
+  </si>
+  <si>
+    <t>Trochilidae</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>ants and bees</t>
+  </si>
+  <si>
+    <t>leaf-hoppers</t>
+  </si>
+  <si>
+    <t>gnats</t>
+  </si>
+  <si>
+    <t>misc. plants</t>
+  </si>
+  <si>
+    <t>Arachnida</t>
+  </si>
+  <si>
+    <t>Hymenoptera</t>
+  </si>
+  <si>
+    <t>Hemiptera</t>
+  </si>
+  <si>
+    <t>Diptera</t>
+  </si>
+  <si>
+    <t>Myiarchus crinitus</t>
+  </si>
+  <si>
+    <t>boreus</t>
+  </si>
+  <si>
+    <t>Tyrannidae</t>
+  </si>
+  <si>
+    <t>Great Crested Flycatcher</t>
+  </si>
+  <si>
+    <t>misc. fruit</t>
+  </si>
+  <si>
+    <t>mis. Insects</t>
+  </si>
+  <si>
+    <t>Eastern Phoebe</t>
+  </si>
+  <si>
+    <t>Sayornis phoebe</t>
+  </si>
+  <si>
+    <t>Contopus virens</t>
+  </si>
+  <si>
+    <t>Eastern Wood-Pewee</t>
+  </si>
+  <si>
+    <t>wild berries</t>
   </si>
 </sst>
 </file>
@@ -863,12 +950,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP49"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4200,7 +4287,7 @@
         <v>55</v>
       </c>
       <c r="W45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X45" t="s">
         <v>162</v>
@@ -4280,7 +4367,7 @@
         <v>55</v>
       </c>
       <c r="W46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X46" t="s">
         <v>162</v>
@@ -4487,14 +4574,35 @@
         <v>169</v>
       </c>
       <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
         <v>170</v>
       </c>
-      <c r="C49" t="s">
-        <v>171</v>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" t="s">
+        <v>44</v>
       </c>
       <c r="N49">
         <v>5</v>
       </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
       <c r="T49" t="s">
         <v>53</v>
       </c>
@@ -4505,10 +4613,10 @@
         <v>55</v>
       </c>
       <c r="W49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH49">
         <v>1</v>
@@ -4530,6 +4638,778 @@
       </c>
       <c r="AP49" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" t="s">
+        <v>44</v>
+      </c>
+      <c r="T50" t="s">
+        <v>73</v>
+      </c>
+      <c r="U50" t="s">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ50">
+        <v>400</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" t="s">
+        <v>44</v>
+      </c>
+      <c r="T51" t="s">
+        <v>53</v>
+      </c>
+      <c r="U51" t="s">
+        <v>54</v>
+      </c>
+      <c r="V51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH51">
+        <v>0.43</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK51">
+        <v>59</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="T52" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" t="s">
+        <v>118</v>
+      </c>
+      <c r="W52" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH52">
+        <v>0.36</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK52">
+        <v>59</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" t="s">
+        <v>44</v>
+      </c>
+      <c r="T53" t="s">
+        <v>53</v>
+      </c>
+      <c r="U53" t="s">
+        <v>54</v>
+      </c>
+      <c r="V53" t="s">
+        <v>118</v>
+      </c>
+      <c r="W53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH53">
+        <v>0.08</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK53">
+        <v>59</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s">
+        <v>53</v>
+      </c>
+      <c r="U54" t="s">
+        <v>54</v>
+      </c>
+      <c r="V54" t="s">
+        <v>118</v>
+      </c>
+      <c r="W54" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH54">
+        <v>0.02</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK54">
+        <v>59</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+      <c r="T55" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH55">
+        <v>0.11</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK55">
+        <v>59</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" t="s">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s">
+        <v>53</v>
+      </c>
+      <c r="U56" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH56">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK56">
+        <v>265</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" t="s">
+        <v>44</v>
+      </c>
+      <c r="T57" t="s">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH57">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK57">
+        <v>265</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" t="s">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s">
+        <v>53</v>
+      </c>
+      <c r="U58" t="s">
+        <v>54</v>
+      </c>
+      <c r="V58" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH58">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" t="s">
+        <v>44</v>
+      </c>
+      <c r="T59" t="s">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s">
+        <v>78</v>
+      </c>
+      <c r="V59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH59">
+        <v>0.108</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s">
+        <v>53</v>
+      </c>
+      <c r="U60" t="s">
+        <v>54</v>
+      </c>
+      <c r="V60" t="s">
+        <v>118</v>
+      </c>
+      <c r="W60" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH60">
+        <v>0.25</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK60">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" t="s">
+        <v>44</v>
+      </c>
+      <c r="T61" t="s">
+        <v>53</v>
+      </c>
+      <c r="U61" t="s">
+        <v>54</v>
+      </c>
+      <c r="V61" t="s">
+        <v>118</v>
+      </c>
+      <c r="W61" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH61">
+        <v>0.3</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK61">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s">
+        <v>53</v>
+      </c>
+      <c r="U62" t="s">
+        <v>54</v>
+      </c>
+      <c r="V62" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH62">
+        <v>0.44</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK62">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" t="s">
+        <v>44</v>
+      </c>
+      <c r="T63" t="s">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH63">
+        <v>0.01</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK63">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="237">
   <si>
     <t>Common_Name</t>
   </si>
@@ -633,6 +633,108 @@
   </si>
   <si>
     <t>wild berries</t>
+  </si>
+  <si>
+    <t>Acadian Flycatcher</t>
+  </si>
+  <si>
+    <t>Empidonax virescens</t>
+  </si>
+  <si>
+    <t>spiders and millipeds</t>
+  </si>
+  <si>
+    <t>bees, wasps, ants</t>
+  </si>
+  <si>
+    <t>moths, caterpillars</t>
+  </si>
+  <si>
+    <t>wild fruit</t>
+  </si>
+  <si>
+    <t>beetles, grasshoppers, crickets</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Horned Lark</t>
+  </si>
+  <si>
+    <t>Alaudidae</t>
+  </si>
+  <si>
+    <t>aplestris</t>
+  </si>
+  <si>
+    <t>Eremophila alpestris</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>Southern Blue Jay</t>
+  </si>
+  <si>
+    <t>Cyanocitta cristata</t>
+  </si>
+  <si>
+    <t>cristata</t>
+  </si>
+  <si>
+    <t>Corvidae</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>Insects</t>
+  </si>
+  <si>
+    <t>Zea</t>
+  </si>
+  <si>
+    <t>Corvus brachyrhynchos</t>
+  </si>
+  <si>
+    <t>paulus</t>
+  </si>
+  <si>
+    <t>misc. animals</t>
+  </si>
+  <si>
+    <t>ater</t>
+  </si>
+  <si>
+    <t>Borwn-headed Cowbird</t>
+  </si>
+  <si>
+    <t>Icteridae</t>
+  </si>
+  <si>
+    <t>American Crow</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>Red-winged Blackbird</t>
+  </si>
+  <si>
+    <t>Molothrus ater</t>
+  </si>
+  <si>
+    <t>Agelaius phoeniceus</t>
+  </si>
+  <si>
+    <t>phoeniceus</t>
+  </si>
+  <si>
+    <t>grass and weed</t>
+  </si>
+  <si>
+    <t>pg. 226/406</t>
   </si>
 </sst>
 </file>
@@ -950,12 +1052,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,6 +4856,9 @@
       <c r="V51" t="s">
         <v>188</v>
       </c>
+      <c r="AB51" t="s">
+        <v>127</v>
+      </c>
       <c r="AG51" t="s">
         <v>183</v>
       </c>
@@ -4816,6 +4921,9 @@
       <c r="W52" t="s">
         <v>189</v>
       </c>
+      <c r="AB52" t="s">
+        <v>127</v>
+      </c>
       <c r="AG52" t="s">
         <v>184</v>
       </c>
@@ -4878,6 +4986,9 @@
       <c r="W53" t="s">
         <v>190</v>
       </c>
+      <c r="AB53" t="s">
+        <v>127</v>
+      </c>
       <c r="AG53" t="s">
         <v>185</v>
       </c>
@@ -4940,6 +5051,9 @@
       <c r="W54" t="s">
         <v>191</v>
       </c>
+      <c r="AB54" t="s">
+        <v>127</v>
+      </c>
       <c r="AG54" t="s">
         <v>186</v>
       </c>
@@ -5267,6 +5381,9 @@
       <c r="AK60">
         <v>359</v>
       </c>
+      <c r="AM60" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5317,6 +5434,9 @@
       <c r="AK61">
         <v>359</v>
       </c>
+      <c r="AM61" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -5364,6 +5484,9 @@
       <c r="AK62">
         <v>359</v>
       </c>
+      <c r="AM62" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -5410,6 +5533,1133 @@
       </c>
       <c r="AK63">
         <v>359</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T64" t="s">
+        <v>53</v>
+      </c>
+      <c r="U64" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH64">
+        <v>0.03</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK64">
+        <v>100</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" t="s">
+        <v>44</v>
+      </c>
+      <c r="T65" t="s">
+        <v>53</v>
+      </c>
+      <c r="U65" t="s">
+        <v>54</v>
+      </c>
+      <c r="V65" t="s">
+        <v>118</v>
+      </c>
+      <c r="W65" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH65">
+        <v>0.4</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK65">
+        <v>100</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" t="s">
+        <v>44</v>
+      </c>
+      <c r="T66" t="s">
+        <v>53</v>
+      </c>
+      <c r="U66" t="s">
+        <v>54</v>
+      </c>
+      <c r="V66" t="s">
+        <v>118</v>
+      </c>
+      <c r="W66" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH66">
+        <v>0.19</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK66">
+        <v>100</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" t="s">
+        <v>44</v>
+      </c>
+      <c r="T67" t="s">
+        <v>53</v>
+      </c>
+      <c r="U67" t="s">
+        <v>54</v>
+      </c>
+      <c r="V67" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH67">
+        <v>0.08</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK67">
+        <v>100</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" t="s">
+        <v>44</v>
+      </c>
+      <c r="T68" t="s">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH68">
+        <v>0.03</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK68">
+        <v>100</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s">
+        <v>53</v>
+      </c>
+      <c r="U69" t="s">
+        <v>54</v>
+      </c>
+      <c r="V69" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH69">
+        <v>0.2</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" t="s">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH70">
+        <v>0.4</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" t="s">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH71">
+        <v>0.4</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" t="s">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH72">
+        <v>0.6</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK72">
+        <v>500</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" t="s">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH73">
+        <v>0.18</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK73">
+        <v>500</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" t="s">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s">
+        <v>53</v>
+      </c>
+      <c r="U74" t="s">
+        <v>54</v>
+      </c>
+      <c r="V74" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH74">
+        <v>0.22</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK74">
+        <v>500</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" t="s">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH75">
+        <v>0.38</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>43</v>
+      </c>
+      <c r="J76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K76" t="s">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH76">
+        <v>0.34</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77" t="s">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH77">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" t="s">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s">
+        <v>53</v>
+      </c>
+      <c r="U78" t="s">
+        <v>54</v>
+      </c>
+      <c r="V78" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH78">
+        <v>0.2</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK78">
+        <v>544</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" t="s">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH79">
+        <v>0.16</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK79">
+        <v>544</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" t="s">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH80">
+        <v>0.5</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK80">
+        <v>544</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" t="s">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH81">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" t="s">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH82">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83" t="s">
+        <v>43</v>
+      </c>
+      <c r="K83" t="s">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s">
+        <v>53</v>
+      </c>
+      <c r="U83" t="s">
+        <v>54</v>
+      </c>
+      <c r="V83" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH83">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+      <c r="T84" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH84">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="284">
   <si>
     <t>Common_Name</t>
   </si>
@@ -734,7 +734,148 @@
     <t>grass and weed</t>
   </si>
   <si>
-    <t>pg. 226/406</t>
+    <t>Vesper Sparrow</t>
+  </si>
+  <si>
+    <t>Pooecetes gramineus</t>
+  </si>
+  <si>
+    <t>gramineus</t>
+  </si>
+  <si>
+    <t>Passerellidae</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>Savannah Sparrow</t>
+  </si>
+  <si>
+    <t>Passerculus sandwichensis</t>
+  </si>
+  <si>
+    <t>savanna</t>
+  </si>
+  <si>
+    <t>Grasshopper Sparrow</t>
+  </si>
+  <si>
+    <t>Ammodramus savannarum</t>
+  </si>
+  <si>
+    <t>savannarum</t>
+  </si>
+  <si>
+    <t>grasshoppers</t>
+  </si>
+  <si>
+    <t>caterpillars</t>
+  </si>
+  <si>
+    <t>Orthoptera</t>
+  </si>
+  <si>
+    <t>Lark Sparrow</t>
+  </si>
+  <si>
+    <t>Chondestes grammacus</t>
+  </si>
+  <si>
+    <t>grammacus</t>
+  </si>
+  <si>
+    <t>grasses, weeds, grains</t>
+  </si>
+  <si>
+    <t>Peucaea aestivalis</t>
+  </si>
+  <si>
+    <t>bachmanii</t>
+  </si>
+  <si>
+    <t>Bachman's Sparrow</t>
+  </si>
+  <si>
+    <t>beetles</t>
+  </si>
+  <si>
+    <t>grasshoppers and crickets</t>
+  </si>
+  <si>
+    <t>misc. bugs</t>
+  </si>
+  <si>
+    <t>leaf-beetles</t>
+  </si>
+  <si>
+    <t>Coleoptera</t>
+  </si>
+  <si>
+    <t>Polyphaga</t>
+  </si>
+  <si>
+    <t>Chrysomeloidae</t>
+  </si>
+  <si>
+    <t>Song Sparrow</t>
+  </si>
+  <si>
+    <t>Melospiza melodia</t>
+  </si>
+  <si>
+    <t>melodia</t>
+  </si>
+  <si>
+    <t>ragweed</t>
+  </si>
+  <si>
+    <t>polygonum</t>
+  </si>
+  <si>
+    <t>misc.</t>
+  </si>
+  <si>
+    <t>Asterales</t>
+  </si>
+  <si>
+    <t>Asteraceae</t>
+  </si>
+  <si>
+    <t>Ambrosia</t>
+  </si>
+  <si>
+    <t>Polygonum</t>
+  </si>
+  <si>
+    <t>Uses some data from Judd 1901 which is not included here</t>
+  </si>
+  <si>
+    <t>cardinalis</t>
+  </si>
+  <si>
+    <t>Cardinalis cardinalis</t>
+  </si>
+  <si>
+    <t>Northern Cardinal</t>
+  </si>
+  <si>
+    <t>Cardinalidae</t>
+  </si>
+  <si>
+    <t>weeds</t>
+  </si>
+  <si>
+    <t>Blue Grosbeak</t>
+  </si>
+  <si>
+    <t>Guiraca caerulea</t>
+  </si>
+  <si>
+    <t>caerulea</t>
+  </si>
+  <si>
+    <t>pg. 264/406</t>
   </si>
 </sst>
 </file>
@@ -1052,12 +1193,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP85"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,6 +1398,9 @@
       <c r="AM2" t="s">
         <v>126</v>
       </c>
+      <c r="AN2" t="s">
+        <v>274</v>
+      </c>
       <c r="AO2" t="s">
         <v>143</v>
       </c>
@@ -5187,6 +5331,12 @@
       <c r="AM56" t="s">
         <v>126</v>
       </c>
+      <c r="AO56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -5243,6 +5393,12 @@
       <c r="AM57" t="s">
         <v>126</v>
       </c>
+      <c r="AO57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -5287,6 +5443,12 @@
       <c r="AM58" t="s">
         <v>126</v>
       </c>
+      <c r="AO58" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -5331,6 +5493,12 @@
       <c r="AM59" t="s">
         <v>126</v>
       </c>
+      <c r="AO59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -5384,6 +5552,12 @@
       <c r="AM60" t="s">
         <v>126</v>
       </c>
+      <c r="AO60" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5437,6 +5611,12 @@
       <c r="AM61" t="s">
         <v>126</v>
       </c>
+      <c r="AO61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -5487,6 +5667,12 @@
       <c r="AM62" t="s">
         <v>126</v>
       </c>
+      <c r="AO62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -5537,6 +5723,12 @@
       <c r="AM63" t="s">
         <v>126</v>
       </c>
+      <c r="AO63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -5584,8 +5776,14 @@
       <c r="AM64" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO64" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>203</v>
       </c>
@@ -5640,8 +5838,14 @@
       <c r="AM65" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO65" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -5696,8 +5900,14 @@
       <c r="AM66" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO66" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -5749,8 +5959,14 @@
       <c r="AM67" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -5799,8 +6015,14 @@
       <c r="AM68" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO68" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>211</v>
       </c>
@@ -5849,8 +6071,14 @@
       <c r="AM69" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO69" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -5905,8 +6133,14 @@
       <c r="AM70" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -5958,8 +6192,14 @@
       <c r="AM71" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="72" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>216</v>
       </c>
@@ -6014,8 +6254,14 @@
       <c r="AM72" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -6079,8 +6325,14 @@
       <c r="AM73" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO73" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>216</v>
       </c>
@@ -6135,8 +6387,14 @@
       <c r="AM74" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO74" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -6197,8 +6455,14 @@
       <c r="AM75" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO75" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -6244,8 +6508,14 @@
       <c r="AM76" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO76" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -6291,8 +6561,14 @@
       <c r="AM77" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO77" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>227</v>
       </c>
@@ -6344,8 +6620,14 @@
       <c r="AM78" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -6403,8 +6685,14 @@
       <c r="AM79" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO79" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -6459,8 +6747,14 @@
       <c r="AM80" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO80" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>231</v>
       </c>
@@ -6518,8 +6812,14 @@
       <c r="AM81" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>231</v>
       </c>
@@ -6574,8 +6874,14 @@
       <c r="AM82" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO82" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -6624,8 +6930,14 @@
       <c r="AM83" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO83" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>231</v>
       </c>
@@ -6641,6 +6953,18 @@
       <c r="E84" t="s">
         <v>42</v>
       </c>
+      <c r="H84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
       <c r="T84" t="s">
         <v>73</v>
       </c>
@@ -6656,10 +6980,1733 @@
       <c r="AM84" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AO84" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>236</v>
+      </c>
+      <c r="B85" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s">
+        <v>53</v>
+      </c>
+      <c r="U85" t="s">
+        <v>54</v>
+      </c>
+      <c r="V85" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH85">
+        <v>0.31</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s">
+        <v>43</v>
+      </c>
+      <c r="I86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86" t="s">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH86">
+        <v>0.11</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" t="s">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH87">
+        <v>0.16</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" t="s">
+        <v>43</v>
+      </c>
+      <c r="I88" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88" t="s">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH88">
+        <v>0.42</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>241</v>
+      </c>
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" t="s">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s">
+        <v>53</v>
+      </c>
+      <c r="U89" t="s">
+        <v>54</v>
+      </c>
+      <c r="V89" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH89">
+        <v>0.46</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK89">
+        <v>119</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" t="s">
+        <v>239</v>
+      </c>
+      <c r="E90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90" t="s">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH90">
+        <v>0.54</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK90">
+        <v>119</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91" t="s">
+        <v>44</v>
+      </c>
+      <c r="T91" t="s">
+        <v>53</v>
+      </c>
+      <c r="U91" t="s">
+        <v>54</v>
+      </c>
+      <c r="V91" t="s">
+        <v>118</v>
+      </c>
+      <c r="W91" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH91">
+        <v>0.25</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK91">
+        <v>170</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>239</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92" t="s">
+        <v>43</v>
+      </c>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="T92" t="s">
+        <v>53</v>
+      </c>
+      <c r="U92" t="s">
+        <v>54</v>
+      </c>
+      <c r="V92" t="s">
+        <v>118</v>
+      </c>
+      <c r="W92" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK92">
+        <v>170</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" t="s">
+        <v>239</v>
+      </c>
+      <c r="E93" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" t="s">
+        <v>43</v>
+      </c>
+      <c r="I93" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93" t="s">
+        <v>44</v>
+      </c>
+      <c r="T93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH93">
+        <v>0.25</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK93">
+        <v>170</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" t="s">
+        <v>43</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" t="s">
+        <v>44</v>
+      </c>
+      <c r="T94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH94">
+        <v>0.37</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK94">
+        <v>170</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" t="s">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s">
+        <v>53</v>
+      </c>
+      <c r="U95" t="s">
+        <v>54</v>
+      </c>
+      <c r="V95" t="s">
+        <v>118</v>
+      </c>
+      <c r="W95" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH95">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>250</v>
+      </c>
+      <c r="B96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" t="s">
+        <v>43</v>
+      </c>
+      <c r="J96" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" t="s">
+        <v>44</v>
+      </c>
+      <c r="T96" t="s">
+        <v>53</v>
+      </c>
+      <c r="U96" t="s">
+        <v>54</v>
+      </c>
+      <c r="V96" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH96">
+        <v>0.13</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s">
+        <v>43</v>
+      </c>
+      <c r="I97" t="s">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97" t="s">
+        <v>44</v>
+      </c>
+      <c r="T97" t="s">
+        <v>73</v>
+      </c>
+      <c r="U97" t="s">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH97">
+        <v>0.73</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" t="s">
+        <v>43</v>
+      </c>
+      <c r="J98" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98" t="s">
+        <v>44</v>
+      </c>
+      <c r="T98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U98" t="s">
+        <v>54</v>
+      </c>
+      <c r="V98" t="s">
+        <v>118</v>
+      </c>
+      <c r="W98" t="s">
+        <v>261</v>
+      </c>
+      <c r="X98" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH98">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK98">
+        <v>10</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s">
+        <v>43</v>
+      </c>
+      <c r="I99" t="s">
+        <v>43</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" t="s">
+        <v>44</v>
+      </c>
+      <c r="T99" t="s">
+        <v>53</v>
+      </c>
+      <c r="U99" t="s">
+        <v>54</v>
+      </c>
+      <c r="V99" t="s">
+        <v>118</v>
+      </c>
+      <c r="W99" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH99">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK99">
+        <v>10</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100" t="s">
+        <v>43</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" t="s">
+        <v>44</v>
+      </c>
+      <c r="T100" t="s">
+        <v>53</v>
+      </c>
+      <c r="U100" t="s">
+        <v>54</v>
+      </c>
+      <c r="V100" t="s">
+        <v>118</v>
+      </c>
+      <c r="W100" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH100">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK100">
+        <v>10</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s">
+        <v>43</v>
+      </c>
+      <c r="I101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J101" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH101">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK101">
+        <v>10</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" t="s">
+        <v>43</v>
+      </c>
+      <c r="I102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" t="s">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH102">
+        <v>0.42</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK102">
+        <v>10</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" t="s">
+        <v>43</v>
+      </c>
+      <c r="I103" t="s">
+        <v>43</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" t="s">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s">
+        <v>73</v>
+      </c>
+      <c r="U103" t="s">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s">
+        <v>74</v>
+      </c>
+      <c r="W103" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH103">
+        <v>0.03</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK103">
+        <v>400</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" t="s">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s">
+        <v>73</v>
+      </c>
+      <c r="U104" t="s">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s">
+        <v>74</v>
+      </c>
+      <c r="W104" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH104">
+        <v>0.05</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK104">
+        <v>400</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" t="s">
+        <v>44</v>
+      </c>
+      <c r="T105" t="s">
+        <v>73</v>
+      </c>
+      <c r="U105" t="s">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s">
+        <v>74</v>
+      </c>
+      <c r="W105" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH105">
+        <v>0.16</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK105">
+        <v>400</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s">
+        <v>43</v>
+      </c>
+      <c r="J106" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106" t="s">
+        <v>44</v>
+      </c>
+      <c r="T106" t="s">
+        <v>73</v>
+      </c>
+      <c r="U106" t="s">
+        <v>78</v>
+      </c>
+      <c r="V106" t="s">
+        <v>74</v>
+      </c>
+      <c r="W106" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH106">
+        <v>0.24</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK106">
+        <v>400</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" t="s">
+        <v>265</v>
+      </c>
+      <c r="C107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" t="s">
+        <v>43</v>
+      </c>
+      <c r="I107" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" t="s">
+        <v>44</v>
+      </c>
+      <c r="T107" t="s">
+        <v>73</v>
+      </c>
+      <c r="U107" t="s">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH107">
+        <v>0.18</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK107">
+        <v>400</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" t="s">
+        <v>266</v>
+      </c>
+      <c r="D108" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" t="s">
+        <v>44</v>
+      </c>
+      <c r="T108" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH108">
+        <v>0.34</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK108">
+        <v>400</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" t="s">
+        <v>43</v>
+      </c>
+      <c r="I109" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109" t="s">
+        <v>44</v>
+      </c>
+      <c r="T109" t="s">
+        <v>73</v>
+      </c>
+      <c r="U109" t="s">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH109">
+        <v>0.36</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK109">
+        <v>500</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" t="s">
+        <v>278</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I110" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110" t="s">
+        <v>44</v>
+      </c>
+      <c r="T110" t="s">
+        <v>73</v>
+      </c>
+      <c r="U110" t="s">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH110">
+        <v>0.24</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK110">
+        <v>500</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" t="s">
+        <v>278</v>
+      </c>
+      <c r="E111" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111" t="s">
+        <v>43</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111" t="s">
+        <v>44</v>
+      </c>
+      <c r="T111" t="s">
+        <v>73</v>
+      </c>
+      <c r="U111" t="s">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s">
+        <v>74</v>
+      </c>
+      <c r="W111" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH111">
+        <v>0.09</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK111">
+        <v>500</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112" t="s">
+        <v>44</v>
+      </c>
+      <c r="T112" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH112">
+        <v>0.31</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK112">
+        <v>500</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" t="s">
+        <v>282</v>
+      </c>
+      <c r="D113" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113" t="s">
+        <v>43</v>
+      </c>
+      <c r="J113" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="315">
   <si>
     <t>Common_Name</t>
   </si>
@@ -875,7 +875,100 @@
     <t>caerulea</t>
   </si>
   <si>
-    <t>pg. 264/406</t>
+    <t>crickets and grasshoppers</t>
+  </si>
+  <si>
+    <t>Purple Martin</t>
+  </si>
+  <si>
+    <t>Progne subis</t>
+  </si>
+  <si>
+    <t>subis</t>
+  </si>
+  <si>
+    <t>Hirundinidae</t>
+  </si>
+  <si>
+    <t>flies</t>
+  </si>
+  <si>
+    <t>Barn Swallow</t>
+  </si>
+  <si>
+    <t>Hirundo rustica</t>
+  </si>
+  <si>
+    <t>erythrogaster</t>
+  </si>
+  <si>
+    <t>spiders and snails</t>
+  </si>
+  <si>
+    <t>Tree swallow</t>
+  </si>
+  <si>
+    <t>Tachycineta bicolor</t>
+  </si>
+  <si>
+    <t>Myricaceae</t>
+  </si>
+  <si>
+    <t>Morella</t>
+  </si>
+  <si>
+    <t>Morella caroliniensis</t>
+  </si>
+  <si>
+    <t>Bank Swallow</t>
+  </si>
+  <si>
+    <t>riparia</t>
+  </si>
+  <si>
+    <t>Riparia riparia</t>
+  </si>
+  <si>
+    <t>Stelgidopteryx serripennis</t>
+  </si>
+  <si>
+    <t>serripennis</t>
+  </si>
+  <si>
+    <t>Northern Rough-winged Swallow</t>
+  </si>
+  <si>
+    <t>Cedar Waxwing</t>
+  </si>
+  <si>
+    <t>Bombycilla cedrorum</t>
+  </si>
+  <si>
+    <t>Bombycillidae</t>
+  </si>
+  <si>
+    <t>wild and cultivated fruit</t>
+  </si>
+  <si>
+    <t>Loggerhead Shrike</t>
+  </si>
+  <si>
+    <t>ludovicianus</t>
+  </si>
+  <si>
+    <t>Laniidae</t>
+  </si>
+  <si>
+    <t>Lanius ludovicianus</t>
+  </si>
+  <si>
+    <t>invertebrates (insects, spiders, snails)</t>
+  </si>
+  <si>
+    <t>vertebrates (mammals, birds, fish)</t>
+  </si>
+  <si>
+    <t>pg.314/406</t>
   </si>
 </sst>
 </file>
@@ -1193,12 +1286,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP114"/>
+  <dimension ref="A1:AP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomLeft" activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8675,7 +8768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>280</v>
       </c>
@@ -8703,10 +8796,1445 @@
       <c r="K113" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T113" t="s">
+        <v>73</v>
+      </c>
+      <c r="U113" t="s">
+        <v>78</v>
+      </c>
+      <c r="V113" t="s">
+        <v>74</v>
+      </c>
+      <c r="W113" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH113">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>280</v>
+      </c>
+      <c r="B114" t="s">
+        <v>281</v>
+      </c>
+      <c r="C114" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114" t="s">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s">
+        <v>73</v>
+      </c>
+      <c r="U114" t="s">
+        <v>78</v>
+      </c>
+      <c r="V114" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH114">
+        <v>0.18</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>280</v>
+      </c>
+      <c r="B115" t="s">
+        <v>281</v>
+      </c>
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115" t="s">
+        <v>43</v>
+      </c>
+      <c r="J115" t="s">
+        <v>43</v>
+      </c>
+      <c r="K115" t="s">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s">
+        <v>53</v>
+      </c>
+      <c r="U115" t="s">
+        <v>54</v>
+      </c>
+      <c r="V115" t="s">
+        <v>118</v>
+      </c>
+      <c r="W115" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG115" t="s">
         <v>283</v>
+      </c>
+      <c r="AH115">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>282</v>
+      </c>
+      <c r="D116" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116" t="s">
+        <v>43</v>
+      </c>
+      <c r="J116" t="s">
+        <v>43</v>
+      </c>
+      <c r="K116" t="s">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s">
+        <v>53</v>
+      </c>
+      <c r="U116" t="s">
+        <v>54</v>
+      </c>
+      <c r="V116" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH116">
+        <v>0.4</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" t="s">
+        <v>286</v>
+      </c>
+      <c r="D117" t="s">
+        <v>287</v>
+      </c>
+      <c r="E117" t="s">
+        <v>42</v>
+      </c>
+      <c r="H117" t="s">
+        <v>43</v>
+      </c>
+      <c r="I117" t="s">
+        <v>43</v>
+      </c>
+      <c r="J117" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117" t="s">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s">
+        <v>53</v>
+      </c>
+      <c r="U117" t="s">
+        <v>54</v>
+      </c>
+      <c r="V117" t="s">
+        <v>118</v>
+      </c>
+      <c r="W117" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH117">
+        <v>0.23</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK117">
+        <v>200</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" t="s">
+        <v>286</v>
+      </c>
+      <c r="D118" t="s">
+        <v>287</v>
+      </c>
+      <c r="E118" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" t="s">
+        <v>43</v>
+      </c>
+      <c r="I118" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" t="s">
+        <v>43</v>
+      </c>
+      <c r="K118" t="s">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s">
+        <v>53</v>
+      </c>
+      <c r="U118" t="s">
+        <v>54</v>
+      </c>
+      <c r="V118" t="s">
+        <v>118</v>
+      </c>
+      <c r="W118" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH118">
+        <v>0.16</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK118">
+        <v>200</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" t="s">
+        <v>285</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" t="s">
+        <v>287</v>
+      </c>
+      <c r="E119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119" t="s">
+        <v>43</v>
+      </c>
+      <c r="J119" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119" t="s">
+        <v>44</v>
+      </c>
+      <c r="T119" t="s">
+        <v>53</v>
+      </c>
+      <c r="U119" t="s">
+        <v>54</v>
+      </c>
+      <c r="V119" t="s">
+        <v>118</v>
+      </c>
+      <c r="W119" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH119">
+        <v>0.15</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK119">
+        <v>200</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>286</v>
+      </c>
+      <c r="D120" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" t="s">
+        <v>42</v>
+      </c>
+      <c r="H120" t="s">
+        <v>43</v>
+      </c>
+      <c r="I120" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120" t="s">
+        <v>44</v>
+      </c>
+      <c r="T120" t="s">
+        <v>53</v>
+      </c>
+      <c r="U120" t="s">
+        <v>54</v>
+      </c>
+      <c r="V120" t="s">
+        <v>118</v>
+      </c>
+      <c r="W120" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH120">
+        <v>0.12</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK120">
+        <v>200</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" t="s">
+        <v>285</v>
+      </c>
+      <c r="C121" t="s">
+        <v>286</v>
+      </c>
+      <c r="D121" t="s">
+        <v>287</v>
+      </c>
+      <c r="E121" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121" t="s">
+        <v>43</v>
+      </c>
+      <c r="J121" t="s">
+        <v>43</v>
+      </c>
+      <c r="K121" t="s">
+        <v>44</v>
+      </c>
+      <c r="T121" t="s">
+        <v>53</v>
+      </c>
+      <c r="U121" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH121">
+        <v>0.34</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK121">
+        <v>200</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" t="s">
+        <v>291</v>
+      </c>
+      <c r="D122" t="s">
+        <v>287</v>
+      </c>
+      <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" t="s">
+        <v>44</v>
+      </c>
+      <c r="T122" t="s">
+        <v>53</v>
+      </c>
+      <c r="U122" t="s">
+        <v>54</v>
+      </c>
+      <c r="V122" t="s">
+        <v>118</v>
+      </c>
+      <c r="W122" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH122">
+        <v>0.4</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" t="s">
+        <v>291</v>
+      </c>
+      <c r="D123" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" t="s">
+        <v>43</v>
+      </c>
+      <c r="J123" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123" t="s">
+        <v>44</v>
+      </c>
+      <c r="T123" t="s">
+        <v>53</v>
+      </c>
+      <c r="U123" t="s">
+        <v>54</v>
+      </c>
+      <c r="V123" t="s">
+        <v>118</v>
+      </c>
+      <c r="W123" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH123">
+        <v>0.16</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" t="s">
+        <v>290</v>
+      </c>
+      <c r="C124" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" t="s">
+        <v>287</v>
+      </c>
+      <c r="E124" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" t="s">
+        <v>43</v>
+      </c>
+      <c r="I124" t="s">
+        <v>43</v>
+      </c>
+      <c r="J124" t="s">
+        <v>43</v>
+      </c>
+      <c r="K124" t="s">
+        <v>44</v>
+      </c>
+      <c r="T124" t="s">
+        <v>53</v>
+      </c>
+      <c r="U124" t="s">
+        <v>54</v>
+      </c>
+      <c r="V124" t="s">
+        <v>118</v>
+      </c>
+      <c r="W124" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH124">
+        <v>0.22</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>289</v>
+      </c>
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
+      <c r="C125" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E125" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125" t="s">
+        <v>43</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" t="s">
+        <v>44</v>
+      </c>
+      <c r="T125" t="s">
+        <v>53</v>
+      </c>
+      <c r="U125" t="s">
+        <v>54</v>
+      </c>
+      <c r="V125" t="s">
+        <v>118</v>
+      </c>
+      <c r="W125" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH125">
+        <v>0.15</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" t="s">
+        <v>290</v>
+      </c>
+      <c r="C126" t="s">
+        <v>291</v>
+      </c>
+      <c r="D126" t="s">
+        <v>287</v>
+      </c>
+      <c r="E126" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" t="s">
+        <v>43</v>
+      </c>
+      <c r="I126" t="s">
+        <v>43</v>
+      </c>
+      <c r="J126" t="s">
+        <v>43</v>
+      </c>
+      <c r="K126" t="s">
+        <v>44</v>
+      </c>
+      <c r="T126" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH126">
+        <v>0.7</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>293</v>
+      </c>
+      <c r="B127" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" t="s">
+        <v>287</v>
+      </c>
+      <c r="E127" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127" t="s">
+        <v>44</v>
+      </c>
+      <c r="T127" t="s">
+        <v>53</v>
+      </c>
+      <c r="U127" t="s">
+        <v>54</v>
+      </c>
+      <c r="V127" t="s">
+        <v>118</v>
+      </c>
+      <c r="W127" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH127">
+        <v>0.4</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK127">
+        <v>343</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" t="s">
+        <v>287</v>
+      </c>
+      <c r="E128" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" t="s">
+        <v>44</v>
+      </c>
+      <c r="T128" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH128">
+        <v>0.4</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK128">
+        <v>343</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" t="s">
+        <v>287</v>
+      </c>
+      <c r="E129" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" t="s">
+        <v>43</v>
+      </c>
+      <c r="K129" t="s">
+        <v>44</v>
+      </c>
+      <c r="T129" t="s">
+        <v>73</v>
+      </c>
+      <c r="U129" t="s">
+        <v>78</v>
+      </c>
+      <c r="V129" t="s">
+        <v>74</v>
+      </c>
+      <c r="W129" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH129">
+        <v>0.18</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK129">
+        <v>343</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" t="s">
+        <v>287</v>
+      </c>
+      <c r="E130" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" t="s">
+        <v>43</v>
+      </c>
+      <c r="K130" t="s">
+        <v>44</v>
+      </c>
+      <c r="T130" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH130">
+        <v>0.02</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK130">
+        <v>343</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" t="s">
+        <v>299</v>
+      </c>
+      <c r="D131" t="s">
+        <v>287</v>
+      </c>
+      <c r="E131" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" t="s">
+        <v>43</v>
+      </c>
+      <c r="K131" t="s">
+        <v>44</v>
+      </c>
+      <c r="T131" t="s">
+        <v>53</v>
+      </c>
+      <c r="U131" t="s">
+        <v>54</v>
+      </c>
+      <c r="V131" t="s">
+        <v>118</v>
+      </c>
+      <c r="W131" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH131">
+        <v>0.26</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>298</v>
+      </c>
+      <c r="B132" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" t="s">
+        <v>299</v>
+      </c>
+      <c r="D132" t="s">
+        <v>287</v>
+      </c>
+      <c r="E132" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132" t="s">
+        <v>44</v>
+      </c>
+      <c r="T132" t="s">
+        <v>53</v>
+      </c>
+      <c r="U132" t="s">
+        <v>54</v>
+      </c>
+      <c r="V132" t="s">
+        <v>118</v>
+      </c>
+      <c r="W132" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH132">
+        <v>0.2</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>298</v>
+      </c>
+      <c r="B133" t="s">
+        <v>300</v>
+      </c>
+      <c r="C133" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" t="s">
+        <v>287</v>
+      </c>
+      <c r="E133" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" t="s">
+        <v>43</v>
+      </c>
+      <c r="I133" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133" t="s">
+        <v>44</v>
+      </c>
+      <c r="T133" t="s">
+        <v>53</v>
+      </c>
+      <c r="U133" t="s">
+        <v>54</v>
+      </c>
+      <c r="V133" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH133">
+        <v>0.54</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" t="s">
+        <v>302</v>
+      </c>
+      <c r="D134" t="s">
+        <v>287</v>
+      </c>
+      <c r="E134" t="s">
+        <v>42</v>
+      </c>
+      <c r="H134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" t="s">
+        <v>43</v>
+      </c>
+      <c r="J134" t="s">
+        <v>43</v>
+      </c>
+      <c r="K134" t="s">
+        <v>44</v>
+      </c>
+      <c r="T134" t="s">
+        <v>53</v>
+      </c>
+      <c r="U134" t="s">
+        <v>54</v>
+      </c>
+      <c r="V134" t="s">
+        <v>118</v>
+      </c>
+      <c r="W134" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH134">
+        <v>0.33</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>303</v>
+      </c>
+      <c r="B135" t="s">
+        <v>301</v>
+      </c>
+      <c r="C135" t="s">
+        <v>302</v>
+      </c>
+      <c r="D135" t="s">
+        <v>287</v>
+      </c>
+      <c r="E135" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" t="s">
+        <v>43</v>
+      </c>
+      <c r="J135" t="s">
+        <v>43</v>
+      </c>
+      <c r="K135" t="s">
+        <v>44</v>
+      </c>
+      <c r="T135" t="s">
+        <v>53</v>
+      </c>
+      <c r="U135" t="s">
+        <v>54</v>
+      </c>
+      <c r="V135" t="s">
+        <v>118</v>
+      </c>
+      <c r="W135" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH135">
+        <v>0.15</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" t="s">
+        <v>302</v>
+      </c>
+      <c r="D136" t="s">
+        <v>287</v>
+      </c>
+      <c r="E136" t="s">
+        <v>42</v>
+      </c>
+      <c r="H136" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" t="s">
+        <v>43</v>
+      </c>
+      <c r="J136" t="s">
+        <v>43</v>
+      </c>
+      <c r="K136" t="s">
+        <v>44</v>
+      </c>
+      <c r="T136" t="s">
+        <v>53</v>
+      </c>
+      <c r="U136" t="s">
+        <v>54</v>
+      </c>
+      <c r="V136" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH136">
+        <v>0.52</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" t="s">
+        <v>306</v>
+      </c>
+      <c r="E137" t="s">
+        <v>42</v>
+      </c>
+      <c r="H137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" t="s">
+        <v>43</v>
+      </c>
+      <c r="J137" t="s">
+        <v>43</v>
+      </c>
+      <c r="K137" t="s">
+        <v>44</v>
+      </c>
+      <c r="T137" t="s">
+        <v>73</v>
+      </c>
+      <c r="U137" t="s">
+        <v>78</v>
+      </c>
+      <c r="V137" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH137">
+        <v>1</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK137">
+        <v>152</v>
+      </c>
+      <c r="AM137" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>308</v>
+      </c>
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" t="s">
+        <v>309</v>
+      </c>
+      <c r="D138" t="s">
+        <v>310</v>
+      </c>
+      <c r="E138" t="s">
+        <v>42</v>
+      </c>
+      <c r="H138" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138" t="s">
+        <v>43</v>
+      </c>
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138" t="s">
+        <v>44</v>
+      </c>
+      <c r="T138" t="s">
+        <v>53</v>
+      </c>
+      <c r="U138" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG138" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH138">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK138">
+        <v>88</v>
+      </c>
+      <c r="AM138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
+        <v>311</v>
+      </c>
+      <c r="C139" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" t="s">
+        <v>310</v>
+      </c>
+      <c r="E139" t="s">
+        <v>42</v>
+      </c>
+      <c r="H139" t="s">
+        <v>43</v>
+      </c>
+      <c r="I139" t="s">
+        <v>43</v>
+      </c>
+      <c r="J139" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139" t="s">
+        <v>44</v>
+      </c>
+      <c r="T139" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH139">
+        <v>0.72</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK139">
+        <v>88</v>
+      </c>
+      <c r="AM139" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>314</v>
+      </c>
+      <c r="H140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" t="s">
+        <v>43</v>
+      </c>
+      <c r="J140" t="s">
+        <v>43</v>
+      </c>
+      <c r="K140" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="341">
   <si>
     <t>Common_Name</t>
   </si>
@@ -968,7 +968,85 @@
     <t>vertebrates (mammals, birds, fish)</t>
   </si>
   <si>
-    <t>pg.314/406</t>
+    <t>Black-poll Warbler</t>
+  </si>
+  <si>
+    <t>Setophaga striata</t>
+  </si>
+  <si>
+    <t>Parulidae</t>
+  </si>
+  <si>
+    <t>cankerworms</t>
+  </si>
+  <si>
+    <t>ants</t>
+  </si>
+  <si>
+    <t>Geometroidea</t>
+  </si>
+  <si>
+    <t>Dumetella carolinensis</t>
+  </si>
+  <si>
+    <t>Grey Catbird</t>
+  </si>
+  <si>
+    <t>Mimidae</t>
+  </si>
+  <si>
+    <t>Brown Thrasher</t>
+  </si>
+  <si>
+    <t>Toxostoma rufum</t>
+  </si>
+  <si>
+    <t>rufum</t>
+  </si>
+  <si>
+    <t>acorns</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>Thryomanes bewickii</t>
+  </si>
+  <si>
+    <t>bewickii</t>
+  </si>
+  <si>
+    <t>Bewick's Wren</t>
+  </si>
+  <si>
+    <t>Troglodytidae</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>spiders</t>
+  </si>
+  <si>
+    <t>ants and wasps</t>
+  </si>
+  <si>
+    <t>misc. vegetables</t>
+  </si>
+  <si>
+    <t>Ruby-crowned Kinglet</t>
+  </si>
+  <si>
+    <t>calendula</t>
+  </si>
+  <si>
+    <t>Regulus calendula</t>
+  </si>
+  <si>
+    <t>Regulidae</t>
+  </si>
+  <si>
+    <t>pg. 366/406</t>
   </si>
 </sst>
 </file>
@@ -1286,12 +1364,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP140"/>
+  <dimension ref="A1:AP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="H145" sqref="H145"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8049,6 +8127,12 @@
       <c r="T101" t="s">
         <v>53</v>
       </c>
+      <c r="U101" t="s">
+        <v>54</v>
+      </c>
+      <c r="V101" t="s">
+        <v>118</v>
+      </c>
       <c r="AB101" t="s">
         <v>125</v>
       </c>
@@ -10224,6 +10308,15 @@
       <c r="A140" t="s">
         <v>314</v>
       </c>
+      <c r="B140" t="s">
+        <v>315</v>
+      </c>
+      <c r="D140" t="s">
+        <v>316</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
       <c r="H140" t="s">
         <v>43</v>
       </c>
@@ -10235,6 +10328,1175 @@
       </c>
       <c r="K140" t="s">
         <v>44</v>
+      </c>
+      <c r="T140" t="s">
+        <v>53</v>
+      </c>
+      <c r="U140" t="s">
+        <v>54</v>
+      </c>
+      <c r="V140" t="s">
+        <v>118</v>
+      </c>
+      <c r="W140" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH140">
+        <v>0.72</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM140" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>314</v>
+      </c>
+      <c r="B141" t="s">
+        <v>315</v>
+      </c>
+      <c r="D141" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" t="s">
+        <v>42</v>
+      </c>
+      <c r="H141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141" t="s">
+        <v>44</v>
+      </c>
+      <c r="T141" t="s">
+        <v>53</v>
+      </c>
+      <c r="U141" t="s">
+        <v>54</v>
+      </c>
+      <c r="V141" t="s">
+        <v>118</v>
+      </c>
+      <c r="W141" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH141">
+        <v>0.19</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" t="s">
+        <v>315</v>
+      </c>
+      <c r="D142" t="s">
+        <v>316</v>
+      </c>
+      <c r="E142" t="s">
+        <v>42</v>
+      </c>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142" t="s">
+        <v>44</v>
+      </c>
+      <c r="T142" t="s">
+        <v>53</v>
+      </c>
+      <c r="U142" t="s">
+        <v>54</v>
+      </c>
+      <c r="V142" t="s">
+        <v>118</v>
+      </c>
+      <c r="W142" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH142">
+        <v>0.04</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM142" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>314</v>
+      </c>
+      <c r="B143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>316</v>
+      </c>
+      <c r="E143" t="s">
+        <v>42</v>
+      </c>
+      <c r="H143" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" t="s">
+        <v>43</v>
+      </c>
+      <c r="K143" t="s">
+        <v>44</v>
+      </c>
+      <c r="T143" t="s">
+        <v>53</v>
+      </c>
+      <c r="U143" t="s">
+        <v>54</v>
+      </c>
+      <c r="V143" t="s">
+        <v>118</v>
+      </c>
+      <c r="W143" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH143">
+        <v>0.05</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM143" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>321</v>
+      </c>
+      <c r="B144" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" t="s">
+        <v>322</v>
+      </c>
+      <c r="E144" t="s">
+        <v>42</v>
+      </c>
+      <c r="H144" t="s">
+        <v>43</v>
+      </c>
+      <c r="I144" t="s">
+        <v>43</v>
+      </c>
+      <c r="J144" t="s">
+        <v>43</v>
+      </c>
+      <c r="K144" t="s">
+        <v>44</v>
+      </c>
+      <c r="T144" t="s">
+        <v>53</v>
+      </c>
+      <c r="U144" t="s">
+        <v>54</v>
+      </c>
+      <c r="V144" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH144">
+        <v>0.44</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK144">
+        <v>645</v>
+      </c>
+      <c r="AM144" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>321</v>
+      </c>
+      <c r="B145" t="s">
+        <v>320</v>
+      </c>
+      <c r="D145" t="s">
+        <v>322</v>
+      </c>
+      <c r="E145" t="s">
+        <v>42</v>
+      </c>
+      <c r="H145" t="s">
+        <v>43</v>
+      </c>
+      <c r="I145" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" t="s">
+        <v>43</v>
+      </c>
+      <c r="K145" t="s">
+        <v>44</v>
+      </c>
+      <c r="T145" t="s">
+        <v>73</v>
+      </c>
+      <c r="U145" t="s">
+        <v>78</v>
+      </c>
+      <c r="V145" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH145">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK145">
+        <v>645</v>
+      </c>
+      <c r="AM145" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>323</v>
+      </c>
+      <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" t="s">
+        <v>325</v>
+      </c>
+      <c r="D146" t="s">
+        <v>322</v>
+      </c>
+      <c r="E146" t="s">
+        <v>42</v>
+      </c>
+      <c r="H146" t="s">
+        <v>43</v>
+      </c>
+      <c r="I146" t="s">
+        <v>43</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146" t="s">
+        <v>44</v>
+      </c>
+      <c r="T146" t="s">
+        <v>73</v>
+      </c>
+      <c r="U146" t="s">
+        <v>78</v>
+      </c>
+      <c r="V146" t="s">
+        <v>74</v>
+      </c>
+      <c r="W146" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH146">
+        <v>0.24</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK146">
+        <v>266</v>
+      </c>
+      <c r="AM146" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>323</v>
+      </c>
+      <c r="B147" t="s">
+        <v>324</v>
+      </c>
+      <c r="C147" t="s">
+        <v>325</v>
+      </c>
+      <c r="D147" t="s">
+        <v>322</v>
+      </c>
+      <c r="E147" t="s">
+        <v>42</v>
+      </c>
+      <c r="H147" t="s">
+        <v>43</v>
+      </c>
+      <c r="I147" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147" t="s">
+        <v>44</v>
+      </c>
+      <c r="T147" t="s">
+        <v>73</v>
+      </c>
+      <c r="U147" t="s">
+        <v>78</v>
+      </c>
+      <c r="V147" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG147" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH147">
+        <v>0.32</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK147">
+        <v>266</v>
+      </c>
+      <c r="AM147" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" t="s">
+        <v>322</v>
+      </c>
+      <c r="E148" t="s">
+        <v>42</v>
+      </c>
+      <c r="H148" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148" t="s">
+        <v>43</v>
+      </c>
+      <c r="K148" t="s">
+        <v>44</v>
+      </c>
+      <c r="T148" t="s">
+        <v>73</v>
+      </c>
+      <c r="U148" t="s">
+        <v>78</v>
+      </c>
+      <c r="V148" t="s">
+        <v>74</v>
+      </c>
+      <c r="W148" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH148">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK148">
+        <v>266</v>
+      </c>
+      <c r="AM148" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>323</v>
+      </c>
+      <c r="B149" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" t="s">
+        <v>325</v>
+      </c>
+      <c r="D149" t="s">
+        <v>322</v>
+      </c>
+      <c r="E149" t="s">
+        <v>42</v>
+      </c>
+      <c r="H149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" t="s">
+        <v>43</v>
+      </c>
+      <c r="K149" t="s">
+        <v>44</v>
+      </c>
+      <c r="T149" t="s">
+        <v>53</v>
+      </c>
+      <c r="U149" t="s">
+        <v>54</v>
+      </c>
+      <c r="V149" t="s">
+        <v>118</v>
+      </c>
+      <c r="W149" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH149">
+        <v>0.18</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK149">
+        <v>266</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>323</v>
+      </c>
+      <c r="B150" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" t="s">
+        <v>325</v>
+      </c>
+      <c r="D150" t="s">
+        <v>322</v>
+      </c>
+      <c r="E150" t="s">
+        <v>42</v>
+      </c>
+      <c r="H150" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" t="s">
+        <v>43</v>
+      </c>
+      <c r="J150" t="s">
+        <v>43</v>
+      </c>
+      <c r="K150" t="s">
+        <v>44</v>
+      </c>
+      <c r="T150" t="s">
+        <v>53</v>
+      </c>
+      <c r="U150" t="s">
+        <v>54</v>
+      </c>
+      <c r="V150" t="s">
+        <v>118</v>
+      </c>
+      <c r="W150" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH150">
+        <v>0.06</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK150">
+        <v>266</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>323</v>
+      </c>
+      <c r="B151" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" t="s">
+        <v>322</v>
+      </c>
+      <c r="E151" t="s">
+        <v>42</v>
+      </c>
+      <c r="H151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" t="s">
+        <v>43</v>
+      </c>
+      <c r="J151" t="s">
+        <v>43</v>
+      </c>
+      <c r="K151" t="s">
+        <v>44</v>
+      </c>
+      <c r="T151" t="s">
+        <v>53</v>
+      </c>
+      <c r="U151" t="s">
+        <v>54</v>
+      </c>
+      <c r="V151" t="s">
+        <v>118</v>
+      </c>
+      <c r="W151" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH151">
+        <v>0.02</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK151">
+        <v>266</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>323</v>
+      </c>
+      <c r="B152" t="s">
+        <v>324</v>
+      </c>
+      <c r="C152" t="s">
+        <v>325</v>
+      </c>
+      <c r="D152" t="s">
+        <v>322</v>
+      </c>
+      <c r="E152" t="s">
+        <v>42</v>
+      </c>
+      <c r="H152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" t="s">
+        <v>43</v>
+      </c>
+      <c r="J152" t="s">
+        <v>43</v>
+      </c>
+      <c r="K152" t="s">
+        <v>44</v>
+      </c>
+      <c r="T152" t="s">
+        <v>53</v>
+      </c>
+      <c r="U152" t="s">
+        <v>54</v>
+      </c>
+      <c r="V152" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH152">
+        <v>0.11</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK152">
+        <v>266</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>330</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" t="s">
+        <v>331</v>
+      </c>
+      <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="H153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153" t="s">
+        <v>43</v>
+      </c>
+      <c r="K153" t="s">
+        <v>44</v>
+      </c>
+      <c r="T153" t="s">
+        <v>53</v>
+      </c>
+      <c r="U153" t="s">
+        <v>54</v>
+      </c>
+      <c r="V153" t="s">
+        <v>118</v>
+      </c>
+      <c r="W153" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH153">
+        <v>0.31</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" t="s">
+        <v>328</v>
+      </c>
+      <c r="C154" t="s">
+        <v>329</v>
+      </c>
+      <c r="D154" t="s">
+        <v>331</v>
+      </c>
+      <c r="E154" t="s">
+        <v>42</v>
+      </c>
+      <c r="H154" t="s">
+        <v>43</v>
+      </c>
+      <c r="I154" t="s">
+        <v>43</v>
+      </c>
+      <c r="J154" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154" t="s">
+        <v>44</v>
+      </c>
+      <c r="T154" t="s">
+        <v>53</v>
+      </c>
+      <c r="U154" t="s">
+        <v>54</v>
+      </c>
+      <c r="V154" t="s">
+        <v>118</v>
+      </c>
+      <c r="W154" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH154">
+        <v>0.21</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" t="s">
+        <v>328</v>
+      </c>
+      <c r="C155" t="s">
+        <v>329</v>
+      </c>
+      <c r="D155" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" t="s">
+        <v>42</v>
+      </c>
+      <c r="H155" t="s">
+        <v>43</v>
+      </c>
+      <c r="I155" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155" t="s">
+        <v>43</v>
+      </c>
+      <c r="K155" t="s">
+        <v>44</v>
+      </c>
+      <c r="T155" t="s">
+        <v>53</v>
+      </c>
+      <c r="U155" t="s">
+        <v>54</v>
+      </c>
+      <c r="V155" t="s">
+        <v>118</v>
+      </c>
+      <c r="W155" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH155">
+        <v>0.17</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>330</v>
+      </c>
+      <c r="B156" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" t="s">
+        <v>329</v>
+      </c>
+      <c r="D156" t="s">
+        <v>331</v>
+      </c>
+      <c r="E156" t="s">
+        <v>42</v>
+      </c>
+      <c r="H156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" t="s">
+        <v>43</v>
+      </c>
+      <c r="J156" t="s">
+        <v>43</v>
+      </c>
+      <c r="K156" t="s">
+        <v>44</v>
+      </c>
+      <c r="T156" t="s">
+        <v>53</v>
+      </c>
+      <c r="U156" t="s">
+        <v>54</v>
+      </c>
+      <c r="V156" t="s">
+        <v>118</v>
+      </c>
+      <c r="W156" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH156">
+        <v>0.12</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>330</v>
+      </c>
+      <c r="B157" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" t="s">
+        <v>329</v>
+      </c>
+      <c r="D157" t="s">
+        <v>331</v>
+      </c>
+      <c r="E157" t="s">
+        <v>42</v>
+      </c>
+      <c r="H157" t="s">
+        <v>43</v>
+      </c>
+      <c r="I157" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157" t="s">
+        <v>43</v>
+      </c>
+      <c r="K157" t="s">
+        <v>44</v>
+      </c>
+      <c r="T157" t="s">
+        <v>53</v>
+      </c>
+      <c r="U157" t="s">
+        <v>54</v>
+      </c>
+      <c r="V157" t="s">
+        <v>118</v>
+      </c>
+      <c r="W157" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH157">
+        <v>0.04</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" t="s">
+        <v>331</v>
+      </c>
+      <c r="E158" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" t="s">
+        <v>43</v>
+      </c>
+      <c r="I158" t="s">
+        <v>43</v>
+      </c>
+      <c r="J158" t="s">
+        <v>43</v>
+      </c>
+      <c r="K158" t="s">
+        <v>44</v>
+      </c>
+      <c r="T158" t="s">
+        <v>53</v>
+      </c>
+      <c r="U158" t="s">
+        <v>54</v>
+      </c>
+      <c r="V158" t="s">
+        <v>118</v>
+      </c>
+      <c r="W158" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH158">
+        <v>0.06</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>330</v>
+      </c>
+      <c r="B159" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" t="s">
+        <v>329</v>
+      </c>
+      <c r="D159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E159" t="s">
+        <v>42</v>
+      </c>
+      <c r="H159" t="s">
+        <v>43</v>
+      </c>
+      <c r="I159" t="s">
+        <v>43</v>
+      </c>
+      <c r="J159" t="s">
+        <v>43</v>
+      </c>
+      <c r="K159" t="s">
+        <v>44</v>
+      </c>
+      <c r="T159" t="s">
+        <v>53</v>
+      </c>
+      <c r="U159" t="s">
+        <v>54</v>
+      </c>
+      <c r="V159" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH159">
+        <v>0.05</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" t="s">
+        <v>328</v>
+      </c>
+      <c r="C160" t="s">
+        <v>329</v>
+      </c>
+      <c r="D160" t="s">
+        <v>331</v>
+      </c>
+      <c r="E160" t="s">
+        <v>42</v>
+      </c>
+      <c r="H160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" t="s">
+        <v>43</v>
+      </c>
+      <c r="J160" t="s">
+        <v>43</v>
+      </c>
+      <c r="K160" t="s">
+        <v>44</v>
+      </c>
+      <c r="T160" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH160">
+        <v>0.03</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161" t="s">
+        <v>338</v>
+      </c>
+      <c r="C161" t="s">
+        <v>337</v>
+      </c>
+      <c r="D161" t="s">
+        <v>339</v>
+      </c>
+      <c r="E161" t="s">
+        <v>42</v>
+      </c>
+      <c r="H161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" t="s">
+        <v>43</v>
+      </c>
+      <c r="J161" t="s">
+        <v>43</v>
+      </c>
+      <c r="K161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$180</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="361">
   <si>
     <t>Common_Name</t>
   </si>
@@ -731,9 +734,6 @@
     <t>Passerellidae</t>
   </si>
   <si>
-    <t>grass</t>
-  </si>
-  <si>
     <t>Savannah Sparrow</t>
   </si>
   <si>
@@ -818,9 +818,6 @@
     <t>polygonum</t>
   </si>
   <si>
-    <t>misc.</t>
-  </si>
-  <si>
     <t>Asterales</t>
   </si>
   <si>
@@ -1095,6 +1092,24 @@
   </si>
   <si>
     <t>Ruppia maritima</t>
+  </si>
+  <si>
+    <t>Grasshopper Sparrow*judd 1901</t>
+  </si>
+  <si>
+    <t>Song Sparrow *judd 1901</t>
+  </si>
+  <si>
+    <t>Ruby-crowned Kinglet*beal 1907</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Rosaceae</t>
+  </si>
+  <si>
+    <t>grass and grain</t>
   </si>
 </sst>
 </file>
@@ -1110,12 +1125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1130,8 +1151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,12 +1434,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP182"/>
+  <dimension ref="A1:AP180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomLeft" activeCell="W63" sqref="W63:Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,6 +1627,9 @@
       <c r="AA2" t="s">
         <v>43</v>
       </c>
+      <c r="AB2" t="s">
+        <v>126</v>
+      </c>
       <c r="AH2">
         <v>0.03</v>
       </c>
@@ -1618,7 +1643,7 @@
         <v>125</v>
       </c>
       <c r="AN2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AO2" t="s">
         <v>140</v>
@@ -1679,6 +1704,9 @@
       <c r="AA3" t="s">
         <v>43</v>
       </c>
+      <c r="AB3" t="s">
+        <v>126</v>
+      </c>
       <c r="AH3">
         <v>0.65</v>
       </c>
@@ -1750,6 +1778,9 @@
       <c r="AA4" t="s">
         <v>43</v>
       </c>
+      <c r="AB4" t="s">
+        <v>126</v>
+      </c>
       <c r="AH4">
         <v>0.32</v>
       </c>
@@ -1898,6 +1929,9 @@
       <c r="AA6" t="s">
         <v>43</v>
       </c>
+      <c r="AB6" t="s">
+        <v>126</v>
+      </c>
       <c r="AH6">
         <v>0.5</v>
       </c>
@@ -1972,6 +2006,9 @@
       <c r="Z7" t="s">
         <v>77</v>
       </c>
+      <c r="AB7" t="s">
+        <v>126</v>
+      </c>
       <c r="AH7">
         <v>0.216</v>
       </c>
@@ -2040,6 +2077,9 @@
       <c r="Y8" t="s">
         <v>79</v>
       </c>
+      <c r="AB8" t="s">
+        <v>126</v>
+      </c>
       <c r="AH8">
         <v>0.13</v>
       </c>
@@ -2111,6 +2151,9 @@
       <c r="Z9" t="s">
         <v>82</v>
       </c>
+      <c r="AB9" t="s">
+        <v>126</v>
+      </c>
       <c r="AF9" t="s">
         <v>83</v>
       </c>
@@ -2176,6 +2219,9 @@
       <c r="V10" t="s">
         <v>43</v>
       </c>
+      <c r="AB10" t="s">
+        <v>126</v>
+      </c>
       <c r="AH10">
         <v>0.1</v>
       </c>
@@ -2248,13 +2294,13 @@
         <v>138</v>
       </c>
       <c r="AA11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AB11" t="s">
         <v>126</v>
       </c>
       <c r="AG11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AH11">
         <v>0.42</v>
@@ -2312,8 +2358,11 @@
       <c r="T12" t="s">
         <v>73</v>
       </c>
+      <c r="AB12" t="s">
+        <v>124</v>
+      </c>
       <c r="AG12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AH12">
         <v>0.55000000000000004</v>
@@ -2377,6 +2426,9 @@
       <c r="V13" t="s">
         <v>117</v>
       </c>
+      <c r="AB13" t="s">
+        <v>126</v>
+      </c>
       <c r="AG13" t="s">
         <v>116</v>
       </c>
@@ -2436,6 +2488,9 @@
       <c r="T14" t="s">
         <v>53</v>
       </c>
+      <c r="AB14" t="s">
+        <v>126</v>
+      </c>
       <c r="AG14" t="s">
         <v>87</v>
       </c>
@@ -2507,6 +2562,9 @@
       <c r="Y15" t="s">
         <v>96</v>
       </c>
+      <c r="AB15" t="s">
+        <v>126</v>
+      </c>
       <c r="AG15" t="s">
         <v>88</v>
       </c>
@@ -2578,6 +2636,9 @@
       <c r="Y16" t="s">
         <v>79</v>
       </c>
+      <c r="AB16" t="s">
+        <v>126</v>
+      </c>
       <c r="AG16" t="s">
         <v>89</v>
       </c>
@@ -2637,6 +2698,9 @@
       <c r="T17" t="s">
         <v>73</v>
       </c>
+      <c r="AB17" t="s">
+        <v>124</v>
+      </c>
       <c r="AG17" t="s">
         <v>90</v>
       </c>
@@ -2711,6 +2775,9 @@
       <c r="Z18" t="s">
         <v>77</v>
       </c>
+      <c r="AB18" t="s">
+        <v>126</v>
+      </c>
       <c r="AG18" t="s">
         <v>91</v>
       </c>
@@ -2776,6 +2843,9 @@
       <c r="V19" t="s">
         <v>74</v>
       </c>
+      <c r="AB19" t="s">
+        <v>124</v>
+      </c>
       <c r="AG19" t="s">
         <v>92</v>
       </c>
@@ -5005,12 +5075,6 @@
       <c r="K49" t="s">
         <v>44</v>
       </c>
-      <c r="N49">
-        <v>5</v>
-      </c>
-      <c r="P49">
-        <v>5</v>
-      </c>
       <c r="S49">
         <v>1</v>
       </c>
@@ -5025,6 +5089,9 @@
       </c>
       <c r="W49" t="s">
         <v>167</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>126</v>
       </c>
       <c r="AG49" t="s">
         <v>166</v>
@@ -5434,6 +5501,9 @@
       <c r="T55" t="s">
         <v>73</v>
       </c>
+      <c r="AB55" t="s">
+        <v>126</v>
+      </c>
       <c r="AG55" t="s">
         <v>182</v>
       </c>
@@ -5499,6 +5569,9 @@
       <c r="V56" t="s">
         <v>118</v>
       </c>
+      <c r="AB56" t="s">
+        <v>126</v>
+      </c>
       <c r="AG56" t="s">
         <v>192</v>
       </c>
@@ -5564,6 +5637,15 @@
       <c r="V57" t="s">
         <v>74</v>
       </c>
+      <c r="W57" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>126</v>
+      </c>
       <c r="AG57" t="s">
         <v>191</v>
       </c>
@@ -5626,6 +5708,9 @@
       <c r="V58" t="s">
         <v>118</v>
       </c>
+      <c r="AB58" t="s">
+        <v>126</v>
+      </c>
       <c r="AH58">
         <v>0.89200000000000002</v>
       </c>
@@ -5682,6 +5767,9 @@
       <c r="V59" t="s">
         <v>74</v>
       </c>
+      <c r="AB59" t="s">
+        <v>126</v>
+      </c>
       <c r="AH59">
         <v>0.108</v>
       </c>
@@ -5930,6 +6018,15 @@
       <c r="V63" t="s">
         <v>74</v>
       </c>
+      <c r="W63" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>126</v>
+      </c>
       <c r="AG63" t="s">
         <v>197</v>
       </c>
@@ -5989,6 +6086,9 @@
       <c r="U64" t="s">
         <v>54</v>
       </c>
+      <c r="AB64" t="s">
+        <v>124</v>
+      </c>
       <c r="AG64" t="s">
         <v>200</v>
       </c>
@@ -6252,6 +6352,15 @@
       <c r="V68" t="s">
         <v>74</v>
       </c>
+      <c r="W68" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>126</v>
+      </c>
       <c r="AG68" t="s">
         <v>203</v>
       </c>
@@ -6317,6 +6426,9 @@
       <c r="V69" t="s">
         <v>118</v>
       </c>
+      <c r="AB69" t="s">
+        <v>126</v>
+      </c>
       <c r="AG69" t="s">
         <v>115</v>
       </c>
@@ -7378,6 +7490,9 @@
       <c r="V85" t="s">
         <v>118</v>
       </c>
+      <c r="AB85" t="s">
+        <v>126</v>
+      </c>
       <c r="AH85">
         <v>0.31</v>
       </c>
@@ -7440,11 +7555,20 @@
       <c r="W86" t="s">
         <v>75</v>
       </c>
+      <c r="Y86" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>83</v>
+      </c>
       <c r="AG86" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="AH86">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="AI86" t="s">
         <v>57</v>
@@ -7502,20 +7626,17 @@
       <c r="V87" t="s">
         <v>74</v>
       </c>
-      <c r="W87" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>79</v>
+      <c r="AB87" t="s">
+        <v>124</v>
       </c>
       <c r="AF87" t="s">
         <v>83</v>
       </c>
       <c r="AG87" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AH87">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="AI87" t="s">
         <v>57</v>
@@ -7535,13 +7656,13 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D88" t="s">
         <v>234</v>
@@ -7565,25 +7686,25 @@
         <v>1</v>
       </c>
       <c r="T88" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U88" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V88" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG88" t="s">
-        <v>225</v>
+        <v>118</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>126</v>
       </c>
       <c r="AH88">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AI88" t="s">
         <v>57</v>
+      </c>
+      <c r="AK88">
+        <v>119</v>
       </c>
       <c r="AL88">
         <v>1</v>
@@ -7600,13 +7721,13 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
         <v>236</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>237</v>
-      </c>
-      <c r="C89" t="s">
-        <v>238</v>
       </c>
       <c r="D89" t="s">
         <v>234</v>
@@ -7630,16 +7751,13 @@
         <v>1</v>
       </c>
       <c r="T89" t="s">
-        <v>53</v>
-      </c>
-      <c r="U89" t="s">
-        <v>54</v>
-      </c>
-      <c r="V89" t="s">
-        <v>118</v>
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>126</v>
       </c>
       <c r="AH89">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="AI89" t="s">
         <v>57</v>
@@ -7661,14 +7779,14 @@
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>236</v>
+      <c r="A90" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
         <v>234</v>
@@ -7692,16 +7810,31 @@
         <v>1</v>
       </c>
       <c r="T90" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U90" t="s">
+        <v>54</v>
+      </c>
+      <c r="V90" t="s">
+        <v>118</v>
+      </c>
+      <c r="W90" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>241</v>
       </c>
       <c r="AH90">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AI90" t="s">
         <v>57</v>
       </c>
       <c r="AK90">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="AL90">
         <v>1</v>
@@ -7717,14 +7850,14 @@
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" t="s">
         <v>239</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>240</v>
-      </c>
-      <c r="C91" t="s">
-        <v>241</v>
       </c>
       <c r="D91" t="s">
         <v>234</v>
@@ -7757,13 +7890,16 @@
         <v>118</v>
       </c>
       <c r="W91" t="s">
-        <v>244</v>
+        <v>205</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>126</v>
       </c>
       <c r="AG91" t="s">
         <v>242</v>
       </c>
       <c r="AH91">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI91" t="s">
         <v>57</v>
@@ -7785,14 +7921,14 @@
       </c>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" t="s">
         <v>239</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>240</v>
-      </c>
-      <c r="C92" t="s">
-        <v>241</v>
       </c>
       <c r="D92" t="s">
         <v>234</v>
@@ -7818,20 +7954,11 @@
       <c r="T92" t="s">
         <v>53</v>
       </c>
-      <c r="U92" t="s">
-        <v>54</v>
-      </c>
-      <c r="V92" t="s">
-        <v>118</v>
-      </c>
-      <c r="W92" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>243</v>
+      <c r="AB92" t="s">
+        <v>124</v>
       </c>
       <c r="AH92">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AI92" t="s">
         <v>57</v>
@@ -7853,14 +7980,14 @@
       </c>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" t="s">
         <v>239</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>240</v>
-      </c>
-      <c r="C93" t="s">
-        <v>241</v>
       </c>
       <c r="D93" t="s">
         <v>234</v>
@@ -7884,10 +8011,13 @@
         <v>1</v>
       </c>
       <c r="T93" t="s">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>126</v>
       </c>
       <c r="AH93">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="AI93" t="s">
         <v>57</v>
@@ -7909,14 +8039,14 @@
       </c>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>239</v>
+      <c r="A94" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D94" t="s">
         <v>234</v>
@@ -7940,17 +8070,29 @@
         <v>1</v>
       </c>
       <c r="T94" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U94" t="s">
+        <v>54</v>
+      </c>
+      <c r="V94" t="s">
+        <v>118</v>
+      </c>
+      <c r="W94" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>241</v>
       </c>
       <c r="AH94">
-        <v>0.37</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI94" t="s">
         <v>57</v>
       </c>
-      <c r="AK94">
-        <v>170</v>
-      </c>
       <c r="AL94">
         <v>1</v>
       </c>
@@ -7965,14 +8107,14 @@
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" t="s">
         <v>245</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>246</v>
-      </c>
-      <c r="C95" t="s">
-        <v>247</v>
       </c>
       <c r="D95" t="s">
         <v>234</v>
@@ -8004,40 +8146,37 @@
       <c r="V95" t="s">
         <v>118</v>
       </c>
-      <c r="W95" t="s">
+      <c r="AB95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH95">
+        <v>0.13</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AG95" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH95">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL95">
-        <v>1</v>
-      </c>
-      <c r="AM95" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO95" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
         <v>245</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>246</v>
-      </c>
-      <c r="C96" t="s">
-        <v>247</v>
       </c>
       <c r="D96" t="s">
         <v>234</v>
@@ -8061,16 +8200,25 @@
         <v>1</v>
       </c>
       <c r="T96" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U96" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V96" t="s">
-        <v>118</v>
+        <v>74</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>247</v>
       </c>
       <c r="AH96">
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
       <c r="AI96" t="s">
         <v>57</v>
@@ -8090,13 +8238,13 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D97" t="s">
         <v>234</v>
@@ -8120,25 +8268,37 @@
         <v>1</v>
       </c>
       <c r="T97" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U97" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V97" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF97" t="s">
-        <v>83</v>
+        <v>118</v>
+      </c>
+      <c r="W97" t="s">
+        <v>255</v>
+      </c>
+      <c r="X97" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>126</v>
       </c>
       <c r="AG97" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AH97">
-        <v>0.73</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AI97" t="s">
         <v>57</v>
+      </c>
+      <c r="AK97">
+        <v>10</v>
       </c>
       <c r="AL97">
         <v>1</v>
@@ -8155,13 +8315,13 @@
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" t="s">
         <v>249</v>
-      </c>
-      <c r="C98" t="s">
-        <v>250</v>
       </c>
       <c r="D98" t="s">
         <v>234</v>
@@ -8194,22 +8354,16 @@
         <v>118</v>
       </c>
       <c r="W98" t="s">
-        <v>256</v>
-      </c>
-      <c r="X98" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AB98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG98" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AH98">
-        <v>9.2999999999999999E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="AI98" t="s">
         <v>57</v>
@@ -8232,13 +8386,13 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B99" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" t="s">
         <v>249</v>
-      </c>
-      <c r="C99" t="s">
-        <v>250</v>
       </c>
       <c r="D99" t="s">
         <v>234</v>
@@ -8271,16 +8425,16 @@
         <v>118</v>
       </c>
       <c r="W99" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AB99" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG99" t="s">
         <v>252</v>
       </c>
       <c r="AH99">
-        <v>0.23100000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AI99" t="s">
         <v>57</v>
@@ -8303,13 +8457,13 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" t="s">
         <v>249</v>
-      </c>
-      <c r="C100" t="s">
-        <v>250</v>
       </c>
       <c r="D100" t="s">
         <v>234</v>
@@ -8341,17 +8495,14 @@
       <c r="V100" t="s">
         <v>118</v>
       </c>
-      <c r="W100" t="s">
-        <v>244</v>
-      </c>
       <c r="AB100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG100" t="s">
         <v>253</v>
       </c>
       <c r="AH100">
-        <v>5.7000000000000002E-2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="AI100" t="s">
         <v>57</v>
@@ -8374,13 +8525,13 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" t="s">
         <v>249</v>
-      </c>
-      <c r="C101" t="s">
-        <v>250</v>
       </c>
       <c r="D101" t="s">
         <v>234</v>
@@ -8404,22 +8555,13 @@
         <v>1</v>
       </c>
       <c r="T101" t="s">
-        <v>53</v>
-      </c>
-      <c r="U101" t="s">
-        <v>54</v>
-      </c>
-      <c r="V101" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="AB101" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="AH101">
-        <v>0.19900000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AI101" t="s">
         <v>57</v>
@@ -8441,14 +8583,14 @@
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>251</v>
+      <c r="A102" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D102" t="s">
         <v>234</v>
@@ -8474,17 +8616,35 @@
       <c r="T102" t="s">
         <v>73</v>
       </c>
+      <c r="U102" t="s">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s">
+        <v>74</v>
+      </c>
+      <c r="W102" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>265</v>
+      </c>
       <c r="AB102" t="s">
         <v>126</v>
       </c>
+      <c r="AG102" t="s">
+        <v>261</v>
+      </c>
       <c r="AH102">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="AI102" t="s">
         <v>57</v>
       </c>
       <c r="AK102">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="AL102">
         <v>1</v>
@@ -8500,14 +8660,14 @@
       </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" t="s">
         <v>259</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>260</v>
-      </c>
-      <c r="C103" t="s">
-        <v>261</v>
       </c>
       <c r="D103" t="s">
         <v>234</v>
@@ -8540,22 +8700,25 @@
         <v>74</v>
       </c>
       <c r="W103" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="Y103" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z103" t="s">
         <v>266</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>267</v>
       </c>
       <c r="AB103" t="s">
         <v>126</v>
       </c>
+      <c r="AF103" t="s">
+        <v>83</v>
+      </c>
       <c r="AG103" t="s">
         <v>262</v>
       </c>
       <c r="AH103">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="AI103" t="s">
         <v>57</v>
@@ -8577,14 +8740,14 @@
       </c>
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
         <v>259</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>260</v>
-      </c>
-      <c r="C104" t="s">
-        <v>261</v>
       </c>
       <c r="D104" t="s">
         <v>234</v>
@@ -8622,11 +8785,14 @@
       <c r="Y104" t="s">
         <v>79</v>
       </c>
+      <c r="AF104" t="s">
+        <v>83</v>
+      </c>
       <c r="AG104" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="AH104">
-        <v>0.05</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI104" t="s">
         <v>57</v>
@@ -8648,14 +8814,14 @@
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" t="s">
         <v>259</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>260</v>
-      </c>
-      <c r="C105" t="s">
-        <v>261</v>
       </c>
       <c r="D105" t="s">
         <v>234</v>
@@ -8688,25 +8854,22 @@
         <v>74</v>
       </c>
       <c r="W105" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="Y105" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="AB105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF105" t="s">
         <v>83</v>
       </c>
       <c r="AG105" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="AH105">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="AI105" t="s">
         <v>57</v>
@@ -8728,14 +8891,14 @@
       </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" t="s">
         <v>259</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>260</v>
-      </c>
-      <c r="C106" t="s">
-        <v>261</v>
       </c>
       <c r="D106" t="s">
         <v>234</v>
@@ -8759,28 +8922,13 @@
         <v>1</v>
       </c>
       <c r="T106" t="s">
-        <v>73</v>
-      </c>
-      <c r="U106" t="s">
-        <v>78</v>
-      </c>
-      <c r="V106" t="s">
-        <v>74</v>
-      </c>
-      <c r="W106" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF106" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG106" t="s">
-        <v>235</v>
+        <v>53</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>126</v>
       </c>
       <c r="AH106">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="AI106" t="s">
         <v>57</v>
@@ -8803,16 +8951,16 @@
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E107" t="s">
         <v>42</v>
@@ -8848,16 +8996,16 @@
         <v>83</v>
       </c>
       <c r="AG107" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AH107">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="AI107" t="s">
         <v>57</v>
       </c>
       <c r="AK107">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL107">
         <v>1</v>
@@ -8874,16 +9022,16 @@
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E108" t="s">
         <v>42</v>
@@ -8904,16 +9052,34 @@
         <v>1</v>
       </c>
       <c r="T108" t="s">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="U108" t="s">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s">
+        <v>74</v>
+      </c>
+      <c r="W108" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>203</v>
       </c>
       <c r="AH108">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="AI108" t="s">
         <v>57</v>
       </c>
       <c r="AK108">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL108">
         <v>1</v>
@@ -8930,16 +9096,16 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" t="s">
         <v>271</v>
-      </c>
-      <c r="C109" t="s">
-        <v>270</v>
-      </c>
-      <c r="D109" t="s">
-        <v>273</v>
       </c>
       <c r="E109" t="s">
         <v>42</v>
@@ -8968,17 +9134,20 @@
       <c r="V109" t="s">
         <v>74</v>
       </c>
+      <c r="W109" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>79</v>
+      </c>
       <c r="AB109" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="AG109" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="AH109">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="AI109" t="s">
         <v>57</v>
@@ -9001,17 +9170,17 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s">
         <v>271</v>
       </c>
-      <c r="C110" t="s">
-        <v>270</v>
-      </c>
-      <c r="D110" t="s">
-        <v>273</v>
-      </c>
       <c r="E110" t="s">
         <v>42</v>
       </c>
@@ -9031,22 +9200,13 @@
         <v>1</v>
       </c>
       <c r="T110" t="s">
-        <v>73</v>
-      </c>
-      <c r="U110" t="s">
-        <v>78</v>
-      </c>
-      <c r="V110" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AB110" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG110" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="AH110">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="AI110" t="s">
         <v>57</v>
@@ -9069,16 +9229,16 @@
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B111" t="s">
+        <v>274</v>
+      </c>
+      <c r="C111" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" t="s">
         <v>271</v>
-      </c>
-      <c r="C111" t="s">
-        <v>270</v>
-      </c>
-      <c r="D111" t="s">
-        <v>273</v>
       </c>
       <c r="E111" t="s">
         <v>42</v>
@@ -9120,13 +9280,10 @@
         <v>210</v>
       </c>
       <c r="AH111">
-        <v>0.09</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="AI111" t="s">
         <v>57</v>
-      </c>
-      <c r="AK111">
-        <v>500</v>
       </c>
       <c r="AL111">
         <v>1</v>
@@ -9143,49 +9300,58 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" t="s">
+        <v>274</v>
+      </c>
+      <c r="C112" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" t="s">
+        <v>271</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112" t="s">
+        <v>44</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s">
+        <v>73</v>
+      </c>
+      <c r="U112" t="s">
+        <v>78</v>
+      </c>
+      <c r="V112" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG112" t="s">
         <v>272</v>
       </c>
-      <c r="B112" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" t="s">
-        <v>270</v>
-      </c>
-      <c r="D112" t="s">
-        <v>273</v>
-      </c>
-      <c r="E112" t="s">
-        <v>42</v>
-      </c>
-      <c r="H112" t="s">
-        <v>43</v>
-      </c>
-      <c r="I112" t="s">
-        <v>43</v>
-      </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112" t="s">
-        <v>44</v>
-      </c>
-      <c r="S112">
-        <v>1</v>
-      </c>
-      <c r="T112" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB112" t="s">
-        <v>126</v>
-      </c>
       <c r="AH112">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="AI112" t="s">
         <v>57</v>
-      </c>
-      <c r="AK112">
-        <v>500</v>
       </c>
       <c r="AL112">
         <v>1</v>
@@ -9202,16 +9368,16 @@
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" t="s">
         <v>275</v>
       </c>
-      <c r="B113" t="s">
-        <v>276</v>
-      </c>
-      <c r="C113" t="s">
-        <v>277</v>
-      </c>
       <c r="D113" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E113" t="s">
         <v>42</v>
@@ -9232,28 +9398,25 @@
         <v>1</v>
       </c>
       <c r="T113" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U113" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V113" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W113" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AB113" t="s">
         <v>126</v>
       </c>
       <c r="AG113" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="AH113">
-        <v>0.14249999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AI113" t="s">
         <v>57</v>
@@ -9273,16 +9436,16 @@
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" t="s">
         <v>275</v>
       </c>
-      <c r="B114" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" t="s">
-        <v>277</v>
-      </c>
       <c r="D114" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E114" t="s">
         <v>42</v>
@@ -9303,25 +9466,19 @@
         <v>1</v>
       </c>
       <c r="T114" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U114" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V114" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AB114" t="s">
         <v>124</v>
       </c>
-      <c r="AF114" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG114" t="s">
-        <v>274</v>
-      </c>
       <c r="AH114">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AI114" t="s">
         <v>57</v>
@@ -9341,16 +9498,16 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D115" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E115" t="s">
         <v>42</v>
@@ -9380,19 +9537,19 @@
         <v>118</v>
       </c>
       <c r="W115" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="AB115" t="s">
         <v>126</v>
       </c>
-      <c r="AG115" t="s">
-        <v>278</v>
-      </c>
       <c r="AH115">
-        <v>0.27200000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="AI115" t="s">
         <v>57</v>
+      </c>
+      <c r="AK115">
+        <v>200</v>
       </c>
       <c r="AL115">
         <v>1</v>
@@ -9409,16 +9566,16 @@
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E116" t="s">
         <v>42</v>
@@ -9447,14 +9604,23 @@
       <c r="V116" t="s">
         <v>118</v>
       </c>
+      <c r="W116" t="s">
+        <v>186</v>
+      </c>
       <c r="AB116" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>281</v>
       </c>
       <c r="AH116">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="AI116" t="s">
         <v>57</v>
+      </c>
+      <c r="AK116">
+        <v>200</v>
       </c>
       <c r="AL116">
         <v>1</v>
@@ -9471,16 +9637,16 @@
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" t="s">
         <v>279</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>280</v>
-      </c>
-      <c r="C117" t="s">
-        <v>281</v>
-      </c>
-      <c r="D117" t="s">
-        <v>282</v>
       </c>
       <c r="E117" t="s">
         <v>42</v>
@@ -9510,13 +9676,13 @@
         <v>118</v>
       </c>
       <c r="W117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB117" t="s">
         <v>126</v>
       </c>
       <c r="AH117">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="AI117" t="s">
         <v>57</v>
@@ -9539,16 +9705,16 @@
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
         <v>279</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>280</v>
-      </c>
-      <c r="C118" t="s">
-        <v>281</v>
-      </c>
-      <c r="D118" t="s">
-        <v>282</v>
       </c>
       <c r="E118" t="s">
         <v>42</v>
@@ -9578,16 +9744,16 @@
         <v>118</v>
       </c>
       <c r="W118" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="AB118" t="s">
         <v>126</v>
       </c>
       <c r="AG118" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="AH118">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AI118" t="s">
         <v>57</v>
@@ -9610,16 +9776,16 @@
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" t="s">
         <v>279</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>280</v>
-      </c>
-      <c r="C119" t="s">
-        <v>281</v>
-      </c>
-      <c r="D119" t="s">
-        <v>282</v>
       </c>
       <c r="E119" t="s">
         <v>42</v>
@@ -9645,17 +9811,11 @@
       <c r="U119" t="s">
         <v>54</v>
       </c>
-      <c r="V119" t="s">
-        <v>118</v>
-      </c>
-      <c r="W119" t="s">
-        <v>185</v>
-      </c>
       <c r="AB119" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH119">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="AI119" t="s">
         <v>57</v>
@@ -9678,16 +9838,16 @@
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B120" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" t="s">
         <v>280</v>
-      </c>
-      <c r="C120" t="s">
-        <v>281</v>
-      </c>
-      <c r="D120" t="s">
-        <v>282</v>
       </c>
       <c r="E120" t="s">
         <v>42</v>
@@ -9717,22 +9877,19 @@
         <v>118</v>
       </c>
       <c r="W120" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="AB120" t="s">
         <v>126</v>
       </c>
       <c r="AG120" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="AH120">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="AI120" t="s">
         <v>57</v>
-      </c>
-      <c r="AK120">
-        <v>200</v>
       </c>
       <c r="AL120">
         <v>1</v>
@@ -9749,16 +9906,16 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
+        <v>284</v>
+      </c>
+      <c r="D121" t="s">
         <v>280</v>
-      </c>
-      <c r="C121" t="s">
-        <v>281</v>
-      </c>
-      <c r="D121" t="s">
-        <v>282</v>
       </c>
       <c r="E121" t="s">
         <v>42</v>
@@ -9784,17 +9941,23 @@
       <c r="U121" t="s">
         <v>54</v>
       </c>
+      <c r="V121" t="s">
+        <v>118</v>
+      </c>
+      <c r="W121" t="s">
+        <v>255</v>
+      </c>
       <c r="AB121" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>251</v>
       </c>
       <c r="AH121">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="AI121" t="s">
         <v>57</v>
-      </c>
-      <c r="AK121">
-        <v>200</v>
       </c>
       <c r="AL121">
         <v>1</v>
@@ -9811,16 +9974,16 @@
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" t="s">
         <v>284</v>
       </c>
-      <c r="B122" t="s">
-        <v>285</v>
-      </c>
-      <c r="C122" t="s">
-        <v>286</v>
-      </c>
       <c r="D122" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E122" t="s">
         <v>42</v>
@@ -9850,16 +10013,13 @@
         <v>118</v>
       </c>
       <c r="W122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB122" t="s">
         <v>126</v>
       </c>
-      <c r="AG122" t="s">
-        <v>283</v>
-      </c>
       <c r="AH122">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="AI122" t="s">
         <v>57</v>
@@ -9879,16 +10039,16 @@
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>282</v>
+      </c>
+      <c r="B123" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" t="s">
         <v>284</v>
       </c>
-      <c r="B123" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" t="s">
-        <v>286</v>
-      </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E123" t="s">
         <v>42</v>
@@ -9918,16 +10078,13 @@
         <v>118</v>
       </c>
       <c r="W123" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="AB123" t="s">
         <v>126</v>
       </c>
-      <c r="AG123" t="s">
-        <v>252</v>
-      </c>
       <c r="AH123">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AI123" t="s">
         <v>57</v>
@@ -9947,16 +10104,16 @@
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" t="s">
         <v>284</v>
       </c>
-      <c r="B124" t="s">
-        <v>285</v>
-      </c>
-      <c r="C124" t="s">
-        <v>286</v>
-      </c>
       <c r="D124" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E124" t="s">
         <v>42</v>
@@ -9979,20 +10136,14 @@
       <c r="T124" t="s">
         <v>53</v>
       </c>
-      <c r="U124" t="s">
-        <v>54</v>
-      </c>
-      <c r="V124" t="s">
-        <v>118</v>
-      </c>
-      <c r="W124" t="s">
-        <v>184</v>
-      </c>
       <c r="AB124" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>285</v>
       </c>
       <c r="AH124">
-        <v>0.22</v>
+        <v>0.7</v>
       </c>
       <c r="AI124" t="s">
         <v>57</v>
@@ -10012,16 +10163,13 @@
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D125" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
@@ -10051,16 +10199,22 @@
         <v>118</v>
       </c>
       <c r="W125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB125" t="s">
         <v>126</v>
       </c>
+      <c r="AG125" t="s">
+        <v>281</v>
+      </c>
       <c r="AH125">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="AI125" t="s">
         <v>57</v>
+      </c>
+      <c r="AK125">
+        <v>343</v>
       </c>
       <c r="AL125">
         <v>1</v>
@@ -10077,16 +10231,13 @@
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
-      </c>
-      <c r="C126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E126" t="s">
         <v>42</v>
@@ -10112,14 +10263,14 @@
       <c r="AB126" t="s">
         <v>124</v>
       </c>
-      <c r="AG126" t="s">
-        <v>287</v>
-      </c>
       <c r="AH126">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AI126" t="s">
         <v>57</v>
+      </c>
+      <c r="AK126">
+        <v>343</v>
       </c>
       <c r="AL126">
         <v>1</v>
@@ -10136,52 +10287,58 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D127" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
+      <c r="K127" t="s">
+        <v>44</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127" t="s">
+        <v>73</v>
+      </c>
+      <c r="U127" t="s">
+        <v>78</v>
+      </c>
+      <c r="V127" t="s">
+        <v>74</v>
+      </c>
+      <c r="W127" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y127" t="s">
         <v>288</v>
       </c>
-      <c r="B127" t="s">
+      <c r="Z127" t="s">
         <v>289</v>
       </c>
-      <c r="D127" t="s">
-        <v>282</v>
-      </c>
-      <c r="E127" t="s">
-        <v>42</v>
-      </c>
-      <c r="H127" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" t="s">
-        <v>43</v>
-      </c>
-      <c r="J127" t="s">
-        <v>43</v>
-      </c>
-      <c r="K127" t="s">
-        <v>44</v>
-      </c>
-      <c r="S127">
-        <v>1</v>
-      </c>
-      <c r="T127" t="s">
-        <v>53</v>
-      </c>
-      <c r="U127" t="s">
-        <v>54</v>
-      </c>
-      <c r="V127" t="s">
-        <v>118</v>
-      </c>
-      <c r="W127" t="s">
-        <v>186</v>
+      <c r="AA127" t="s">
+        <v>290</v>
       </c>
       <c r="AB127" t="s">
         <v>126</v>
       </c>
-      <c r="AG127" t="s">
-        <v>283</v>
-      </c>
       <c r="AH127">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="AI127" t="s">
         <v>57</v>
@@ -10204,13 +10361,13 @@
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B128" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D128" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E128" t="s">
         <v>42</v>
@@ -10231,13 +10388,13 @@
         <v>1</v>
       </c>
       <c r="T128" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AB128" t="s">
         <v>124</v>
       </c>
       <c r="AH128">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="AI128" t="s">
         <v>57</v>
@@ -10260,13 +10417,16 @@
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B129" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="C129" t="s">
+        <v>292</v>
       </c>
       <c r="D129" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
         <v>42</v>
@@ -10287,37 +10447,28 @@
         <v>1</v>
       </c>
       <c r="T129" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U129" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V129" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W129" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA129" t="s">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="AB129" t="s">
         <v>126</v>
       </c>
+      <c r="AG129" t="s">
+        <v>281</v>
+      </c>
       <c r="AH129">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="AI129" t="s">
         <v>57</v>
-      </c>
-      <c r="AK129">
-        <v>343</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -10334,13 +10485,16 @@
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="C130" t="s">
+        <v>292</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E130" t="s">
         <v>42</v>
@@ -10361,19 +10515,28 @@
         <v>1</v>
       </c>
       <c r="T130" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U130" t="s">
+        <v>54</v>
+      </c>
+      <c r="V130" t="s">
+        <v>118</v>
+      </c>
+      <c r="W130" t="s">
+        <v>255</v>
       </c>
       <c r="AB130" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>251</v>
       </c>
       <c r="AH130">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AI130" t="s">
         <v>57</v>
-      </c>
-      <c r="AK130">
-        <v>343</v>
       </c>
       <c r="AL130">
         <v>1</v>
@@ -10390,16 +10553,16 @@
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" t="s">
         <v>293</v>
       </c>
-      <c r="B131" t="s">
-        <v>295</v>
-      </c>
       <c r="C131" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
         <v>42</v>
@@ -10428,17 +10591,11 @@
       <c r="V131" t="s">
         <v>118</v>
       </c>
-      <c r="W131" t="s">
-        <v>186</v>
-      </c>
       <c r="AB131" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG131" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="AH131">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="AI131" t="s">
         <v>57</v>
@@ -10458,16 +10615,16 @@
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B132" t="s">
+        <v>294</v>
+      </c>
+      <c r="C132" t="s">
         <v>295</v>
       </c>
-      <c r="C132" t="s">
-        <v>294</v>
-      </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E132" t="s">
         <v>42</v>
@@ -10497,16 +10654,16 @@
         <v>118</v>
       </c>
       <c r="W132" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="AB132" t="s">
         <v>126</v>
       </c>
       <c r="AG132" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="AH132">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AI132" t="s">
         <v>57</v>
@@ -10526,16 +10683,16 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" t="s">
         <v>295</v>
       </c>
-      <c r="C133" t="s">
-        <v>294</v>
-      </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E133" t="s">
         <v>42</v>
@@ -10564,11 +10721,17 @@
       <c r="V133" t="s">
         <v>118</v>
       </c>
+      <c r="W133" t="s">
+        <v>255</v>
+      </c>
       <c r="AB133" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>251</v>
       </c>
       <c r="AH133">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="AI133" t="s">
         <v>57</v>
@@ -10588,16 +10751,16 @@
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C134" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D134" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E134" t="s">
         <v>42</v>
@@ -10626,17 +10789,11 @@
       <c r="V134" t="s">
         <v>118</v>
       </c>
-      <c r="W134" t="s">
-        <v>186</v>
-      </c>
       <c r="AB134" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="AH134">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="AI134" t="s">
         <v>57</v>
@@ -10656,16 +10813,13 @@
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" t="s">
         <v>298</v>
       </c>
-      <c r="B135" t="s">
-        <v>296</v>
-      </c>
-      <c r="C135" t="s">
-        <v>297</v>
-      </c>
       <c r="D135" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E135" t="s">
         <v>42</v>
@@ -10686,28 +10840,28 @@
         <v>1</v>
       </c>
       <c r="T135" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U135" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V135" t="s">
-        <v>118</v>
-      </c>
-      <c r="W135" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AB135" t="s">
         <v>126</v>
       </c>
       <c r="AG135" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="AH135">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AI135" t="s">
         <v>57</v>
+      </c>
+      <c r="AK135">
+        <v>152</v>
       </c>
       <c r="AL135">
         <v>1</v>
@@ -10724,16 +10878,16 @@
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C136" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D136" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="E136" t="s">
         <v>42</v>
@@ -10757,19 +10911,22 @@
         <v>53</v>
       </c>
       <c r="U136" t="s">
-        <v>54</v>
-      </c>
-      <c r="V136" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="AB136" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>306</v>
       </c>
       <c r="AH136">
-        <v>0.52</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI136" t="s">
         <v>57</v>
+      </c>
+      <c r="AK136">
+        <v>88</v>
       </c>
       <c r="AL136">
         <v>1</v>
@@ -10786,13 +10943,16 @@
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B137" t="s">
-        <v>300</v>
+        <v>304</v>
+      </c>
+      <c r="C137" t="s">
+        <v>302</v>
       </c>
       <c r="D137" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E137" t="s">
         <v>42</v>
@@ -10813,28 +10973,22 @@
         <v>1</v>
       </c>
       <c r="T137" t="s">
-        <v>73</v>
-      </c>
-      <c r="U137" t="s">
-        <v>78</v>
-      </c>
-      <c r="V137" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AB137" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG137" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AH137">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AI137" t="s">
         <v>57</v>
       </c>
       <c r="AK137">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="AL137">
         <v>1</v>
@@ -10851,16 +11005,13 @@
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
-      </c>
-      <c r="C138" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D138" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E138" t="s">
         <v>42</v>
@@ -10884,22 +11035,28 @@
         <v>53</v>
       </c>
       <c r="U138" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="V138" t="s">
+        <v>118</v>
+      </c>
+      <c r="W138" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>312</v>
       </c>
       <c r="AB138" t="s">
         <v>126</v>
       </c>
       <c r="AG138" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AH138">
-        <v>0.28000000000000003</v>
+        <v>0.72</v>
       </c>
       <c r="AI138" t="s">
         <v>57</v>
-      </c>
-      <c r="AK138">
-        <v>88</v>
       </c>
       <c r="AL138">
         <v>1</v>
@@ -10916,16 +11073,13 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
-      </c>
-      <c r="C139" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E139" t="s">
         <v>42</v>
@@ -10948,20 +11102,26 @@
       <c r="T139" t="s">
         <v>53</v>
       </c>
+      <c r="U139" t="s">
+        <v>54</v>
+      </c>
+      <c r="V139" t="s">
+        <v>118</v>
+      </c>
+      <c r="W139" t="s">
+        <v>255</v>
+      </c>
       <c r="AB139" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG139" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="AH139">
-        <v>0.72</v>
+        <v>0.19</v>
       </c>
       <c r="AI139" t="s">
         <v>57</v>
-      </c>
-      <c r="AK139">
-        <v>88</v>
       </c>
       <c r="AL139">
         <v>1</v>
@@ -10978,13 +11138,13 @@
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>307</v>
+      </c>
+      <c r="B140" t="s">
+        <v>308</v>
+      </c>
+      <c r="D140" t="s">
         <v>309</v>
-      </c>
-      <c r="B140" t="s">
-        <v>310</v>
-      </c>
-      <c r="D140" t="s">
-        <v>311</v>
       </c>
       <c r="E140" t="s">
         <v>42</v>
@@ -11014,19 +11174,16 @@
         <v>118</v>
       </c>
       <c r="W140" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="AB140" t="s">
         <v>126</v>
       </c>
       <c r="AG140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AH140">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="AI140" t="s">
         <v>57</v>
@@ -11046,13 +11203,13 @@
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" t="s">
+        <v>308</v>
+      </c>
+      <c r="D141" t="s">
         <v>309</v>
-      </c>
-      <c r="B141" t="s">
-        <v>310</v>
-      </c>
-      <c r="D141" t="s">
-        <v>311</v>
       </c>
       <c r="E141" t="s">
         <v>42</v>
@@ -11082,16 +11239,16 @@
         <v>118</v>
       </c>
       <c r="W141" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="AB141" t="s">
         <v>126</v>
       </c>
       <c r="AG141" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AH141">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="AI141" t="s">
         <v>57</v>
@@ -11111,13 +11268,13 @@
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D142" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E142" t="s">
         <v>42</v>
@@ -11146,20 +11303,17 @@
       <c r="V142" t="s">
         <v>118</v>
       </c>
-      <c r="W142" t="s">
-        <v>184</v>
-      </c>
       <c r="AB142" t="s">
         <v>126</v>
       </c>
-      <c r="AG142" t="s">
-        <v>313</v>
-      </c>
       <c r="AH142">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AI142" t="s">
         <v>57</v>
+      </c>
+      <c r="AK142">
+        <v>645</v>
       </c>
       <c r="AL142">
         <v>1</v>
@@ -11176,13 +11330,13 @@
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B143" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D143" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E143" t="s">
         <v>42</v>
@@ -11203,28 +11357,25 @@
         <v>1</v>
       </c>
       <c r="T143" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U143" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V143" t="s">
-        <v>118</v>
-      </c>
-      <c r="W143" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AB143" t="s">
         <v>126</v>
       </c>
-      <c r="AG143" t="s">
-        <v>181</v>
-      </c>
       <c r="AH143">
-        <v>0.05</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AI143" t="s">
         <v>57</v>
+      </c>
+      <c r="AK143">
+        <v>645</v>
       </c>
       <c r="AL143">
         <v>1</v>
@@ -11244,11 +11395,14 @@
         <v>316</v>
       </c>
       <c r="B144" t="s">
+        <v>317</v>
+      </c>
+      <c r="C144" t="s">
+        <v>318</v>
+      </c>
+      <c r="D144" t="s">
         <v>315</v>
       </c>
-      <c r="D144" t="s">
-        <v>317</v>
-      </c>
       <c r="E144" t="s">
         <v>42</v>
       </c>
@@ -11268,25 +11422,34 @@
         <v>1</v>
       </c>
       <c r="T144" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U144" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V144" t="s">
-        <v>118</v>
+        <v>74</v>
+      </c>
+      <c r="W144" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>81</v>
       </c>
       <c r="AB144" t="s">
         <v>126</v>
       </c>
+      <c r="AG144" t="s">
+        <v>319</v>
+      </c>
       <c r="AH144">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="AI144" t="s">
         <v>57</v>
       </c>
       <c r="AK144">
-        <v>645</v>
+        <v>266</v>
       </c>
       <c r="AL144">
         <v>1</v>
@@ -11306,10 +11469,13 @@
         <v>316</v>
       </c>
       <c r="B145" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" t="s">
+        <v>318</v>
+      </c>
+      <c r="D145" t="s">
         <v>315</v>
-      </c>
-      <c r="D145" t="s">
-        <v>317</v>
       </c>
       <c r="E145" t="s">
         <v>42</v>
@@ -11339,16 +11505,19 @@
         <v>74</v>
       </c>
       <c r="AB145" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>320</v>
       </c>
       <c r="AH145">
-        <v>0.56000000000000005</v>
+        <v>0.32</v>
       </c>
       <c r="AI145" t="s">
         <v>57</v>
       </c>
       <c r="AK145">
-        <v>645</v>
+        <v>266</v>
       </c>
       <c r="AL145">
         <v>1</v>
@@ -11365,16 +11534,16 @@
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>316</v>
+      </c>
+      <c r="B146" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" t="s">
         <v>318</v>
       </c>
-      <c r="B146" t="s">
-        <v>319</v>
-      </c>
-      <c r="C146" t="s">
-        <v>320</v>
-      </c>
       <c r="D146" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E146" t="s">
         <v>42</v>
@@ -11404,19 +11573,19 @@
         <v>74</v>
       </c>
       <c r="W146" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB146" t="s">
         <v>126</v>
       </c>
       <c r="AG146" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="AH146">
-        <v>0.24</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI146" t="s">
         <v>57</v>
@@ -11439,16 +11608,16 @@
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" t="s">
         <v>318</v>
       </c>
-      <c r="B147" t="s">
-        <v>319</v>
-      </c>
-      <c r="C147" t="s">
-        <v>320</v>
-      </c>
       <c r="D147" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E147" t="s">
         <v>42</v>
@@ -11469,22 +11638,25 @@
         <v>1</v>
       </c>
       <c r="T147" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U147" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V147" t="s">
-        <v>74</v>
+        <v>118</v>
+      </c>
+      <c r="W147" t="s">
+        <v>255</v>
       </c>
       <c r="AB147" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG147" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="AH147">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="AI147" t="s">
         <v>57</v>
@@ -11507,16 +11679,16 @@
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>316</v>
+      </c>
+      <c r="B148" t="s">
+        <v>317</v>
+      </c>
+      <c r="C148" t="s">
         <v>318</v>
       </c>
-      <c r="B148" t="s">
-        <v>319</v>
-      </c>
-      <c r="C148" t="s">
-        <v>320</v>
-      </c>
       <c r="D148" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E148" t="s">
         <v>42</v>
@@ -11537,28 +11709,25 @@
         <v>1</v>
       </c>
       <c r="T148" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U148" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V148" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W148" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y148" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AB148" t="s">
         <v>126</v>
       </c>
       <c r="AG148" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AH148">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AI148" t="s">
         <v>57</v>
@@ -11581,16 +11750,16 @@
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" t="s">
+        <v>317</v>
+      </c>
+      <c r="C149" t="s">
         <v>318</v>
       </c>
-      <c r="B149" t="s">
-        <v>319</v>
-      </c>
-      <c r="C149" t="s">
-        <v>320</v>
-      </c>
       <c r="D149" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E149" t="s">
         <v>42</v>
@@ -11620,16 +11789,16 @@
         <v>118</v>
       </c>
       <c r="W149" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AB149" t="s">
         <v>126</v>
       </c>
       <c r="AG149" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AH149">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AI149" t="s">
         <v>57</v>
@@ -11652,16 +11821,16 @@
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" t="s">
         <v>318</v>
       </c>
-      <c r="B150" t="s">
-        <v>319</v>
-      </c>
-      <c r="C150" t="s">
-        <v>320</v>
-      </c>
       <c r="D150" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E150" t="s">
         <v>42</v>
@@ -11690,17 +11859,11 @@
       <c r="V150" t="s">
         <v>118</v>
       </c>
-      <c r="W150" t="s">
-        <v>205</v>
-      </c>
       <c r="AB150" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG150" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="AH150">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AI150" t="s">
         <v>57</v>
@@ -11723,16 +11886,16 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C151" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D151" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E151" t="s">
         <v>42</v>
@@ -11762,22 +11925,19 @@
         <v>118</v>
       </c>
       <c r="W151" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="AB151" t="s">
         <v>126</v>
       </c>
       <c r="AG151" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="AH151">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="AI151" t="s">
         <v>57</v>
-      </c>
-      <c r="AK151">
-        <v>266</v>
       </c>
       <c r="AL151">
         <v>1</v>
@@ -11794,16 +11954,16 @@
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B152" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C152" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E152" t="s">
         <v>42</v>
@@ -11832,17 +11992,20 @@
       <c r="V152" t="s">
         <v>118</v>
       </c>
+      <c r="W152" t="s">
+        <v>255</v>
+      </c>
       <c r="AB152" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>251</v>
       </c>
       <c r="AH152">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="AI152" t="s">
         <v>57</v>
-      </c>
-      <c r="AK152">
-        <v>266</v>
       </c>
       <c r="AL152">
         <v>1</v>
@@ -11859,16 +12022,16 @@
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C153" t="s">
+        <v>322</v>
+      </c>
+      <c r="D153" t="s">
         <v>324</v>
-      </c>
-      <c r="D153" t="s">
-        <v>326</v>
       </c>
       <c r="E153" t="s">
         <v>42</v>
@@ -11898,7 +12061,7 @@
         <v>118</v>
       </c>
       <c r="W153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB153" t="s">
         <v>126</v>
@@ -11907,7 +12070,7 @@
         <v>327</v>
       </c>
       <c r="AH153">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="AI153" t="s">
         <v>57</v>
@@ -11927,16 +12090,16 @@
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B154" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C154" t="s">
+        <v>322</v>
+      </c>
+      <c r="D154" t="s">
         <v>324</v>
-      </c>
-      <c r="D154" t="s">
-        <v>326</v>
       </c>
       <c r="E154" t="s">
         <v>42</v>
@@ -11966,16 +12129,16 @@
         <v>118</v>
       </c>
       <c r="W154" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="AB154" t="s">
         <v>126</v>
       </c>
       <c r="AG154" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AH154">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="AI154" t="s">
         <v>57</v>
@@ -11995,16 +12158,16 @@
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C155" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" t="s">
         <v>324</v>
-      </c>
-      <c r="D155" t="s">
-        <v>326</v>
       </c>
       <c r="E155" t="s">
         <v>42</v>
@@ -12034,16 +12197,16 @@
         <v>118</v>
       </c>
       <c r="W155" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="AB155" t="s">
         <v>126</v>
       </c>
       <c r="AG155" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="AH155">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="AI155" t="s">
         <v>57</v>
@@ -12063,16 +12226,16 @@
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B156" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
+        <v>322</v>
+      </c>
+      <c r="D156" t="s">
         <v>324</v>
-      </c>
-      <c r="D156" t="s">
-        <v>326</v>
       </c>
       <c r="E156" t="s">
         <v>42</v>
@@ -12102,16 +12265,16 @@
         <v>118</v>
       </c>
       <c r="W156" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AB156" t="s">
         <v>126</v>
       </c>
       <c r="AG156" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="AH156">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="AI156" t="s">
         <v>57</v>
@@ -12131,16 +12294,16 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C157" t="s">
+        <v>322</v>
+      </c>
+      <c r="D157" t="s">
         <v>324</v>
-      </c>
-      <c r="D157" t="s">
-        <v>326</v>
       </c>
       <c r="E157" t="s">
         <v>42</v>
@@ -12167,19 +12330,16 @@
         <v>54</v>
       </c>
       <c r="V157" t="s">
-        <v>118</v>
-      </c>
-      <c r="W157" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="AB157" t="s">
         <v>126</v>
       </c>
       <c r="AG157" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="AH157">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AI157" t="s">
         <v>57</v>
@@ -12199,17 +12359,17 @@
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C158" t="s">
+        <v>322</v>
+      </c>
+      <c r="D158" t="s">
         <v>324</v>
       </c>
-      <c r="D158" t="s">
-        <v>326</v>
-      </c>
       <c r="E158" t="s">
         <v>42</v>
       </c>
@@ -12229,25 +12389,16 @@
         <v>1</v>
       </c>
       <c r="T158" t="s">
-        <v>53</v>
-      </c>
-      <c r="U158" t="s">
-        <v>54</v>
-      </c>
-      <c r="V158" t="s">
-        <v>118</v>
-      </c>
-      <c r="W158" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="AB158" t="s">
         <v>126</v>
       </c>
       <c r="AG158" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="AH158">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AI158" t="s">
         <v>57</v>
@@ -12266,17 +12417,17 @@
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>325</v>
+      <c r="A159" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="B159" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D159" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E159" t="s">
         <v>42</v>
@@ -12303,16 +12454,16 @@
         <v>54</v>
       </c>
       <c r="V159" t="s">
-        <v>183</v>
+        <v>118</v>
+      </c>
+      <c r="W159" t="s">
+        <v>184</v>
       </c>
       <c r="AB159" t="s">
         <v>126</v>
       </c>
-      <c r="AG159" t="s">
-        <v>328</v>
-      </c>
       <c r="AH159">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="AI159" t="s">
         <v>57</v>
@@ -12331,17 +12482,17 @@
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>325</v>
+      <c r="A160" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B160" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E160" t="s">
         <v>42</v>
@@ -12362,45 +12513,54 @@
         <v>1</v>
       </c>
       <c r="T160" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U160" t="s">
+        <v>54</v>
+      </c>
+      <c r="V160" t="s">
+        <v>118</v>
+      </c>
+      <c r="W160" t="s">
+        <v>185</v>
       </c>
       <c r="AB160" t="s">
         <v>126</v>
       </c>
       <c r="AG160" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH160">
+        <v>0.26</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B161" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" t="s">
         <v>330</v>
       </c>
-      <c r="AH160">
-        <v>0.03</v>
-      </c>
-      <c r="AI160" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL160">
-        <v>1</v>
-      </c>
-      <c r="AM160" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO160" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP160" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>331</v>
-      </c>
-      <c r="B161" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>332</v>
-      </c>
-      <c r="D161" t="s">
-        <v>334</v>
       </c>
       <c r="E161" t="s">
         <v>42</v>
@@ -12430,13 +12590,16 @@
         <v>118</v>
       </c>
       <c r="W161" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="AB161" t="s">
         <v>126</v>
       </c>
+      <c r="AG161" t="s">
+        <v>251</v>
+      </c>
       <c r="AH161">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="AI161" t="s">
         <v>57</v>
@@ -12455,17 +12618,17 @@
       </c>
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" t="s">
         <v>331</v>
       </c>
-      <c r="B162" t="s">
-        <v>333</v>
-      </c>
       <c r="C162" t="s">
+        <v>330</v>
+      </c>
+      <c r="D162" t="s">
         <v>332</v>
-      </c>
-      <c r="D162" t="s">
-        <v>334</v>
       </c>
       <c r="E162" t="s">
         <v>42</v>
@@ -12495,16 +12658,16 @@
         <v>118</v>
       </c>
       <c r="W162" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB162" t="s">
         <v>126</v>
       </c>
       <c r="AG162" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="AH162">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="AI162" t="s">
         <v>57</v>
@@ -12523,17 +12686,17 @@
       </c>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s">
         <v>331</v>
       </c>
-      <c r="B163" t="s">
-        <v>333</v>
-      </c>
       <c r="C163" t="s">
+        <v>330</v>
+      </c>
+      <c r="D163" t="s">
         <v>332</v>
-      </c>
-      <c r="D163" t="s">
-        <v>334</v>
       </c>
       <c r="E163" t="s">
         <v>42</v>
@@ -12559,20 +12722,11 @@
       <c r="U163" t="s">
         <v>54</v>
       </c>
-      <c r="V163" t="s">
-        <v>118</v>
-      </c>
-      <c r="W163" t="s">
-        <v>256</v>
-      </c>
       <c r="AB163" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG163" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="AH163">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AI163" t="s">
         <v>57</v>
@@ -12591,18 +12745,18 @@
       </c>
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
         <v>331</v>
       </c>
-      <c r="B164" t="s">
-        <v>333</v>
-      </c>
       <c r="C164" t="s">
+        <v>330</v>
+      </c>
+      <c r="D164" t="s">
         <v>332</v>
       </c>
-      <c r="D164" t="s">
-        <v>334</v>
-      </c>
       <c r="E164" t="s">
         <v>42</v>
       </c>
@@ -12622,25 +12776,19 @@
         <v>1</v>
       </c>
       <c r="T164" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U164" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V164" t="s">
-        <v>118</v>
-      </c>
-      <c r="W164" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AB164" t="s">
         <v>126</v>
       </c>
-      <c r="AG164" t="s">
-        <v>283</v>
-      </c>
       <c r="AH164">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="AI164" t="s">
         <v>57</v>
@@ -12660,16 +12808,13 @@
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
-      </c>
-      <c r="C165" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D165" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E165" t="s">
         <v>42</v>
@@ -12695,11 +12840,14 @@
       <c r="U165" t="s">
         <v>54</v>
       </c>
+      <c r="V165" t="s">
+        <v>118</v>
+      </c>
       <c r="AB165" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AH165">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AI165" t="s">
         <v>57</v>
@@ -12719,16 +12867,13 @@
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
-      </c>
-      <c r="C166" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D166" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E166" t="s">
         <v>42</v>
@@ -12761,7 +12906,7 @@
         <v>126</v>
       </c>
       <c r="AH166">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
       <c r="AI166" t="s">
         <v>57</v>
@@ -12781,13 +12926,16 @@
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>336</v>
+      </c>
+      <c r="B167" t="s">
+        <v>338</v>
+      </c>
+      <c r="C167" t="s">
+        <v>337</v>
+      </c>
+      <c r="D167" t="s">
         <v>335</v>
-      </c>
-      <c r="B167" t="s">
-        <v>336</v>
-      </c>
-      <c r="D167" t="s">
-        <v>337</v>
       </c>
       <c r="E167" t="s">
         <v>42</v>
@@ -12813,14 +12961,11 @@
       <c r="U167" t="s">
         <v>54</v>
       </c>
-      <c r="V167" t="s">
-        <v>118</v>
-      </c>
       <c r="AB167" t="s">
         <v>126</v>
       </c>
       <c r="AH167">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AI167" t="s">
         <v>57</v>
@@ -12840,13 +12985,16 @@
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" t="s">
+        <v>337</v>
+      </c>
+      <c r="D168" t="s">
         <v>335</v>
-      </c>
-      <c r="B168" t="s">
-        <v>336</v>
-      </c>
-      <c r="D168" t="s">
-        <v>337</v>
       </c>
       <c r="E168" t="s">
         <v>42</v>
@@ -12879,7 +13027,7 @@
         <v>126</v>
       </c>
       <c r="AH168">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="AI168" t="s">
         <v>57</v>
@@ -12899,16 +13047,16 @@
     </row>
     <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B169" t="s">
+        <v>341</v>
+      </c>
+      <c r="C169" t="s">
         <v>340</v>
       </c>
-      <c r="C169" t="s">
-        <v>339</v>
-      </c>
       <c r="D169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E169" t="s">
         <v>42</v>
@@ -12929,16 +13077,19 @@
         <v>1</v>
       </c>
       <c r="T169" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U169" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="V169" t="s">
+        <v>74</v>
       </c>
       <c r="AB169" t="s">
         <v>126</v>
       </c>
       <c r="AH169">
-        <v>0.56999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="AI169" t="s">
         <v>57</v>
@@ -12958,16 +13109,16 @@
     </row>
     <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" t="s">
         <v>340</v>
       </c>
-      <c r="C170" t="s">
-        <v>339</v>
-      </c>
       <c r="D170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E170" t="s">
         <v>42</v>
@@ -12988,19 +13139,25 @@
         <v>1</v>
       </c>
       <c r="T170" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U170" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V170" t="s">
-        <v>74</v>
+        <v>118</v>
+      </c>
+      <c r="W170" t="s">
+        <v>255</v>
       </c>
       <c r="AB170" t="s">
         <v>126</v>
       </c>
+      <c r="AG170" t="s">
+        <v>251</v>
+      </c>
       <c r="AH170">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="AI170" t="s">
         <v>57</v>
@@ -13020,16 +13177,16 @@
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" t="s">
         <v>341</v>
       </c>
-      <c r="B171" t="s">
-        <v>343</v>
-      </c>
       <c r="C171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E171" t="s">
         <v>42</v>
@@ -13050,19 +13207,16 @@
         <v>1</v>
       </c>
       <c r="T171" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U171" t="s">
-        <v>78</v>
-      </c>
-      <c r="V171" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AB171" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH171">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="AI171" t="s">
         <v>57</v>
@@ -13082,7 +13236,7 @@
     </row>
     <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
         <v>343</v>
@@ -13091,7 +13245,7 @@
         <v>342</v>
       </c>
       <c r="D172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E172" t="s">
         <v>42</v>
@@ -13117,20 +13271,11 @@
       <c r="U172" t="s">
         <v>54</v>
       </c>
-      <c r="V172" t="s">
-        <v>118</v>
-      </c>
-      <c r="W172" t="s">
-        <v>256</v>
-      </c>
       <c r="AB172" t="s">
         <v>126</v>
       </c>
-      <c r="AG172" t="s">
-        <v>252</v>
-      </c>
       <c r="AH172">
-        <v>0.33</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AI172" t="s">
         <v>57</v>
@@ -13150,7 +13295,7 @@
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
         <v>343</v>
@@ -13159,7 +13304,7 @@
         <v>342</v>
       </c>
       <c r="D173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E173" t="s">
         <v>42</v>
@@ -13180,16 +13325,22 @@
         <v>1</v>
       </c>
       <c r="T173" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U173" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="V173" t="s">
+        <v>74</v>
       </c>
       <c r="AB173" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>203</v>
       </c>
       <c r="AH173">
-        <v>0.42</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="AI173" t="s">
         <v>57</v>
@@ -13209,16 +13360,16 @@
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B174" t="s">
         <v>345</v>
       </c>
       <c r="C174" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E174" t="s">
         <v>42</v>
@@ -13239,19 +13390,28 @@
         <v>1</v>
       </c>
       <c r="T174" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U174" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="V174" t="s">
+        <v>74</v>
       </c>
       <c r="AB174" t="s">
         <v>126</v>
       </c>
+      <c r="AG174" t="s">
+        <v>203</v>
+      </c>
       <c r="AH174">
-        <v>0.63500000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AI174" t="s">
         <v>57</v>
+      </c>
+      <c r="AK174">
+        <v>1200</v>
       </c>
       <c r="AL174">
         <v>1</v>
@@ -13268,16 +13428,16 @@
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
         <v>345</v>
       </c>
       <c r="C175" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E175" t="s">
         <v>42</v>
@@ -13298,25 +13458,28 @@
         <v>1</v>
       </c>
       <c r="T175" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U175" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V175" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AB175" t="s">
         <v>126</v>
       </c>
       <c r="AG175" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="AH175">
-        <v>0.36499999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="AI175" t="s">
         <v>57</v>
+      </c>
+      <c r="AK175">
+        <v>1200</v>
       </c>
       <c r="AL175">
         <v>1</v>
@@ -13333,16 +13496,16 @@
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>351</v>
+      </c>
+      <c r="B176" t="s">
         <v>349</v>
       </c>
-      <c r="B176" t="s">
-        <v>347</v>
-      </c>
       <c r="C176" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E176" t="s">
         <v>42</v>
@@ -13363,28 +13526,31 @@
         <v>1</v>
       </c>
       <c r="T176" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U176" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V176" t="s">
-        <v>74</v>
+        <v>118</v>
+      </c>
+      <c r="W176" t="s">
+        <v>243</v>
       </c>
       <c r="AB176" t="s">
         <v>126</v>
       </c>
       <c r="AG176" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="AH176">
-        <v>0.57599999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="AI176" t="s">
         <v>57</v>
       </c>
       <c r="AK176">
-        <v>1200</v>
+        <v>855</v>
       </c>
       <c r="AL176">
         <v>1</v>
@@ -13401,16 +13567,16 @@
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" t="s">
         <v>349</v>
       </c>
-      <c r="B177" t="s">
-        <v>347</v>
-      </c>
       <c r="C177" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E177" t="s">
         <v>42</v>
@@ -13439,20 +13605,23 @@
       <c r="V177" t="s">
         <v>118</v>
       </c>
+      <c r="W177" t="s">
+        <v>255</v>
+      </c>
       <c r="AB177" t="s">
         <v>126</v>
       </c>
       <c r="AG177" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AH177">
-        <v>0.42399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="AI177" t="s">
         <v>57</v>
       </c>
       <c r="AK177">
-        <v>1200</v>
+        <v>855</v>
       </c>
       <c r="AL177">
         <v>1</v>
@@ -13469,16 +13638,16 @@
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D178" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E178" t="s">
         <v>42</v>
@@ -13508,7 +13677,7 @@
         <v>118</v>
       </c>
       <c r="W178" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AB178" t="s">
         <v>126</v>
@@ -13517,7 +13686,7 @@
         <v>242</v>
       </c>
       <c r="AH178">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="AI178" t="s">
         <v>57</v>
@@ -13540,16 +13709,16 @@
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D179" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E179" t="s">
         <v>42</v>
@@ -13578,17 +13747,11 @@
       <c r="V179" t="s">
         <v>118</v>
       </c>
-      <c r="W179" t="s">
-        <v>256</v>
-      </c>
       <c r="AB179" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG179" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="AH179">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AI179" t="s">
         <v>57</v>
@@ -13611,16 +13774,16 @@
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E180" t="s">
         <v>42</v>
@@ -13641,25 +13804,28 @@
         <v>1</v>
       </c>
       <c r="T180" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U180" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V180" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W180" t="s">
-        <v>205</v>
+        <v>358</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>359</v>
       </c>
       <c r="AB180" t="s">
         <v>126</v>
       </c>
       <c r="AG180" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="AH180">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="AI180" t="s">
         <v>57</v>
@@ -13680,140 +13846,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>353</v>
-      </c>
-      <c r="B181" t="s">
-        <v>351</v>
-      </c>
-      <c r="C181" t="s">
-        <v>352</v>
-      </c>
-      <c r="D181" t="s">
-        <v>337</v>
-      </c>
-      <c r="E181" t="s">
-        <v>42</v>
-      </c>
-      <c r="H181" t="s">
-        <v>43</v>
-      </c>
-      <c r="I181" t="s">
-        <v>43</v>
-      </c>
-      <c r="J181" t="s">
-        <v>43</v>
-      </c>
-      <c r="K181" t="s">
-        <v>44</v>
-      </c>
-      <c r="S181">
-        <v>1</v>
-      </c>
-      <c r="T181" t="s">
-        <v>53</v>
-      </c>
-      <c r="U181" t="s">
-        <v>54</v>
-      </c>
-      <c r="V181" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB181" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH181">
-        <v>0.16</v>
-      </c>
-      <c r="AI181" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK181">
-        <v>855</v>
-      </c>
-      <c r="AL181">
-        <v>1</v>
-      </c>
-      <c r="AM181" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO181" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP181" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>353</v>
-      </c>
-      <c r="B182" t="s">
-        <v>351</v>
-      </c>
-      <c r="C182" t="s">
-        <v>352</v>
-      </c>
-      <c r="D182" t="s">
-        <v>337</v>
-      </c>
-      <c r="E182" t="s">
-        <v>42</v>
-      </c>
-      <c r="H182" t="s">
-        <v>43</v>
-      </c>
-      <c r="I182" t="s">
-        <v>43</v>
-      </c>
-      <c r="J182" t="s">
-        <v>43</v>
-      </c>
-      <c r="K182" t="s">
-        <v>44</v>
-      </c>
-      <c r="S182">
-        <v>1</v>
-      </c>
-      <c r="T182" t="s">
-        <v>73</v>
-      </c>
-      <c r="U182" t="s">
-        <v>78</v>
-      </c>
-      <c r="V182" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB182" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG182" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH182">
-        <v>0.32</v>
-      </c>
-      <c r="AI182" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK182">
-        <v>855</v>
-      </c>
-      <c r="AL182">
-        <v>1</v>
-      </c>
-      <c r="AM182" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO182" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP182" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:AP180"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/AvianDietDatabase_Howell_1924_GN.xlsx
+++ b/AvianDietDatabase_Howell_1924_GN.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$160</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="332">
   <si>
     <t>Common_Name</t>
   </si>
@@ -743,15 +743,6 @@
     <t>savanna</t>
   </si>
   <si>
-    <t>Grasshopper Sparrow</t>
-  </si>
-  <si>
-    <t>Ammodramus savannarum</t>
-  </si>
-  <si>
-    <t>savannarum</t>
-  </si>
-  <si>
     <t>grasshoppers</t>
   </si>
   <si>
@@ -761,18 +752,6 @@
     <t>Orthoptera</t>
   </si>
   <si>
-    <t>Lark Sparrow</t>
-  </si>
-  <si>
-    <t>Chondestes grammacus</t>
-  </si>
-  <si>
-    <t>grammacus</t>
-  </si>
-  <si>
-    <t>grasses, weeds, grains</t>
-  </si>
-  <si>
     <t>Peucaea aestivalis</t>
   </si>
   <si>
@@ -803,33 +782,6 @@
     <t>Chrysomeloidae</t>
   </si>
   <si>
-    <t>Song Sparrow</t>
-  </si>
-  <si>
-    <t>Melospiza melodia</t>
-  </si>
-  <si>
-    <t>melodia</t>
-  </si>
-  <si>
-    <t>ragweed</t>
-  </si>
-  <si>
-    <t>polygonum</t>
-  </si>
-  <si>
-    <t>Asterales</t>
-  </si>
-  <si>
-    <t>Asteraceae</t>
-  </si>
-  <si>
-    <t>Ambrosia</t>
-  </si>
-  <si>
-    <t>Polygonum</t>
-  </si>
-  <si>
     <t>Uses some data from Judd 1901 which is not included here</t>
   </si>
   <si>
@@ -932,24 +884,6 @@
     <t>wild and cultivated fruit</t>
   </si>
   <si>
-    <t>Loggerhead Shrike</t>
-  </si>
-  <si>
-    <t>ludovicianus</t>
-  </si>
-  <si>
-    <t>Laniidae</t>
-  </si>
-  <si>
-    <t>Lanius ludovicianus</t>
-  </si>
-  <si>
-    <t>invertebrates (insects, spiders, snails)</t>
-  </si>
-  <si>
-    <t>vertebrates (mammals, birds, fish)</t>
-  </si>
-  <si>
     <t>Black-poll Warbler</t>
   </si>
   <si>
@@ -1016,18 +950,6 @@
     <t>misc. vegetables</t>
   </si>
   <si>
-    <t>Ruby-crowned Kinglet</t>
-  </si>
-  <si>
-    <t>calendula</t>
-  </si>
-  <si>
-    <t>Regulus calendula</t>
-  </si>
-  <si>
-    <t>Regulidae</t>
-  </si>
-  <si>
     <t>Wood Thrush</t>
   </si>
   <si>
@@ -1092,15 +1014,6 @@
   </si>
   <si>
     <t>Ruppia maritima</t>
-  </si>
-  <si>
-    <t>Grasshopper Sparrow*judd 1901</t>
-  </si>
-  <si>
-    <t>Song Sparrow *judd 1901</t>
-  </si>
-  <si>
-    <t>Ruby-crowned Kinglet*beal 1907</t>
   </si>
   <si>
     <t>Rosales</t>
@@ -1125,18 +1038,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1151,9 +1058,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,12 +1340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP180"/>
+  <dimension ref="A1:AP160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="W63" sqref="W63:Y63"/>
+      <selection pane="bottomLeft" activeCell="Z61" sqref="Z61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1549,7 @@
         <v>125</v>
       </c>
       <c r="AN2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AO2" t="s">
         <v>140</v>
@@ -2294,13 +2200,13 @@
         <v>138</v>
       </c>
       <c r="AA11" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="AB11" t="s">
         <v>126</v>
       </c>
       <c r="AG11" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="AH11">
         <v>0.42</v>
@@ -2362,7 +2268,7 @@
         <v>124</v>
       </c>
       <c r="AG12" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="AH12">
         <v>0.55000000000000004</v>
@@ -5631,18 +5537,6 @@
       <c r="T57" t="s">
         <v>73</v>
       </c>
-      <c r="U57" t="s">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s">
-        <v>74</v>
-      </c>
-      <c r="W57" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>359</v>
-      </c>
       <c r="AB57" t="s">
         <v>126</v>
       </c>
@@ -6019,10 +5913,10 @@
         <v>74</v>
       </c>
       <c r="W63" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Y63" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AB63" t="s">
         <v>126</v>
@@ -6353,10 +6247,10 @@
         <v>74</v>
       </c>
       <c r="W68" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Y68" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AB68" t="s">
         <v>126</v>
@@ -7565,7 +7459,7 @@
         <v>83</v>
       </c>
       <c r="AG86" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AH86">
         <v>0.27</v>
@@ -7779,14 +7673,14 @@
       </c>
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>355</v>
+      <c r="A90" t="s">
+        <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
         <v>234</v>
@@ -7819,45 +7713,51 @@
         <v>118</v>
       </c>
       <c r="W90" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="X90" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>250</v>
       </c>
       <c r="AB90" t="s">
         <v>126</v>
       </c>
       <c r="AG90" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH90">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK90">
+        <v>10</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91" t="s">
         <v>241</v>
       </c>
-      <c r="AH90">
-        <v>0.25</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK90">
-        <v>170</v>
-      </c>
-      <c r="AL90">
-        <v>1</v>
-      </c>
-      <c r="AM90" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO90" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B91" t="s">
-        <v>239</v>
-      </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
         <v>234</v>
@@ -7890,45 +7790,45 @@
         <v>118</v>
       </c>
       <c r="W91" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="AB91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG91" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH91">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK91">
+        <v>10</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" t="s">
         <v>242</v>
-      </c>
-      <c r="AH91">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AI91" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK91">
-        <v>170</v>
-      </c>
-      <c r="AL91">
-        <v>1</v>
-      </c>
-      <c r="AM91" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO91" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B92" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" t="s">
-        <v>240</v>
       </c>
       <c r="D92" t="s">
         <v>234</v>
@@ -7954,17 +7854,29 @@
       <c r="T92" t="s">
         <v>53</v>
       </c>
+      <c r="U92" t="s">
+        <v>54</v>
+      </c>
+      <c r="V92" t="s">
+        <v>118</v>
+      </c>
+      <c r="W92" t="s">
+        <v>240</v>
+      </c>
       <c r="AB92" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>245</v>
       </c>
       <c r="AH92">
-        <v>0.25</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AI92" t="s">
         <v>57</v>
       </c>
       <c r="AK92">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AL92">
         <v>1</v>
@@ -7980,14 +7892,14 @@
       </c>
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>238</v>
+      <c r="A93" t="s">
+        <v>243</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D93" t="s">
         <v>234</v>
@@ -8011,19 +7923,28 @@
         <v>1</v>
       </c>
       <c r="T93" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U93" t="s">
+        <v>54</v>
+      </c>
+      <c r="V93" t="s">
+        <v>118</v>
       </c>
       <c r="AB93" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>246</v>
       </c>
       <c r="AH93">
-        <v>0.37</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="AI93" t="s">
         <v>57</v>
       </c>
       <c r="AK93">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AL93">
         <v>1</v>
@@ -8039,14 +7960,14 @@
       </c>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>244</v>
+      <c r="A94" t="s">
+        <v>243</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D94" t="s">
         <v>234</v>
@@ -8070,29 +7991,20 @@
         <v>1</v>
       </c>
       <c r="T94" t="s">
-        <v>53</v>
-      </c>
-      <c r="U94" t="s">
-        <v>54</v>
-      </c>
-      <c r="V94" t="s">
-        <v>118</v>
-      </c>
-      <c r="W94" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="AB94" t="s">
         <v>126</v>
       </c>
-      <c r="AG94" t="s">
-        <v>241</v>
-      </c>
       <c r="AH94">
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="AI94" t="s">
         <v>57</v>
       </c>
+      <c r="AK94">
+        <v>10</v>
+      </c>
       <c r="AL94">
         <v>1</v>
       </c>
@@ -8107,17 +8019,17 @@
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>244</v>
+      <c r="A95" t="s">
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E95" t="s">
         <v>42</v>
@@ -8138,23 +8050,32 @@
         <v>1</v>
       </c>
       <c r="T95" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U95" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V95" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="AB95" t="s">
         <v>124</v>
       </c>
+      <c r="AF95" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>256</v>
+      </c>
       <c r="AH95">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="AI95" t="s">
         <v>57</v>
       </c>
+      <c r="AK95">
+        <v>500</v>
+      </c>
       <c r="AL95">
         <v>1</v>
       </c>
@@ -8169,17 +8090,17 @@
       </c>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>244</v>
+      <c r="A96" t="s">
+        <v>254</v>
       </c>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E96" t="s">
         <v>42</v>
@@ -8208,20 +8129,26 @@
       <c r="V96" t="s">
         <v>74</v>
       </c>
+      <c r="W96" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>330</v>
+      </c>
       <c r="AB96" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="AG96" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="AH96">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="AI96" t="s">
         <v>57</v>
+      </c>
+      <c r="AK96">
+        <v>500</v>
       </c>
       <c r="AL96">
         <v>1</v>
@@ -8238,16 +8165,16 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D97" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E97" t="s">
         <v>42</v>
@@ -8268,37 +8195,34 @@
         <v>1</v>
       </c>
       <c r="T97" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U97" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V97" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W97" t="s">
-        <v>255</v>
-      </c>
-      <c r="X97" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="Y97" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AB97" t="s">
         <v>126</v>
       </c>
       <c r="AG97" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="AH97">
-        <v>9.2999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AI97" t="s">
         <v>57</v>
       </c>
       <c r="AK97">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="AL97">
         <v>1</v>
@@ -8315,16 +8239,16 @@
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E98" t="s">
         <v>42</v>
@@ -8347,29 +8271,17 @@
       <c r="T98" t="s">
         <v>53</v>
       </c>
-      <c r="U98" t="s">
-        <v>54</v>
-      </c>
-      <c r="V98" t="s">
-        <v>118</v>
-      </c>
-      <c r="W98" t="s">
-        <v>255</v>
-      </c>
       <c r="AB98" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AH98">
-        <v>0.23100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="AI98" t="s">
         <v>57</v>
       </c>
       <c r="AK98">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="AL98">
         <v>1</v>
@@ -8386,16 +8298,16 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
         <v>42</v>
@@ -8416,31 +8328,31 @@
         <v>1</v>
       </c>
       <c r="T99" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U99" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V99" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W99" t="s">
-        <v>243</v>
+        <v>75</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>79</v>
       </c>
       <c r="AB99" t="s">
         <v>126</v>
       </c>
       <c r="AG99" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="AH99">
-        <v>5.7000000000000002E-2</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="AI99" t="s">
         <v>57</v>
-      </c>
-      <c r="AK99">
-        <v>10</v>
       </c>
       <c r="AL99">
         <v>1</v>
@@ -8457,16 +8369,16 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D100" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E100" t="s">
         <v>42</v>
@@ -8487,28 +8399,28 @@
         <v>1</v>
       </c>
       <c r="T100" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U100" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V100" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="AB100" t="s">
         <v>124</v>
       </c>
+      <c r="AF100" t="s">
+        <v>83</v>
+      </c>
       <c r="AG100" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AH100">
-        <v>0.19900000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="AI100" t="s">
         <v>57</v>
-      </c>
-      <c r="AK100">
-        <v>10</v>
       </c>
       <c r="AL100">
         <v>1</v>
@@ -8525,16 +8437,16 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E101" t="s">
         <v>42</v>
@@ -8555,20 +8467,29 @@
         <v>1</v>
       </c>
       <c r="T101" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U101" t="s">
+        <v>54</v>
+      </c>
+      <c r="V101" t="s">
+        <v>118</v>
+      </c>
+      <c r="W101" t="s">
+        <v>240</v>
       </c>
       <c r="AB101" t="s">
         <v>126</v>
       </c>
+      <c r="AG101" t="s">
+        <v>260</v>
+      </c>
       <c r="AH101">
-        <v>0.42</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AI101" t="s">
         <v>57</v>
       </c>
-      <c r="AK101">
-        <v>10</v>
-      </c>
       <c r="AL101">
         <v>1</v>
       </c>
@@ -8583,17 +8504,17 @@
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>356</v>
+      <c r="A102" t="s">
+        <v>257</v>
       </c>
       <c r="B102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" t="s">
         <v>259</v>
       </c>
-      <c r="C102" t="s">
-        <v>260</v>
-      </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
@@ -8614,64 +8535,49 @@
         <v>1</v>
       </c>
       <c r="T102" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U102" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V102" t="s">
-        <v>74</v>
-      </c>
-      <c r="W102" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH102">
+        <v>0.4</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>261</v>
+      </c>
+      <c r="B103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" t="s">
         <v>263</v>
       </c>
-      <c r="Y102" t="s">
+      <c r="D103" t="s">
         <v>264</v>
       </c>
-      <c r="Z102" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG102" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH102">
-        <v>0.03</v>
-      </c>
-      <c r="AI102" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK102">
-        <v>400</v>
-      </c>
-      <c r="AL102">
-        <v>1</v>
-      </c>
-      <c r="AM102" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO102" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP102" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B103" t="s">
-        <v>259</v>
-      </c>
-      <c r="C103" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" t="s">
-        <v>234</v>
-      </c>
       <c r="E103" t="s">
         <v>42</v>
       </c>
@@ -8691,114 +8597,99 @@
         <v>1</v>
       </c>
       <c r="T103" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U103" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V103" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W103" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="AB103" t="s">
         <v>126</v>
       </c>
-      <c r="AF103" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG103" t="s">
+      <c r="AH103">
+        <v>0.23</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK103">
+        <v>200</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" t="s">
         <v>262</v>
       </c>
-      <c r="AH103">
+      <c r="C104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" t="s">
+        <v>264</v>
+      </c>
+      <c r="E104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" t="s">
+        <v>44</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s">
+        <v>53</v>
+      </c>
+      <c r="U104" t="s">
+        <v>54</v>
+      </c>
+      <c r="V104" t="s">
+        <v>118</v>
+      </c>
+      <c r="W104" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH104">
         <v>0.16</v>
       </c>
-      <c r="AI103" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK103">
-        <v>400</v>
-      </c>
-      <c r="AL103">
-        <v>1</v>
-      </c>
-      <c r="AM103" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO103" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP103" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B104" t="s">
-        <v>259</v>
-      </c>
-      <c r="C104" t="s">
-        <v>260</v>
-      </c>
-      <c r="D104" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" t="s">
-        <v>42</v>
-      </c>
-      <c r="H104" t="s">
-        <v>43</v>
-      </c>
-      <c r="I104" t="s">
-        <v>43</v>
-      </c>
-      <c r="J104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K104" t="s">
-        <v>44</v>
-      </c>
-      <c r="S104">
-        <v>1</v>
-      </c>
-      <c r="T104" t="s">
-        <v>73</v>
-      </c>
-      <c r="U104" t="s">
-        <v>78</v>
-      </c>
-      <c r="V104" t="s">
-        <v>74</v>
-      </c>
-      <c r="W104" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF104" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG104" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH104">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="AI104" t="s">
         <v>57</v>
       </c>
       <c r="AK104">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AL104">
         <v>1</v>
@@ -8814,17 +8705,17 @@
       </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>258</v>
+      <c r="A105" t="s">
+        <v>261</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
@@ -8845,37 +8736,28 @@
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U105" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V105" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W105" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="AB105" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG105" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="AH105">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AI105" t="s">
         <v>57</v>
       </c>
       <c r="AK105">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AL105">
         <v>1</v>
@@ -8891,17 +8773,17 @@
       </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>258</v>
+      <c r="A106" t="s">
+        <v>261</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D106" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="E106" t="s">
         <v>42</v>
@@ -8924,17 +8806,29 @@
       <c r="T106" t="s">
         <v>53</v>
       </c>
+      <c r="U106" t="s">
+        <v>54</v>
+      </c>
+      <c r="V106" t="s">
+        <v>118</v>
+      </c>
+      <c r="W106" t="s">
+        <v>248</v>
+      </c>
       <c r="AB106" t="s">
         <v>126</v>
       </c>
+      <c r="AG106" t="s">
+        <v>244</v>
+      </c>
       <c r="AH106">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="AI106" t="s">
         <v>57</v>
       </c>
       <c r="AK106">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AL106">
         <v>1</v>
@@ -8951,16 +8845,16 @@
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
         <v>42</v>
@@ -8981,31 +8875,22 @@
         <v>1</v>
       </c>
       <c r="T107" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U107" t="s">
-        <v>78</v>
-      </c>
-      <c r="V107" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AB107" t="s">
         <v>124</v>
       </c>
-      <c r="AF107" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG107" t="s">
-        <v>272</v>
-      </c>
       <c r="AH107">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="AI107" t="s">
         <v>57</v>
       </c>
       <c r="AK107">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AL107">
         <v>1</v>
@@ -9022,16 +8907,16 @@
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
         <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E108" t="s">
         <v>42</v>
@@ -9052,34 +8937,28 @@
         <v>1</v>
       </c>
       <c r="T108" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U108" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V108" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W108" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="AB108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG108" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="AH108">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="AI108" t="s">
         <v>57</v>
-      </c>
-      <c r="AK108">
-        <v>500</v>
       </c>
       <c r="AL108">
         <v>1</v>
@@ -9096,16 +8975,16 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
         <v>268</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
         <v>42</v>
@@ -9126,34 +9005,28 @@
         <v>1</v>
       </c>
       <c r="T109" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U109" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V109" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AB109" t="s">
         <v>126</v>
       </c>
       <c r="AG109" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="AH109">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AI109" t="s">
         <v>57</v>
-      </c>
-      <c r="AK109">
-        <v>500</v>
       </c>
       <c r="AL109">
         <v>1</v>
@@ -9170,16 +9043,16 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s">
         <v>268</v>
       </c>
       <c r="D110" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
         <v>42</v>
@@ -9202,17 +9075,23 @@
       <c r="T110" t="s">
         <v>53</v>
       </c>
+      <c r="U110" t="s">
+        <v>54</v>
+      </c>
+      <c r="V110" t="s">
+        <v>118</v>
+      </c>
+      <c r="W110" t="s">
+        <v>184</v>
+      </c>
       <c r="AB110" t="s">
         <v>126</v>
       </c>
       <c r="AH110">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="AI110" t="s">
         <v>57</v>
-      </c>
-      <c r="AK110">
-        <v>500</v>
       </c>
       <c r="AL110">
         <v>1</v>
@@ -9229,16 +9108,16 @@
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B111" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D111" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
         <v>42</v>
@@ -9259,28 +9138,22 @@
         <v>1</v>
       </c>
       <c r="T111" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U111" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V111" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W111" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AB111" t="s">
         <v>126</v>
       </c>
-      <c r="AG111" t="s">
-        <v>210</v>
-      </c>
       <c r="AH111">
-        <v>0.14249999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AI111" t="s">
         <v>57</v>
@@ -9300,16 +9173,16 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
         <v>42</v>
@@ -9330,25 +9203,16 @@
         <v>1</v>
       </c>
       <c r="T112" t="s">
-        <v>73</v>
-      </c>
-      <c r="U112" t="s">
-        <v>78</v>
-      </c>
-      <c r="V112" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AB112" t="s">
         <v>124</v>
       </c>
-      <c r="AF112" t="s">
-        <v>83</v>
-      </c>
       <c r="AG112" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AH112">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="AI112" t="s">
         <v>57</v>
@@ -9368,16 +9232,13 @@
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
-      </c>
-      <c r="C113" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
         <v>42</v>
@@ -9407,19 +9268,22 @@
         <v>118</v>
       </c>
       <c r="W113" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="AB113" t="s">
         <v>126</v>
       </c>
       <c r="AG113" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AH113">
-        <v>0.27200000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI113" t="s">
         <v>57</v>
+      </c>
+      <c r="AK113">
+        <v>343</v>
       </c>
       <c r="AL113">
         <v>1</v>
@@ -9436,16 +9300,13 @@
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B114" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D114" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
         <v>42</v>
@@ -9468,12 +9329,6 @@
       <c r="T114" t="s">
         <v>53</v>
       </c>
-      <c r="U114" t="s">
-        <v>54</v>
-      </c>
-      <c r="V114" t="s">
-        <v>118</v>
-      </c>
       <c r="AB114" t="s">
         <v>124</v>
       </c>
@@ -9483,6 +9338,9 @@
       <c r="AI114" t="s">
         <v>57</v>
       </c>
+      <c r="AK114">
+        <v>343</v>
+      </c>
       <c r="AL114">
         <v>1</v>
       </c>
@@ -9498,16 +9356,13 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
-      </c>
-      <c r="C115" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E115" t="s">
         <v>42</v>
@@ -9528,28 +9383,37 @@
         <v>1</v>
       </c>
       <c r="T115" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U115" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V115" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W115" t="s">
-        <v>184</v>
+        <v>80</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>274</v>
       </c>
       <c r="AB115" t="s">
         <v>126</v>
       </c>
       <c r="AH115">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="AI115" t="s">
         <v>57</v>
       </c>
       <c r="AK115">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="AL115">
         <v>1</v>
@@ -9566,16 +9430,13 @@
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
-      </c>
-      <c r="C116" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D116" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E116" t="s">
         <v>42</v>
@@ -9596,31 +9457,19 @@
         <v>1</v>
       </c>
       <c r="T116" t="s">
-        <v>53</v>
-      </c>
-      <c r="U116" t="s">
-        <v>54</v>
-      </c>
-      <c r="V116" t="s">
-        <v>118</v>
-      </c>
-      <c r="W116" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="AB116" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG116" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="AH116">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AI116" t="s">
         <v>57</v>
       </c>
       <c r="AK116">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="AL116">
         <v>1</v>
@@ -9637,16 +9486,16 @@
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>275</v>
+      </c>
+      <c r="B117" t="s">
         <v>277</v>
       </c>
-      <c r="B117" t="s">
-        <v>278</v>
-      </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E117" t="s">
         <v>42</v>
@@ -9676,19 +9525,19 @@
         <v>118</v>
       </c>
       <c r="W117" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB117" t="s">
         <v>126</v>
       </c>
+      <c r="AG117" t="s">
+        <v>265</v>
+      </c>
       <c r="AH117">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="AI117" t="s">
         <v>57</v>
-      </c>
-      <c r="AK117">
-        <v>200</v>
       </c>
       <c r="AL117">
         <v>1</v>
@@ -9705,16 +9554,16 @@
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>275</v>
+      </c>
+      <c r="B118" t="s">
         <v>277</v>
       </c>
-      <c r="B118" t="s">
-        <v>278</v>
-      </c>
       <c r="C118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E118" t="s">
         <v>42</v>
@@ -9744,22 +9593,19 @@
         <v>118</v>
       </c>
       <c r="W118" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AB118" t="s">
         <v>126</v>
       </c>
       <c r="AG118" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AH118">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AI118" t="s">
         <v>57</v>
-      </c>
-      <c r="AK118">
-        <v>200</v>
       </c>
       <c r="AL118">
         <v>1</v>
@@ -9776,16 +9622,16 @@
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" t="s">
         <v>277</v>
       </c>
-      <c r="B119" t="s">
-        <v>278</v>
-      </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E119" t="s">
         <v>42</v>
@@ -9811,17 +9657,17 @@
       <c r="U119" t="s">
         <v>54</v>
       </c>
+      <c r="V119" t="s">
+        <v>118</v>
+      </c>
       <c r="AB119" t="s">
         <v>124</v>
       </c>
       <c r="AH119">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="AI119" t="s">
         <v>57</v>
-      </c>
-      <c r="AK119">
-        <v>200</v>
       </c>
       <c r="AL119">
         <v>1</v>
@@ -9838,16 +9684,16 @@
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C120" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E120" t="s">
         <v>42</v>
@@ -9883,10 +9729,10 @@
         <v>126</v>
       </c>
       <c r="AG120" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AH120">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AI120" t="s">
         <v>57</v>
@@ -9906,16 +9752,16 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D121" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E121" t="s">
         <v>42</v>
@@ -9945,16 +9791,16 @@
         <v>118</v>
       </c>
       <c r="W121" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AB121" t="s">
         <v>126</v>
       </c>
       <c r="AG121" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AH121">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AI121" t="s">
         <v>57</v>
@@ -9974,16 +9820,16 @@
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B122" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E122" t="s">
         <v>42</v>
@@ -10012,14 +9858,11 @@
       <c r="V122" t="s">
         <v>118</v>
       </c>
-      <c r="W122" t="s">
-        <v>184</v>
-      </c>
       <c r="AB122" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH122">
-        <v>0.22</v>
+        <v>0.52</v>
       </c>
       <c r="AI122" t="s">
         <v>57</v>
@@ -10039,17 +9882,14 @@
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" t="s">
         <v>282</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>283</v>
       </c>
-      <c r="C123" t="s">
-        <v>284</v>
-      </c>
-      <c r="D123" t="s">
-        <v>280</v>
-      </c>
       <c r="E123" t="s">
         <v>42</v>
       </c>
@@ -10069,25 +9909,34 @@
         <v>1</v>
       </c>
       <c r="T123" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U123" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V123" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W123" t="s">
-        <v>185</v>
+        <v>329</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>330</v>
       </c>
       <c r="AB123" t="s">
         <v>126</v>
       </c>
+      <c r="AG123" t="s">
+        <v>284</v>
+      </c>
       <c r="AH123">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AI123" t="s">
         <v>57</v>
+      </c>
+      <c r="AK123">
+        <v>152</v>
       </c>
       <c r="AL123">
         <v>1</v>
@@ -10104,16 +9953,13 @@
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E124" t="s">
         <v>42</v>
@@ -10136,14 +9982,26 @@
       <c r="T124" t="s">
         <v>53</v>
       </c>
+      <c r="U124" t="s">
+        <v>54</v>
+      </c>
+      <c r="V124" t="s">
+        <v>118</v>
+      </c>
+      <c r="W124" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>290</v>
+      </c>
       <c r="AB124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG124" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AH124">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="AI124" t="s">
         <v>57</v>
@@ -10163,13 +10021,13 @@
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" t="s">
         <v>286</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>287</v>
-      </c>
-      <c r="D125" t="s">
-        <v>280</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
@@ -10199,22 +10057,19 @@
         <v>118</v>
       </c>
       <c r="W125" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="AB125" t="s">
         <v>126</v>
       </c>
       <c r="AG125" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="AH125">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="AI125" t="s">
         <v>57</v>
-      </c>
-      <c r="AK125">
-        <v>343</v>
       </c>
       <c r="AL125">
         <v>1</v>
@@ -10231,13 +10086,13 @@
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" t="s">
         <v>286</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>287</v>
-      </c>
-      <c r="D126" t="s">
-        <v>280</v>
       </c>
       <c r="E126" t="s">
         <v>42</v>
@@ -10260,17 +10115,26 @@
       <c r="T126" t="s">
         <v>53</v>
       </c>
+      <c r="U126" t="s">
+        <v>54</v>
+      </c>
+      <c r="V126" t="s">
+        <v>118</v>
+      </c>
+      <c r="W126" t="s">
+        <v>184</v>
+      </c>
       <c r="AB126" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>289</v>
       </c>
       <c r="AH126">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AI126" t="s">
         <v>57</v>
-      </c>
-      <c r="AK126">
-        <v>343</v>
       </c>
       <c r="AL126">
         <v>1</v>
@@ -10287,14 +10151,14 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
         <v>286</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>287</v>
       </c>
-      <c r="D127" t="s">
-        <v>280</v>
-      </c>
       <c r="E127" t="s">
         <v>42</v>
       </c>
@@ -10314,37 +10178,28 @@
         <v>1</v>
       </c>
       <c r="T127" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U127" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V127" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="W127" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z127" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="AB127" t="s">
         <v>126</v>
       </c>
+      <c r="AG127" t="s">
+        <v>181</v>
+      </c>
       <c r="AH127">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="AI127" t="s">
         <v>57</v>
-      </c>
-      <c r="AK127">
-        <v>343</v>
       </c>
       <c r="AL127">
         <v>1</v>
@@ -10361,13 +10216,13 @@
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E128" t="s">
         <v>42</v>
@@ -10388,19 +10243,25 @@
         <v>1</v>
       </c>
       <c r="T128" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U128" t="s">
+        <v>54</v>
+      </c>
+      <c r="V128" t="s">
+        <v>118</v>
       </c>
       <c r="AB128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AH128">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="AI128" t="s">
         <v>57</v>
       </c>
       <c r="AK128">
-        <v>343</v>
+        <v>645</v>
       </c>
       <c r="AL128">
         <v>1</v>
@@ -10417,17 +10278,14 @@
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>292</v>
+      </c>
+      <c r="B129" t="s">
         <v>291</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>293</v>
       </c>
-      <c r="C129" t="s">
-        <v>292</v>
-      </c>
-      <c r="D129" t="s">
-        <v>280</v>
-      </c>
       <c r="E129" t="s">
         <v>42</v>
       </c>
@@ -10447,28 +10305,25 @@
         <v>1</v>
       </c>
       <c r="T129" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U129" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V129" t="s">
-        <v>118</v>
-      </c>
-      <c r="W129" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AB129" t="s">
         <v>126</v>
       </c>
-      <c r="AG129" t="s">
-        <v>281</v>
-      </c>
       <c r="AH129">
-        <v>0.26</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AI129" t="s">
         <v>57</v>
+      </c>
+      <c r="AK129">
+        <v>645</v>
       </c>
       <c r="AL129">
         <v>1</v>
@@ -10485,17 +10340,17 @@
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" t="s">
         <v>293</v>
       </c>
-      <c r="C130" t="s">
-        <v>292</v>
-      </c>
-      <c r="D130" t="s">
-        <v>280</v>
-      </c>
       <c r="E130" t="s">
         <v>42</v>
       </c>
@@ -10515,28 +10370,34 @@
         <v>1</v>
       </c>
       <c r="T130" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U130" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V130" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W130" t="s">
-        <v>255</v>
+        <v>80</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>81</v>
       </c>
       <c r="AB130" t="s">
         <v>126</v>
       </c>
       <c r="AG130" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="AH130">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="AI130" t="s">
         <v>57</v>
+      </c>
+      <c r="AK130">
+        <v>266</v>
       </c>
       <c r="AL130">
         <v>1</v>
@@ -10553,17 +10414,17 @@
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B131" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" t="s">
         <v>293</v>
       </c>
-      <c r="C131" t="s">
-        <v>292</v>
-      </c>
-      <c r="D131" t="s">
-        <v>280</v>
-      </c>
       <c r="E131" t="s">
         <v>42</v>
       </c>
@@ -10583,22 +10444,28 @@
         <v>1</v>
       </c>
       <c r="T131" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U131" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V131" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="AB131" t="s">
         <v>124</v>
       </c>
+      <c r="AG131" t="s">
+        <v>298</v>
+      </c>
       <c r="AH131">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="AI131" t="s">
         <v>57</v>
+      </c>
+      <c r="AK131">
+        <v>266</v>
       </c>
       <c r="AL131">
         <v>1</v>
@@ -10615,16 +10482,16 @@
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" t="s">
         <v>296</v>
       </c>
-      <c r="B132" t="s">
-        <v>294</v>
-      </c>
-      <c r="C132" t="s">
-        <v>295</v>
-      </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E132" t="s">
         <v>42</v>
@@ -10645,28 +10512,34 @@
         <v>1</v>
       </c>
       <c r="T132" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U132" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V132" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W132" t="s">
-        <v>186</v>
+        <v>75</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>79</v>
       </c>
       <c r="AB132" t="s">
         <v>126</v>
       </c>
       <c r="AG132" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="AH132">
-        <v>0.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI132" t="s">
         <v>57</v>
+      </c>
+      <c r="AK132">
+        <v>266</v>
       </c>
       <c r="AL132">
         <v>1</v>
@@ -10683,16 +10556,16 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="s">
         <v>296</v>
       </c>
-      <c r="B133" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" t="s">
-        <v>295</v>
-      </c>
       <c r="D133" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E133" t="s">
         <v>42</v>
@@ -10722,19 +10595,22 @@
         <v>118</v>
       </c>
       <c r="W133" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AB133" t="s">
         <v>126</v>
       </c>
       <c r="AG133" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AH133">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AI133" t="s">
         <v>57</v>
+      </c>
+      <c r="AK133">
+        <v>266</v>
       </c>
       <c r="AL133">
         <v>1</v>
@@ -10751,16 +10627,16 @@
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" t="s">
         <v>296</v>
       </c>
-      <c r="B134" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" t="s">
-        <v>295</v>
-      </c>
       <c r="D134" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E134" t="s">
         <v>42</v>
@@ -10789,14 +10665,23 @@
       <c r="V134" t="s">
         <v>118</v>
       </c>
+      <c r="W134" t="s">
+        <v>205</v>
+      </c>
       <c r="AB134" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>239</v>
       </c>
       <c r="AH134">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="AI134" t="s">
         <v>57</v>
+      </c>
+      <c r="AK134">
+        <v>266</v>
       </c>
       <c r="AL134">
         <v>1</v>
@@ -10813,13 +10698,16 @@
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
       </c>
       <c r="D135" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E135" t="s">
         <v>42</v>
@@ -10840,28 +10728,31 @@
         <v>1</v>
       </c>
       <c r="T135" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U135" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V135" t="s">
-        <v>74</v>
+        <v>118</v>
+      </c>
+      <c r="W135" t="s">
+        <v>240</v>
       </c>
       <c r="AB135" t="s">
         <v>126</v>
       </c>
       <c r="AG135" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="AH135">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="AI135" t="s">
         <v>57</v>
       </c>
       <c r="AK135">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="AL135">
         <v>1</v>
@@ -10878,16 +10769,16 @@
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C136" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D136" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E136" t="s">
         <v>42</v>
@@ -10911,22 +10802,22 @@
         <v>53</v>
       </c>
       <c r="U136" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="V136" t="s">
+        <v>118</v>
       </c>
       <c r="AB136" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG136" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="AH136">
-        <v>0.28000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="AI136" t="s">
         <v>57</v>
       </c>
       <c r="AK136">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="AL136">
         <v>1</v>
@@ -10946,13 +10837,13 @@
         <v>301</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" t="s">
         <v>302</v>
-      </c>
-      <c r="D137" t="s">
-        <v>303</v>
       </c>
       <c r="E137" t="s">
         <v>42</v>
@@ -10975,20 +10866,26 @@
       <c r="T137" t="s">
         <v>53</v>
       </c>
+      <c r="U137" t="s">
+        <v>54</v>
+      </c>
+      <c r="V137" t="s">
+        <v>118</v>
+      </c>
+      <c r="W137" t="s">
+        <v>185</v>
+      </c>
       <c r="AB137" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG137" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AH137">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="AI137" t="s">
         <v>57</v>
-      </c>
-      <c r="AK137">
-        <v>88</v>
       </c>
       <c r="AL137">
         <v>1</v>
@@ -11005,13 +10902,16 @@
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>299</v>
+      </c>
+      <c r="C138" t="s">
+        <v>300</v>
       </c>
       <c r="D138" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E138" t="s">
         <v>42</v>
@@ -11041,19 +10941,16 @@
         <v>118</v>
       </c>
       <c r="W138" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="AB138" t="s">
         <v>126</v>
       </c>
       <c r="AG138" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="AH138">
-        <v>0.72</v>
+        <v>0.21</v>
       </c>
       <c r="AI138" t="s">
         <v>57</v>
@@ -11073,13 +10970,16 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>299</v>
+      </c>
+      <c r="C139" t="s">
+        <v>300</v>
       </c>
       <c r="D139" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E139" t="s">
         <v>42</v>
@@ -11109,16 +11009,16 @@
         <v>118</v>
       </c>
       <c r="W139" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="AB139" t="s">
         <v>126</v>
       </c>
       <c r="AG139" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="AH139">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AI139" t="s">
         <v>57</v>
@@ -11138,13 +11038,16 @@
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>299</v>
+      </c>
+      <c r="C140" t="s">
+        <v>300</v>
       </c>
       <c r="D140" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E140" t="s">
         <v>42</v>
@@ -11174,16 +11077,16 @@
         <v>118</v>
       </c>
       <c r="W140" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AB140" t="s">
         <v>126</v>
       </c>
       <c r="AG140" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="AH140">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="AI140" t="s">
         <v>57</v>
@@ -11203,13 +11106,16 @@
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>299</v>
+      </c>
+      <c r="C141" t="s">
+        <v>300</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E141" t="s">
         <v>42</v>
@@ -11239,16 +11145,16 @@
         <v>118</v>
       </c>
       <c r="W141" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="AB141" t="s">
         <v>126</v>
       </c>
       <c r="AG141" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="AH141">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AI141" t="s">
         <v>57</v>
@@ -11268,13 +11174,16 @@
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>299</v>
+      </c>
+      <c r="C142" t="s">
+        <v>300</v>
       </c>
       <c r="D142" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E142" t="s">
         <v>42</v>
@@ -11303,17 +11212,20 @@
       <c r="V142" t="s">
         <v>118</v>
       </c>
+      <c r="W142" t="s">
+        <v>186</v>
+      </c>
       <c r="AB142" t="s">
         <v>126</v>
       </c>
+      <c r="AG142" t="s">
+        <v>265</v>
+      </c>
       <c r="AH142">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="AI142" t="s">
         <v>57</v>
-      </c>
-      <c r="AK142">
-        <v>645</v>
       </c>
       <c r="AL142">
         <v>1</v>
@@ -11330,13 +11242,16 @@
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s">
-        <v>313</v>
+        <v>299</v>
+      </c>
+      <c r="C143" t="s">
+        <v>300</v>
       </c>
       <c r="D143" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E143" t="s">
         <v>42</v>
@@ -11357,25 +11272,25 @@
         <v>1</v>
       </c>
       <c r="T143" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U143" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V143" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="AB143" t="s">
         <v>126</v>
       </c>
+      <c r="AG143" t="s">
+        <v>304</v>
+      </c>
       <c r="AH143">
-        <v>0.56000000000000005</v>
+        <v>0.05</v>
       </c>
       <c r="AI143" t="s">
         <v>57</v>
-      </c>
-      <c r="AK143">
-        <v>645</v>
       </c>
       <c r="AL143">
         <v>1</v>
@@ -11392,16 +11307,16 @@
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B144" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D144" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E144" t="s">
         <v>42</v>
@@ -11424,32 +11339,17 @@
       <c r="T144" t="s">
         <v>73</v>
       </c>
-      <c r="U144" t="s">
-        <v>78</v>
-      </c>
-      <c r="V144" t="s">
-        <v>74</v>
-      </c>
-      <c r="W144" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y144" t="s">
-        <v>81</v>
-      </c>
       <c r="AB144" t="s">
         <v>126</v>
       </c>
       <c r="AG144" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="AH144">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="AI144" t="s">
         <v>57</v>
-      </c>
-      <c r="AK144">
-        <v>266</v>
       </c>
       <c r="AL144">
         <v>1</v>
@@ -11466,16 +11366,13 @@
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B145" t="s">
-        <v>317</v>
-      </c>
-      <c r="C145" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D145" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E145" t="s">
         <v>42</v>
@@ -11496,28 +11393,22 @@
         <v>1</v>
       </c>
       <c r="T145" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="U145" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="V145" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AB145" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG145" t="s">
-        <v>320</v>
+        <v>126</v>
       </c>
       <c r="AH145">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="AI145" t="s">
         <v>57</v>
-      </c>
-      <c r="AK145">
-        <v>266</v>
       </c>
       <c r="AL145">
         <v>1</v>
@@ -11534,16 +11425,13 @@
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B146" t="s">
-        <v>317</v>
-      </c>
-      <c r="C146" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D146" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E146" t="s">
         <v>42</v>
@@ -11573,25 +11461,19 @@
         <v>74</v>
       </c>
       <c r="W146" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="Y146" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AB146" t="s">
         <v>126</v>
       </c>
-      <c r="AG146" t="s">
-        <v>210</v>
-      </c>
       <c r="AH146">
-        <v>7.0000000000000007E-2</v>
+        <v>0.4</v>
       </c>
       <c r="AI146" t="s">
         <v>57</v>
-      </c>
-      <c r="AK146">
-        <v>266</v>
       </c>
       <c r="AL146">
         <v>1</v>
@@ -11608,16 +11490,16 @@
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D147" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E147" t="s">
         <v>42</v>
@@ -11643,26 +11525,14 @@
       <c r="U147" t="s">
         <v>54</v>
       </c>
-      <c r="V147" t="s">
-        <v>118</v>
-      </c>
-      <c r="W147" t="s">
-        <v>255</v>
-      </c>
       <c r="AB147" t="s">
         <v>126</v>
       </c>
-      <c r="AG147" t="s">
-        <v>251</v>
-      </c>
       <c r="AH147">
-        <v>0.18</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AI147" t="s">
         <v>57</v>
-      </c>
-      <c r="AK147">
-        <v>266</v>
       </c>
       <c r="AL147">
         <v>1</v>
@@ -11679,16 +11549,16 @@
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E148" t="s">
         <v>42</v>
@@ -11709,31 +11579,31 @@
         <v>1</v>
       </c>
       <c r="T148" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U148" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V148" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W148" t="s">
-        <v>205</v>
+        <v>329</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>330</v>
       </c>
       <c r="AB148" t="s">
         <v>126</v>
       </c>
       <c r="AG148" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="AH148">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="AI148" t="s">
         <v>57</v>
-      </c>
-      <c r="AK148">
-        <v>266</v>
       </c>
       <c r="AL148">
         <v>1</v>
@@ -11750,16 +11620,16 @@
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D149" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E149" t="s">
         <v>42</v>
@@ -11780,31 +11650,31 @@
         <v>1</v>
       </c>
       <c r="T149" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U149" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V149" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W149" t="s">
-        <v>243</v>
+        <v>329</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>330</v>
       </c>
       <c r="AB149" t="s">
         <v>126</v>
       </c>
       <c r="AG149" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="AH149">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="AI149" t="s">
         <v>57</v>
-      </c>
-      <c r="AK149">
-        <v>266</v>
       </c>
       <c r="AL149">
         <v>1</v>
@@ -11821,16 +11691,16 @@
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B150" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D150" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E150" t="s">
         <v>42</v>
@@ -11859,17 +11729,20 @@
       <c r="V150" t="s">
         <v>118</v>
       </c>
+      <c r="W150" t="s">
+        <v>248</v>
+      </c>
       <c r="AB150" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>244</v>
       </c>
       <c r="AH150">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="AI150" t="s">
         <v>57</v>
-      </c>
-      <c r="AK150">
-        <v>266</v>
       </c>
       <c r="AL150">
         <v>1</v>
@@ -11886,16 +11759,16 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B151" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C151" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D151" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E151" t="s">
         <v>42</v>
@@ -11921,20 +11794,11 @@
       <c r="U151" t="s">
         <v>54</v>
       </c>
-      <c r="V151" t="s">
-        <v>118</v>
-      </c>
-      <c r="W151" t="s">
-        <v>185</v>
-      </c>
       <c r="AB151" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG151" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="AH151">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="AI151" t="s">
         <v>57</v>
@@ -11954,16 +11818,16 @@
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B152" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E152" t="s">
         <v>42</v>
@@ -11989,20 +11853,11 @@
       <c r="U152" t="s">
         <v>54</v>
       </c>
-      <c r="V152" t="s">
-        <v>118</v>
-      </c>
-      <c r="W152" t="s">
-        <v>255</v>
-      </c>
       <c r="AB152" t="s">
         <v>126</v>
       </c>
-      <c r="AG152" t="s">
-        <v>251</v>
-      </c>
       <c r="AH152">
-        <v>0.21</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AI152" t="s">
         <v>57</v>
@@ -12022,16 +11877,16 @@
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D153" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E153" t="s">
         <v>42</v>
@@ -12052,25 +11907,28 @@
         <v>1</v>
       </c>
       <c r="T153" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U153" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V153" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W153" t="s">
-        <v>184</v>
+        <v>329</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>330</v>
       </c>
       <c r="AB153" t="s">
         <v>126</v>
       </c>
       <c r="AG153" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="AH153">
-        <v>0.17</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="AI153" t="s">
         <v>57</v>
@@ -12090,16 +11948,16 @@
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C154" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E154" t="s">
         <v>42</v>
@@ -12120,28 +11978,34 @@
         <v>1</v>
       </c>
       <c r="T154" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U154" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="V154" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="W154" t="s">
-        <v>205</v>
+        <v>329</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>330</v>
       </c>
       <c r="AB154" t="s">
         <v>126</v>
       </c>
       <c r="AG154" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AH154">
-        <v>0.12</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AI154" t="s">
         <v>57</v>
+      </c>
+      <c r="AK154">
+        <v>1200</v>
       </c>
       <c r="AL154">
         <v>1</v>
@@ -12158,16 +12022,16 @@
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B155" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E155" t="s">
         <v>42</v>
@@ -12196,20 +12060,20 @@
       <c r="V155" t="s">
         <v>118</v>
       </c>
-      <c r="W155" t="s">
-        <v>243</v>
-      </c>
       <c r="AB155" t="s">
         <v>126</v>
       </c>
       <c r="AG155" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="AH155">
-        <v>0.04</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="AI155" t="s">
         <v>57</v>
+      </c>
+      <c r="AK155">
+        <v>1200</v>
       </c>
       <c r="AL155">
         <v>1</v>
@@ -12226,16 +12090,16 @@
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>325</v>
+      </c>
+      <c r="B156" t="s">
         <v>323</v>
       </c>
-      <c r="B156" t="s">
-        <v>321</v>
-      </c>
       <c r="C156" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E156" t="s">
         <v>42</v>
@@ -12265,19 +12129,22 @@
         <v>118</v>
       </c>
       <c r="W156" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="AB156" t="s">
         <v>126</v>
       </c>
       <c r="AG156" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="AH156">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="AI156" t="s">
         <v>57</v>
+      </c>
+      <c r="AK156">
+        <v>855</v>
       </c>
       <c r="AL156">
         <v>1</v>
@@ -12294,16 +12161,16 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" t="s">
         <v>323</v>
       </c>
-      <c r="B157" t="s">
-        <v>321</v>
-      </c>
       <c r="C157" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E157" t="s">
         <v>42</v>
@@ -12330,19 +12197,25 @@
         <v>54</v>
       </c>
       <c r="V157" t="s">
-        <v>183</v>
+        <v>118</v>
+      </c>
+      <c r="W157" t="s">
+        <v>248</v>
       </c>
       <c r="AB157" t="s">
         <v>126</v>
       </c>
       <c r="AG157" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="AH157">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AI157" t="s">
         <v>57</v>
+      </c>
+      <c r="AK157">
+        <v>855</v>
       </c>
       <c r="AL157">
         <v>1</v>
@@ -12359,16 +12232,16 @@
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" t="s">
         <v>323</v>
       </c>
-      <c r="B158" t="s">
-        <v>321</v>
-      </c>
       <c r="C158" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D158" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E158" t="s">
         <v>42</v>
@@ -12389,20 +12262,32 @@
         <v>1</v>
       </c>
       <c r="T158" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="U158" t="s">
+        <v>54</v>
+      </c>
+      <c r="V158" t="s">
+        <v>118</v>
+      </c>
+      <c r="W158" t="s">
+        <v>205</v>
       </c>
       <c r="AB158" t="s">
         <v>126</v>
       </c>
       <c r="AG158" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="AH158">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="AI158" t="s">
         <v>57</v>
       </c>
+      <c r="AK158">
+        <v>855</v>
+      </c>
       <c r="AL158">
         <v>1</v>
       </c>
@@ -12417,17 +12302,17 @@
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>357</v>
+      <c r="A159" t="s">
+        <v>325</v>
       </c>
       <c r="B159" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D159" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="E159" t="s">
         <v>42</v>
@@ -12456,18 +12341,18 @@
       <c r="V159" t="s">
         <v>118</v>
       </c>
-      <c r="W159" t="s">
-        <v>184</v>
-      </c>
       <c r="AB159" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH159">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="AI159" t="s">
         <v>57</v>
       </c>
+      <c r="AK159">
+        <v>855</v>
+      </c>
       <c r="AL159">
         <v>1</v>
       </c>
@@ -12482,60 +12367,66 @@
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s">
+        <v>324</v>
+      </c>
+      <c r="D160" t="s">
+        <v>309</v>
+      </c>
+      <c r="E160" t="s">
+        <v>42</v>
+      </c>
+      <c r="H160" t="s">
+        <v>43</v>
+      </c>
+      <c r="I160" t="s">
+        <v>43</v>
+      </c>
+      <c r="J160" t="s">
+        <v>43</v>
+      </c>
+      <c r="K160" t="s">
+        <v>44</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+      <c r="T160" t="s">
+        <v>73</v>
+      </c>
+      <c r="U160" t="s">
+        <v>78</v>
+      </c>
+      <c r="V160" t="s">
+        <v>74</v>
+      </c>
+      <c r="W160" t="s">
         <v>329</v>
       </c>
-      <c r="B160" t="s">
-        <v>331</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="Y160" t="s">
         <v>330</v>
-      </c>
-      <c r="D160" t="s">
-        <v>332</v>
-      </c>
-      <c r="E160" t="s">
-        <v>42</v>
-      </c>
-      <c r="H160" t="s">
-        <v>43</v>
-      </c>
-      <c r="I160" t="s">
-        <v>43</v>
-      </c>
-      <c r="J160" t="s">
-        <v>43</v>
-      </c>
-      <c r="K160" t="s">
-        <v>44</v>
-      </c>
-      <c r="S160">
-        <v>1</v>
-      </c>
-      <c r="T160" t="s">
-        <v>53</v>
-      </c>
-      <c r="U160" t="s">
-        <v>54</v>
-      </c>
-      <c r="V160" t="s">
-        <v>118</v>
-      </c>
-      <c r="W160" t="s">
-        <v>185</v>
       </c>
       <c r="AB160" t="s">
         <v>126</v>
       </c>
       <c r="AG160" t="s">
-        <v>325</v>
+        <v>197</v>
       </c>
       <c r="AH160">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="AI160" t="s">
         <v>57</v>
       </c>
+      <c r="AK160">
+        <v>855</v>
+      </c>
       <c r="AL160">
         <v>1</v>
       </c>
@@ -12549,1305 +12440,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B161" t="s">
-        <v>331</v>
-      </c>
-      <c r="C161" t="s">
-        <v>330</v>
-      </c>
-      <c r="D161" t="s">
-        <v>332</v>
-      </c>
-      <c r="E161" t="s">
-        <v>42</v>
-      </c>
-      <c r="H161" t="s">
-        <v>43</v>
-      </c>
-      <c r="I161" t="s">
-        <v>43</v>
-      </c>
-      <c r="J161" t="s">
-        <v>43</v>
-      </c>
-      <c r="K161" t="s">
-        <v>44</v>
-      </c>
-      <c r="S161">
-        <v>1</v>
-      </c>
-      <c r="T161" t="s">
-        <v>53</v>
-      </c>
-      <c r="U161" t="s">
-        <v>54</v>
-      </c>
-      <c r="V161" t="s">
-        <v>118</v>
-      </c>
-      <c r="W161" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB161" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG161" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH161">
-        <v>0.13</v>
-      </c>
-      <c r="AI161" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL161">
-        <v>1</v>
-      </c>
-      <c r="AM161" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO161" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP161" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B162" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" t="s">
-        <v>330</v>
-      </c>
-      <c r="D162" t="s">
-        <v>332</v>
-      </c>
-      <c r="E162" t="s">
-        <v>42</v>
-      </c>
-      <c r="H162" t="s">
-        <v>43</v>
-      </c>
-      <c r="I162" t="s">
-        <v>43</v>
-      </c>
-      <c r="J162" t="s">
-        <v>43</v>
-      </c>
-      <c r="K162" t="s">
-        <v>44</v>
-      </c>
-      <c r="S162">
-        <v>1</v>
-      </c>
-      <c r="T162" t="s">
-        <v>53</v>
-      </c>
-      <c r="U162" t="s">
-        <v>54</v>
-      </c>
-      <c r="V162" t="s">
-        <v>118</v>
-      </c>
-      <c r="W162" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB162" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG162" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH162">
-        <v>0.17</v>
-      </c>
-      <c r="AI162" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL162">
-        <v>1</v>
-      </c>
-      <c r="AM162" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO162" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP162" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B163" t="s">
-        <v>331</v>
-      </c>
-      <c r="C163" t="s">
-        <v>330</v>
-      </c>
-      <c r="D163" t="s">
-        <v>332</v>
-      </c>
-      <c r="E163" t="s">
-        <v>42</v>
-      </c>
-      <c r="H163" t="s">
-        <v>43</v>
-      </c>
-      <c r="I163" t="s">
-        <v>43</v>
-      </c>
-      <c r="J163" t="s">
-        <v>43</v>
-      </c>
-      <c r="K163" t="s">
-        <v>44</v>
-      </c>
-      <c r="S163">
-        <v>1</v>
-      </c>
-      <c r="T163" t="s">
-        <v>53</v>
-      </c>
-      <c r="U163" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB163" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH163">
-        <v>0.06</v>
-      </c>
-      <c r="AI163" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL163">
-        <v>1</v>
-      </c>
-      <c r="AM163" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO163" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP163" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B164" t="s">
-        <v>331</v>
-      </c>
-      <c r="C164" t="s">
-        <v>330</v>
-      </c>
-      <c r="D164" t="s">
-        <v>332</v>
-      </c>
-      <c r="E164" t="s">
-        <v>42</v>
-      </c>
-      <c r="H164" t="s">
-        <v>43</v>
-      </c>
-      <c r="I164" t="s">
-        <v>43</v>
-      </c>
-      <c r="J164" t="s">
-        <v>43</v>
-      </c>
-      <c r="K164" t="s">
-        <v>44</v>
-      </c>
-      <c r="S164">
-        <v>1</v>
-      </c>
-      <c r="T164" t="s">
-        <v>73</v>
-      </c>
-      <c r="U164" t="s">
-        <v>78</v>
-      </c>
-      <c r="V164" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB164" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH164">
-        <v>0.06</v>
-      </c>
-      <c r="AI164" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL164">
-        <v>1</v>
-      </c>
-      <c r="AM164" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO164" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP164" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>333</v>
-      </c>
-      <c r="B165" t="s">
-        <v>334</v>
-      </c>
-      <c r="D165" t="s">
-        <v>335</v>
-      </c>
-      <c r="E165" t="s">
-        <v>42</v>
-      </c>
-      <c r="H165" t="s">
-        <v>43</v>
-      </c>
-      <c r="I165" t="s">
-        <v>43</v>
-      </c>
-      <c r="J165" t="s">
-        <v>43</v>
-      </c>
-      <c r="K165" t="s">
-        <v>44</v>
-      </c>
-      <c r="S165">
-        <v>1</v>
-      </c>
-      <c r="T165" t="s">
-        <v>53</v>
-      </c>
-      <c r="U165" t="s">
-        <v>54</v>
-      </c>
-      <c r="V165" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB165" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH165">
-        <v>0.6</v>
-      </c>
-      <c r="AI165" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL165">
-        <v>1</v>
-      </c>
-      <c r="AM165" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO165" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP165" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>333</v>
-      </c>
-      <c r="B166" t="s">
-        <v>334</v>
-      </c>
-      <c r="D166" t="s">
-        <v>335</v>
-      </c>
-      <c r="E166" t="s">
-        <v>42</v>
-      </c>
-      <c r="H166" t="s">
-        <v>43</v>
-      </c>
-      <c r="I166" t="s">
-        <v>43</v>
-      </c>
-      <c r="J166" t="s">
-        <v>43</v>
-      </c>
-      <c r="K166" t="s">
-        <v>44</v>
-      </c>
-      <c r="S166">
-        <v>1</v>
-      </c>
-      <c r="T166" t="s">
-        <v>73</v>
-      </c>
-      <c r="U166" t="s">
-        <v>78</v>
-      </c>
-      <c r="V166" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB166" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH166">
-        <v>0.4</v>
-      </c>
-      <c r="AI166" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL166">
-        <v>1</v>
-      </c>
-      <c r="AM166" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO166" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP166" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>336</v>
-      </c>
-      <c r="B167" t="s">
-        <v>338</v>
-      </c>
-      <c r="C167" t="s">
-        <v>337</v>
-      </c>
-      <c r="D167" t="s">
-        <v>335</v>
-      </c>
-      <c r="E167" t="s">
-        <v>42</v>
-      </c>
-      <c r="H167" t="s">
-        <v>43</v>
-      </c>
-      <c r="I167" t="s">
-        <v>43</v>
-      </c>
-      <c r="J167" t="s">
-        <v>43</v>
-      </c>
-      <c r="K167" t="s">
-        <v>44</v>
-      </c>
-      <c r="S167">
-        <v>1</v>
-      </c>
-      <c r="T167" t="s">
-        <v>53</v>
-      </c>
-      <c r="U167" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB167" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH167">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AI167" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL167">
-        <v>1</v>
-      </c>
-      <c r="AM167" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO167" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP167" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>336</v>
-      </c>
-      <c r="B168" t="s">
-        <v>338</v>
-      </c>
-      <c r="C168" t="s">
-        <v>337</v>
-      </c>
-      <c r="D168" t="s">
-        <v>335</v>
-      </c>
-      <c r="E168" t="s">
-        <v>42</v>
-      </c>
-      <c r="H168" t="s">
-        <v>43</v>
-      </c>
-      <c r="I168" t="s">
-        <v>43</v>
-      </c>
-      <c r="J168" t="s">
-        <v>43</v>
-      </c>
-      <c r="K168" t="s">
-        <v>44</v>
-      </c>
-      <c r="S168">
-        <v>1</v>
-      </c>
-      <c r="T168" t="s">
-        <v>73</v>
-      </c>
-      <c r="U168" t="s">
-        <v>78</v>
-      </c>
-      <c r="V168" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH168">
-        <v>0.43</v>
-      </c>
-      <c r="AI168" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL168">
-        <v>1</v>
-      </c>
-      <c r="AM168" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO168" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP168" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>339</v>
-      </c>
-      <c r="B169" t="s">
-        <v>341</v>
-      </c>
-      <c r="C169" t="s">
-        <v>340</v>
-      </c>
-      <c r="D169" t="s">
-        <v>335</v>
-      </c>
-      <c r="E169" t="s">
-        <v>42</v>
-      </c>
-      <c r="H169" t="s">
-        <v>43</v>
-      </c>
-      <c r="I169" t="s">
-        <v>43</v>
-      </c>
-      <c r="J169" t="s">
-        <v>43</v>
-      </c>
-      <c r="K169" t="s">
-        <v>44</v>
-      </c>
-      <c r="S169">
-        <v>1</v>
-      </c>
-      <c r="T169" t="s">
-        <v>73</v>
-      </c>
-      <c r="U169" t="s">
-        <v>78</v>
-      </c>
-      <c r="V169" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB169" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH169">
-        <v>0.25</v>
-      </c>
-      <c r="AI169" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL169">
-        <v>1</v>
-      </c>
-      <c r="AM169" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO169" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP169" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>339</v>
-      </c>
-      <c r="B170" t="s">
-        <v>341</v>
-      </c>
-      <c r="C170" t="s">
-        <v>340</v>
-      </c>
-      <c r="D170" t="s">
-        <v>335</v>
-      </c>
-      <c r="E170" t="s">
-        <v>42</v>
-      </c>
-      <c r="H170" t="s">
-        <v>43</v>
-      </c>
-      <c r="I170" t="s">
-        <v>43</v>
-      </c>
-      <c r="J170" t="s">
-        <v>43</v>
-      </c>
-      <c r="K170" t="s">
-        <v>44</v>
-      </c>
-      <c r="S170">
-        <v>1</v>
-      </c>
-      <c r="T170" t="s">
-        <v>53</v>
-      </c>
-      <c r="U170" t="s">
-        <v>54</v>
-      </c>
-      <c r="V170" t="s">
-        <v>118</v>
-      </c>
-      <c r="W170" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB170" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG170" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH170">
-        <v>0.33</v>
-      </c>
-      <c r="AI170" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL170">
-        <v>1</v>
-      </c>
-      <c r="AM170" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO170" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP170" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>339</v>
-      </c>
-      <c r="B171" t="s">
-        <v>341</v>
-      </c>
-      <c r="C171" t="s">
-        <v>340</v>
-      </c>
-      <c r="D171" t="s">
-        <v>335</v>
-      </c>
-      <c r="E171" t="s">
-        <v>42</v>
-      </c>
-      <c r="H171" t="s">
-        <v>43</v>
-      </c>
-      <c r="I171" t="s">
-        <v>43</v>
-      </c>
-      <c r="J171" t="s">
-        <v>43</v>
-      </c>
-      <c r="K171" t="s">
-        <v>44</v>
-      </c>
-      <c r="S171">
-        <v>1</v>
-      </c>
-      <c r="T171" t="s">
-        <v>53</v>
-      </c>
-      <c r="U171" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB171" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH171">
-        <v>0.42</v>
-      </c>
-      <c r="AI171" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL171">
-        <v>1</v>
-      </c>
-      <c r="AM171" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO171" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP171" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>344</v>
-      </c>
-      <c r="B172" t="s">
-        <v>343</v>
-      </c>
-      <c r="C172" t="s">
-        <v>342</v>
-      </c>
-      <c r="D172" t="s">
-        <v>335</v>
-      </c>
-      <c r="E172" t="s">
-        <v>42</v>
-      </c>
-      <c r="H172" t="s">
-        <v>43</v>
-      </c>
-      <c r="I172" t="s">
-        <v>43</v>
-      </c>
-      <c r="J172" t="s">
-        <v>43</v>
-      </c>
-      <c r="K172" t="s">
-        <v>44</v>
-      </c>
-      <c r="S172">
-        <v>1</v>
-      </c>
-      <c r="T172" t="s">
-        <v>53</v>
-      </c>
-      <c r="U172" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB172" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH172">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="AI172" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL172">
-        <v>1</v>
-      </c>
-      <c r="AM172" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO172" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP172" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>344</v>
-      </c>
-      <c r="B173" t="s">
-        <v>343</v>
-      </c>
-      <c r="C173" t="s">
-        <v>342</v>
-      </c>
-      <c r="D173" t="s">
-        <v>335</v>
-      </c>
-      <c r="E173" t="s">
-        <v>42</v>
-      </c>
-      <c r="H173" t="s">
-        <v>43</v>
-      </c>
-      <c r="I173" t="s">
-        <v>43</v>
-      </c>
-      <c r="J173" t="s">
-        <v>43</v>
-      </c>
-      <c r="K173" t="s">
-        <v>44</v>
-      </c>
-      <c r="S173">
-        <v>1</v>
-      </c>
-      <c r="T173" t="s">
-        <v>73</v>
-      </c>
-      <c r="U173" t="s">
-        <v>78</v>
-      </c>
-      <c r="V173" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB173" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG173" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH173">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="AI173" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL173">
-        <v>1</v>
-      </c>
-      <c r="AM173" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO173" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP173" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>347</v>
-      </c>
-      <c r="B174" t="s">
-        <v>345</v>
-      </c>
-      <c r="C174" t="s">
-        <v>346</v>
-      </c>
-      <c r="D174" t="s">
-        <v>335</v>
-      </c>
-      <c r="E174" t="s">
-        <v>42</v>
-      </c>
-      <c r="H174" t="s">
-        <v>43</v>
-      </c>
-      <c r="I174" t="s">
-        <v>43</v>
-      </c>
-      <c r="J174" t="s">
-        <v>43</v>
-      </c>
-      <c r="K174" t="s">
-        <v>44</v>
-      </c>
-      <c r="S174">
-        <v>1</v>
-      </c>
-      <c r="T174" t="s">
-        <v>73</v>
-      </c>
-      <c r="U174" t="s">
-        <v>78</v>
-      </c>
-      <c r="V174" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB174" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG174" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH174">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="AI174" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK174">
-        <v>1200</v>
-      </c>
-      <c r="AL174">
-        <v>1</v>
-      </c>
-      <c r="AM174" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO174" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP174" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>347</v>
-      </c>
-      <c r="B175" t="s">
-        <v>345</v>
-      </c>
-      <c r="C175" t="s">
-        <v>346</v>
-      </c>
-      <c r="D175" t="s">
-        <v>335</v>
-      </c>
-      <c r="E175" t="s">
-        <v>42</v>
-      </c>
-      <c r="H175" t="s">
-        <v>43</v>
-      </c>
-      <c r="I175" t="s">
-        <v>43</v>
-      </c>
-      <c r="J175" t="s">
-        <v>43</v>
-      </c>
-      <c r="K175" t="s">
-        <v>44</v>
-      </c>
-      <c r="S175">
-        <v>1</v>
-      </c>
-      <c r="T175" t="s">
-        <v>53</v>
-      </c>
-      <c r="U175" t="s">
-        <v>54</v>
-      </c>
-      <c r="V175" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB175" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG175" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH175">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="AI175" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK175">
-        <v>1200</v>
-      </c>
-      <c r="AL175">
-        <v>1</v>
-      </c>
-      <c r="AM175" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO175" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP175" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>351</v>
-      </c>
-      <c r="B176" t="s">
-        <v>349</v>
-      </c>
-      <c r="C176" t="s">
-        <v>350</v>
-      </c>
-      <c r="D176" t="s">
-        <v>335</v>
-      </c>
-      <c r="E176" t="s">
-        <v>42</v>
-      </c>
-      <c r="H176" t="s">
-        <v>43</v>
-      </c>
-      <c r="I176" t="s">
-        <v>43</v>
-      </c>
-      <c r="J176" t="s">
-        <v>43</v>
-      </c>
-      <c r="K176" t="s">
-        <v>44</v>
-      </c>
-      <c r="S176">
-        <v>1</v>
-      </c>
-      <c r="T176" t="s">
-        <v>53</v>
-      </c>
-      <c r="U176" t="s">
-        <v>54</v>
-      </c>
-      <c r="V176" t="s">
-        <v>118</v>
-      </c>
-      <c r="W176" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB176" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG176" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH176">
-        <v>0.22</v>
-      </c>
-      <c r="AI176" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK176">
-        <v>855</v>
-      </c>
-      <c r="AL176">
-        <v>1</v>
-      </c>
-      <c r="AM176" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO176" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP176" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>351</v>
-      </c>
-      <c r="B177" t="s">
-        <v>349</v>
-      </c>
-      <c r="C177" t="s">
-        <v>350</v>
-      </c>
-      <c r="D177" t="s">
-        <v>335</v>
-      </c>
-      <c r="E177" t="s">
-        <v>42</v>
-      </c>
-      <c r="H177" t="s">
-        <v>43</v>
-      </c>
-      <c r="I177" t="s">
-        <v>43</v>
-      </c>
-      <c r="J177" t="s">
-        <v>43</v>
-      </c>
-      <c r="K177" t="s">
-        <v>44</v>
-      </c>
-      <c r="S177">
-        <v>1</v>
-      </c>
-      <c r="T177" t="s">
-        <v>53</v>
-      </c>
-      <c r="U177" t="s">
-        <v>54</v>
-      </c>
-      <c r="V177" t="s">
-        <v>118</v>
-      </c>
-      <c r="W177" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB177" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG177" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH177">
-        <v>0.2</v>
-      </c>
-      <c r="AI177" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK177">
-        <v>855</v>
-      </c>
-      <c r="AL177">
-        <v>1</v>
-      </c>
-      <c r="AM177" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO177" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP177" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>351</v>
-      </c>
-      <c r="B178" t="s">
-        <v>349</v>
-      </c>
-      <c r="C178" t="s">
-        <v>350</v>
-      </c>
-      <c r="D178" t="s">
-        <v>335</v>
-      </c>
-      <c r="E178" t="s">
-        <v>42</v>
-      </c>
-      <c r="H178" t="s">
-        <v>43</v>
-      </c>
-      <c r="I178" t="s">
-        <v>43</v>
-      </c>
-      <c r="J178" t="s">
-        <v>43</v>
-      </c>
-      <c r="K178" t="s">
-        <v>44</v>
-      </c>
-      <c r="S178">
-        <v>1</v>
-      </c>
-      <c r="T178" t="s">
-        <v>53</v>
-      </c>
-      <c r="U178" t="s">
-        <v>54</v>
-      </c>
-      <c r="V178" t="s">
-        <v>118</v>
-      </c>
-      <c r="W178" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB178" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG178" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH178">
-        <v>0.1</v>
-      </c>
-      <c r="AI178" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK178">
-        <v>855</v>
-      </c>
-      <c r="AL178">
-        <v>1</v>
-      </c>
-      <c r="AM178" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO178" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP178" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>351</v>
-      </c>
-      <c r="B179" t="s">
-        <v>349</v>
-      </c>
-      <c r="C179" t="s">
-        <v>350</v>
-      </c>
-      <c r="D179" t="s">
-        <v>335</v>
-      </c>
-      <c r="E179" t="s">
-        <v>42</v>
-      </c>
-      <c r="H179" t="s">
-        <v>43</v>
-      </c>
-      <c r="I179" t="s">
-        <v>43</v>
-      </c>
-      <c r="J179" t="s">
-        <v>43</v>
-      </c>
-      <c r="K179" t="s">
-        <v>44</v>
-      </c>
-      <c r="S179">
-        <v>1</v>
-      </c>
-      <c r="T179" t="s">
-        <v>53</v>
-      </c>
-      <c r="U179" t="s">
-        <v>54</v>
-      </c>
-      <c r="V179" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB179" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH179">
-        <v>0.16</v>
-      </c>
-      <c r="AI179" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK179">
-        <v>855</v>
-      </c>
-      <c r="AL179">
-        <v>1</v>
-      </c>
-      <c r="AM179" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO179" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP179" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>351</v>
-      </c>
-      <c r="B180" t="s">
-        <v>349</v>
-      </c>
-      <c r="C180" t="s">
-        <v>350</v>
-      </c>
-      <c r="D180" t="s">
-        <v>335</v>
-      </c>
-      <c r="E180" t="s">
-        <v>42</v>
-      </c>
-      <c r="H180" t="s">
-        <v>43</v>
-      </c>
-      <c r="I180" t="s">
-        <v>43</v>
-      </c>
-      <c r="J180" t="s">
-        <v>43</v>
-      </c>
-      <c r="K180" t="s">
-        <v>44</v>
-      </c>
-      <c r="S180">
-        <v>1</v>
-      </c>
-      <c r="T180" t="s">
-        <v>73</v>
-      </c>
-      <c r="U180" t="s">
-        <v>78</v>
-      </c>
-      <c r="V180" t="s">
-        <v>74</v>
-      </c>
-      <c r="W180" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB180" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG180" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH180">
-        <v>0.32</v>
-      </c>
-      <c r="AI180" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK180">
-        <v>855</v>
-      </c>
-      <c r="AL180">
-        <v>1</v>
-      </c>
-      <c r="AM180" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO180" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP180" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP180"/>
+  <autoFilter ref="A1:AP160"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
